--- a/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.02195340527817725</v>
+        <v>0.0218702415479131</v>
       </c>
       <c r="F5">
         <v>0.5181448613034481</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6">
-        <v>0.02914969686051026</v>
+        <v>0.0286020967291253</v>
       </c>
       <c r="F6">
         <v>0.5126364688869282</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.02195340527817725</v>
+        <v>0.0218702415479131</v>
       </c>
       <c r="F5">
         <v>0.7083467964092671</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.02914969686051026</v>
+        <v>0.0286020967291253</v>
       </c>
       <c r="F6">
         <v>0.7064496063037713</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.02195340527817725</v>
+        <v>0.0218702415479131</v>
       </c>
       <c r="F5">
         <v>0.8056441315787821</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>156</v>
       </c>
       <c r="E6">
-        <v>0.02914969686051026</v>
+        <v>0.0286020967291253</v>
       </c>
       <c r="F6">
         <v>0.8122585807589556</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>167</v>
       </c>
       <c r="E5">
-        <v>0.02195340527817725</v>
+        <v>0.0218702415479131</v>
       </c>
       <c r="F5">
         <v>0.9168014221004154</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>168</v>
       </c>
       <c r="E6">
-        <v>0.02914969686051026</v>
+        <v>0.0286020967291253</v>
       </c>
       <c r="F6">
         <v>0.9025434538974242</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>9</v>

--- a/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0004054174741296502</v>
+        <v>6.516579440003828E-05</v>
       </c>
       <c r="C2">
-        <v>0.0003569031924388257</v>
+        <v>1.443363203919772E-05</v>
       </c>
       <c r="D2">
-        <v>0.0003482077321357706</v>
+        <v>5.340649755997931E-06</v>
       </c>
       <c r="E2">
-        <v>0.0002430212084697994</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002336146081419596</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0002336146081419596</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001301632445364624</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.218470251578845E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.442297329083889E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.954235346926003E-07</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.182145610904456E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001394241348592239</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0002064141771939675</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.000272246379488358</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0003679140128225759</v>
+        <v>2.594782348893153E-05</v>
       </c>
       <c r="Q2">
-        <v>0.000343100561957775</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0003417474319106156</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0003577002924666062</v>
+        <v>1.526717232090084E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002560068089223748</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001496794052166416</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001496794052166416</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001243155343326574</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>7.442387259382822E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.374860782768885E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>7.670898567346922E-07</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3.213434411994937E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>8.246722287415588E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.681256267707909E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>9.868939743953273E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002679481093385542</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003227646112490244</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002541654788582006</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.000179111246242403</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0002767977796469839</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002456883085627534</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0001609998656111834</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002229355377697716</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001392141048519039</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.560815958954012E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.002788844061896E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.441386119939532E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.019804174950715E-07</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.466501485962756E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>5.291314884413434E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001262251943992131</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0001943394367731374</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0001243155343326574</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001314819145824208</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0001693729659030035</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0002583521490041149</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0001806575362962945</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001394241348592239</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001385620348291779</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0001218816582478317</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>5.011431174658899E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>3.279122114284291E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>2.643372392127078E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>3.701545829006644E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>4.099526142877094E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>3.910881536302434E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>6.95176424228358E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>9.343414725637621E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0001409450049122294</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0001249332143541849</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0002026737370636053</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0002604209690762176</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0002093204272952564</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0001326780546241088</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001560894354400446</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>9.628282335565857E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>3.481323521331435E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.302539545396238E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.926380567138408E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>6.10944281292691E-07</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>2.242166078144196E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.291391145007693E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.374860782768885E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>8.485938295752768E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0001218816582478317</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0001045190736427092</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>5.743856900185474E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0001067738337212923</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0001108416938630658</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>8.130482783364397E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>8.917918310808178E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.000118408534126786</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>5.743856900185474E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>3.681582628310886E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.977314868913575E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0002188528376274809</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.04698137363739952</v>
+        <v>0.04877039006722053</v>
       </c>
       <c r="CO2">
-        <v>0.0004118227143528864</v>
+        <v>7.186385681877671E-05</v>
       </c>
       <c r="CP2">
-        <v>0.06793053636752183</v>
+        <v>0.07067726548426376</v>
       </c>
       <c r="CQ2">
-        <v>0.004395291153185126</v>
+        <v>0.004237440683989284</v>
       </c>
       <c r="CR2">
-        <v>0.001395438248633953</v>
+        <v>0.001100446394715647</v>
       </c>
       <c r="CS2">
-        <v>0.01028862035858002</v>
+        <v>0.01040018954213683</v>
       </c>
       <c r="CT2">
-        <v>0.01075430137480999</v>
+        <v>0.0108871596486778</v>
       </c>
       <c r="CU2">
-        <v>0.02734737895311358</v>
+        <v>0.0282388069663321</v>
       </c>
       <c r="CV2">
-        <v>0.03440138419896047</v>
+        <v>0.03561529337310101</v>
       </c>
       <c r="CW2">
-        <v>0.02008911270014776</v>
+        <v>0.02064872154879794</v>
       </c>
       <c r="CX2">
-        <v>0.09176532319821419</v>
+        <v>0.09560168429843331</v>
       </c>
       <c r="CY2">
-        <v>0.04201139146418521</v>
+        <v>0.04357320000783069</v>
       </c>
       <c r="CZ2">
-        <v>1.728478560241107E-05</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.02144573674742896</v>
+        <v>0.02206736507047059</v>
       </c>
       <c r="DB2">
-        <v>0.003996377439282145</v>
+        <v>0.003820290216201992</v>
       </c>
       <c r="DC2">
-        <v>0.06487192226092271</v>
+        <v>0.06747882366368764</v>
       </c>
       <c r="DD2">
-        <v>0.06555038228456847</v>
+        <v>0.06818830019050275</v>
       </c>
       <c r="DE2">
-        <v>0.006028996210123178</v>
+        <v>0.005945832260855251</v>
       </c>
       <c r="DF2">
-        <v>0.02629359391638696</v>
+        <v>0.02713684705445835</v>
       </c>
       <c r="DG2">
-        <v>0.01186530741353088</v>
+        <v>0.01204895647995857</v>
       </c>
       <c r="DH2">
-        <v>0.02414474084149492</v>
+        <v>0.0248897569340736</v>
       </c>
       <c r="DI2">
-        <v>0.007798735771802317</v>
+        <v>0.007796477300839206</v>
       </c>
       <c r="DJ2">
-        <v>0.006888470840077673</v>
+        <v>0.006844598664318695</v>
       </c>
       <c r="DK2">
-        <v>0.005977496208328294</v>
+        <v>0.005891977883101251</v>
       </c>
       <c r="DL2">
-        <v>0.026565945925879</v>
+        <v>0.02742164991834296</v>
       </c>
       <c r="DM2">
-        <v>0.005001454774311201</v>
+        <v>0.004871315703312082</v>
       </c>
       <c r="DN2">
-        <v>0.004305694850062507</v>
+        <v>0.004143748393007524</v>
       </c>
       <c r="DO2">
-        <v>0.00717460245004996</v>
+        <v>0.00714381107740134</v>
       </c>
       <c r="DP2">
-        <v>0.00516527588002071</v>
+        <v>0.005042626060661124</v>
       </c>
       <c r="DQ2">
-        <v>5.115496778285804E-05</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>4.150953244669436E-07</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.003909029136237873</v>
+        <v>0.003728948694952096</v>
       </c>
       <c r="DT2">
-        <v>0.001074079937433941</v>
+        <v>0.0007643968552480158</v>
       </c>
       <c r="DU2">
-        <v>0.000294397040260355</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0006699852233503918</v>
+        <v>0.0003418285324870645</v>
       </c>
       <c r="DW2">
-        <v>0.0005306364184937935</v>
+        <v>0.0001961092525886862</v>
       </c>
       <c r="DX2">
-        <v>0.01241656993274353</v>
+        <v>0.01262542053659185</v>
       </c>
       <c r="DY2">
-        <v>0.003076456607220973</v>
+        <v>0.002858314249853232</v>
       </c>
       <c r="DZ2">
-        <v>0.001464311051034315</v>
+        <v>0.001172467788660805</v>
       </c>
       <c r="EA2">
-        <v>0.006436375224321192</v>
+        <v>0.006371835028914406</v>
       </c>
       <c r="EB2">
-        <v>0.01386830048333939</v>
+        <v>0.01414351845395112</v>
       </c>
       <c r="EC2">
-        <v>0.005359289186782481</v>
+        <v>0.005245508886826171</v>
       </c>
       <c r="ED2">
-        <v>0.0002272249379192662</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0007986607678350049</v>
+        <v>0.0004763866128532751</v>
       </c>
       <c r="EF2">
-        <v>1.049865636590022E-05</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>3.438312119832397E-05</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.001120095739037688</v>
+        <v>0.0008125163169150542</v>
       </c>
       <c r="EI2">
-        <v>0.001018889635510443</v>
+        <v>0.0007066834714702189</v>
       </c>
       <c r="EJ2">
-        <v>9.249410322361372E-05</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0003053710806428234</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.001807165762983521</v>
+        <v>0.001530996459117777</v>
       </c>
       <c r="EM2">
-        <v>0.006882402839866191</v>
+        <v>0.00683825325918838</v>
       </c>
       <c r="EN2">
-        <v>0.003114427808544349</v>
+        <v>0.002898021344000274</v>
       </c>
       <c r="EO2">
-        <v>0.005065906476557478</v>
+        <v>0.004938713881927371</v>
       </c>
       <c r="EP2">
-        <v>0.001565108954547333</v>
+        <v>0.001277873772804686</v>
       </c>
       <c r="EQ2">
-        <v>0.0001643355057274374</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002662474392792823</v>
+        <v>0.002425406409421549</v>
       </c>
       <c r="ES2">
-        <v>2.643372392127078E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.002877005900269697</v>
+        <v>0.002649745447113434</v>
       </c>
       <c r="EU2">
-        <v>0.002354101582045383</v>
+        <v>0.002102936016018472</v>
       </c>
       <c r="EV2">
-        <v>0.0006505697226737208</v>
+        <v>0.0003215254320738068</v>
       </c>
       <c r="EW2">
-        <v>0.002816831598172496</v>
+        <v>0.002586820214428337</v>
       </c>
       <c r="EX2">
-        <v>0.001497138352178415</v>
+        <v>0.001206795823900492</v>
       </c>
       <c r="EY2">
-        <v>0.00318244211091479</v>
+        <v>0.002969144990696853</v>
       </c>
       <c r="EZ2">
-        <v>0.04160635145006871</v>
+        <v>0.04314964316966603</v>
       </c>
       <c r="FA2">
-        <v>0.0521886518188841</v>
+        <v>0.05421572436784363</v>
       </c>
       <c r="FB2">
-        <v>0.0005845687903734498</v>
+        <v>0.0002525071987469085</v>
       </c>
       <c r="FC2">
-        <v>0.01548975203985038</v>
+        <v>0.01583909634891789</v>
       </c>
       <c r="FD2">
-        <v>1.06971633728186E-06</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.005229820182270214</v>
+        <v>0.005110121072584763</v>
       </c>
       <c r="FF2">
-        <v>0.004643135161823009</v>
+        <v>0.004496615138359423</v>
       </c>
       <c r="FG2">
-        <v>0.02486691386666416</v>
+        <v>0.0256449448475831</v>
       </c>
       <c r="FH2">
-        <v>0.004733256164963916</v>
+        <v>0.00459085611656463</v>
       </c>
       <c r="FI2">
-        <v>5.897644805545305E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0008085206781786433</v>
+        <v>0.0004866972792175552</v>
       </c>
       <c r="FK2">
-        <v>0.01009733835191344</v>
+        <v>0.01020016288028167</v>
       </c>
       <c r="FL2">
-        <v>0.02395675983494339</v>
+        <v>0.02469318218097507</v>
       </c>
       <c r="FM2">
-        <v>0.008962824312373247</v>
+        <v>0.009013783355559329</v>
       </c>
       <c r="FN2">
-        <v>0.0002272249379192662</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0004843752368814941</v>
+        <v>0.0001477331931116812</v>
       </c>
       <c r="FP2">
-        <v>0.002337255781458272</v>
+        <v>0.002085320092197728</v>
       </c>
       <c r="FQ2">
-        <v>0.01571728554778041</v>
+        <v>0.01607703178698953</v>
       </c>
       <c r="FR2">
-        <v>0.005829547703171978</v>
+        <v>0.005737265758690813</v>
       </c>
       <c r="FS2">
-        <v>0.002305863480364184</v>
+        <v>0.002052492659522643</v>
       </c>
       <c r="FT2">
-        <v>0.001254420043719173</v>
+        <v>0.0009529813964051809</v>
       </c>
       <c r="FU2">
-        <v>0.004482986556241494</v>
+        <v>0.00432914517328808</v>
       </c>
       <c r="FV2">
-        <v>0.004232009547494419</v>
+        <v>0.004066694490461567</v>
       </c>
       <c r="FW2">
-        <v>0.0001957009868205903</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0002387577183212078</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002492956686884775</v>
+        <v>0.002248139025891663</v>
       </c>
       <c r="FZ2">
-        <v>6.804802237161646E-05</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.000816858988469251</v>
+        <v>0.0004954167840053213</v>
       </c>
       <c r="GB2">
-        <v>0.002094413972994725</v>
+        <v>0.001831376518767415</v>
       </c>
       <c r="GC2">
-        <v>0.0007248629952629974</v>
+        <v>0.0003992150986206001</v>
       </c>
       <c r="GD2">
-        <v>0.001541793053734725</v>
+        <v>0.001253491961420715</v>
       </c>
       <c r="GE2">
-        <v>0.001121507539086893</v>
+        <v>0.0008139926588667648</v>
       </c>
       <c r="GF2">
-        <v>0.0004570223559281887</v>
+        <v>0.0001191298468557626</v>
       </c>
       <c r="GG2">
-        <v>0.00190694306646097</v>
+        <v>0.001635335185437663</v>
       </c>
       <c r="GH2">
-        <v>0.001459902650880673</v>
+        <v>0.001167857853925063</v>
       </c>
       <c r="GI2">
-        <v>2.168927775591687E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>8.28194028864301E-06</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>1.049865636590022E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.003396300218368194</v>
+        <v>0.003192779843185252</v>
       </c>
       <c r="GM2">
-        <v>0.0012386972431712</v>
+        <v>0.0009365398117342958</v>
       </c>
       <c r="GN2">
-        <v>0.0005328847485721524</v>
+        <v>0.000198460367406854</v>
       </c>
       <c r="GO2">
-        <v>9.526426932015982E-05</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.00100781733512455</v>
+        <v>0.0006951049893963236</v>
       </c>
       <c r="GQ2">
-        <v>0.0001933213867376562</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>5.785867501649631E-05</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>4.777320166499639E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001516188261801077</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.085044725748954E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001200648648939424</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0005794524236189562</v>
+        <v>0.0003863479124629106</v>
       </c>
       <c r="F3">
-        <v>0.0009846699401359546</v>
+        <v>0.000803562724863246</v>
       </c>
       <c r="G3">
-        <v>0.0005759694234769862</v>
+        <v>0.0003827617909563361</v>
       </c>
       <c r="H3">
-        <v>0.0003231086131701721</v>
+        <v>0.000122414517614492</v>
       </c>
       <c r="I3">
-        <v>0.0003011674722758332</v>
+        <v>9.982376423155693E-05</v>
       </c>
       <c r="J3">
-        <v>0.0002042142083239387</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0002332851695088949</v>
+        <v>2.993166663013727E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001630420766457288</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0002539600603516204</v>
+        <v>5.121868003095918E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001580584264425912</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001490805060766437</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5.486517223634943E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.241359550598834E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.66009831223189E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3.633890148120344E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002195128389475234</v>
+        <v>1.575157796845435E-05</v>
       </c>
       <c r="U3">
-        <v>0.0001761911871816973</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0004184940370581603</v>
+        <v>0.0002206240226606147</v>
       </c>
       <c r="W3">
-        <v>0.0009504013387391383</v>
+        <v>0.0007682795312197777</v>
       </c>
       <c r="X3">
-        <v>0.000840196634247104</v>
+        <v>0.000654811990365458</v>
       </c>
       <c r="Y3">
-        <v>0.0004235913672659316</v>
+        <v>0.0002258722697863992</v>
       </c>
       <c r="Z3">
-        <v>0.0004899116699692015</v>
+        <v>0.0002941561211078104</v>
       </c>
       <c r="AA3">
-        <v>0.0004063028165612361</v>
+        <v>0.0002080718560704964</v>
       </c>
       <c r="AB3">
-        <v>0.000183969187498735</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001095926094670847</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0001632483366541361</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.633890148120344E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.028093564188398E-08</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>5.68423373169403E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0001055136743008239</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.86450336132443E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0003102158826446539</v>
+        <v>0.00010914007135223</v>
       </c>
       <c r="AK3">
-        <v>0.000238371599716222</v>
+        <v>3.516869103860295E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0003915097159582572</v>
+        <v>0.0001928407753760067</v>
       </c>
       <c r="AM3">
-        <v>0.0002975856121298337</v>
+        <v>9.613585576772146E-05</v>
       </c>
       <c r="AN3">
-        <v>0.0001812333573872203</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0001614599365812395</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0003927395360083857</v>
+        <v>0.0001941070067717046</v>
       </c>
       <c r="AQ3">
-        <v>0.0001681030868520197</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.734601233747051E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.309518453377047E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>4.268826774000881E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>2.508737102258182E-07</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.154050287800857E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.515481461772268E-07</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>6.568713267746141E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>7.05347728750552E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>9.374096782095876E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>2.565985304591666E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.329340954185028E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.947861079396416E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>4.083787766458539E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>2.704120110222154E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>4.722253192482914E-07</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001640428066865194</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0002615308106602104</v>
+        <v>5.90135779338875E-05</v>
       </c>
       <c r="BI3">
-        <v>4.601968187579999E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2.488037201414437E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0001252877751068325</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001036085442231693</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>5.003265203937195E-08</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1.192400248603212E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>5.191432911607065E-07</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>2.30276449386257E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>4.287617574766809E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>7.615470910412842E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.38285635636636E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>9.620623392144502E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>7.498770305656029E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>3.118551527114718E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>3.730901552074608E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>3.549772844691653E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>9.55980438966547E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>4.775178394640189E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>9.238695376576803E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>4.41048337977492E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>7.272654296439355E-07</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>2.50345230204277E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>5.01670250448491E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>3.352535536652099E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>9.820231400280689E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>5.936699241984732E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>8.023571327047349E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0001598279365147178</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>3.991708362705308E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.08608264426962E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0002165234288256726</v>
+        <v>1.267366022714825E-05</v>
       </c>
       <c r="CN3">
-        <v>0.0648430226430548</v>
+        <v>0.06655257296545364</v>
       </c>
       <c r="CO3">
-        <v>9.681635394631402E-05</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.09405166383362297</v>
+        <v>0.09662599590022058</v>
       </c>
       <c r="CQ3">
-        <v>0.007949035324009202</v>
+        <v>0.0079741224333752</v>
       </c>
       <c r="CR3">
-        <v>0.00739567230145367</v>
+        <v>0.007404375963308417</v>
       </c>
       <c r="CS3">
-        <v>0.002424035798805688</v>
+        <v>0.002285543962649024</v>
       </c>
       <c r="CT3">
-        <v>0.0002833957715514441</v>
+        <v>8.152589584844162E-05</v>
       </c>
       <c r="CU3">
-        <v>0.02294527093526807</v>
+        <v>0.02341435236479806</v>
       </c>
       <c r="CV3">
-        <v>0.02239737191293525</v>
+        <v>0.02285023166789003</v>
       </c>
       <c r="CW3">
-        <v>0.01844949075201638</v>
+        <v>0.01878546538609359</v>
       </c>
       <c r="CX3">
-        <v>0.05883208239804395</v>
+        <v>0.0603636665029991</v>
       </c>
       <c r="CY3">
-        <v>0.05303715216183783</v>
+        <v>0.05439716546880616</v>
       </c>
       <c r="CZ3">
-        <v>0.0002216650890352509</v>
+        <v>1.796754983538656E-05</v>
       </c>
       <c r="DA3">
-        <v>0.01038507742330427</v>
+        <v>0.010482288556579</v>
       </c>
       <c r="DB3">
-        <v>0.001866938776097956</v>
+        <v>0.001711952939695204</v>
       </c>
       <c r="DC3">
-        <v>0.06938057682800923</v>
+        <v>0.07122447075088094</v>
       </c>
       <c r="DD3">
-        <v>0.07031614286614367</v>
+        <v>0.07218773614089527</v>
       </c>
       <c r="DE3">
-        <v>0.005991840244232324</v>
+        <v>0.005958980578060772</v>
       </c>
       <c r="DF3">
-        <v>0.01856715675681254</v>
+        <v>0.01890661513435446</v>
       </c>
       <c r="DG3">
-        <v>0.01291099052626257</v>
+        <v>0.01308298649888053</v>
       </c>
       <c r="DH3">
-        <v>0.01321145353850968</v>
+        <v>0.0133923453350074</v>
       </c>
       <c r="DI3">
-        <v>0.009371069381972475</v>
+        <v>0.009438258726938282</v>
       </c>
       <c r="DJ3">
-        <v>0.004209747171592748</v>
+        <v>0.004124124984028059</v>
       </c>
       <c r="DK3">
-        <v>0.007355173899802922</v>
+        <v>0.007362678523394016</v>
       </c>
       <c r="DL3">
-        <v>0.01860164575821834</v>
+        <v>0.01894212525340132</v>
       </c>
       <c r="DM3">
-        <v>0.002328175894898359</v>
+        <v>0.002186845929629189</v>
       </c>
       <c r="DN3">
-        <v>0.003433919639969381</v>
+        <v>0.003325327486714835</v>
       </c>
       <c r="DO3">
-        <v>0.008584695349919225</v>
+        <v>0.008628602478413721</v>
       </c>
       <c r="DP3">
-        <v>0.009453412385328843</v>
+        <v>0.00952303966383632</v>
       </c>
       <c r="DQ3">
-        <v>0.0008098724930110672</v>
+        <v>0.0006235900407179194</v>
       </c>
       <c r="DR3">
-        <v>0.0005639990829890653</v>
+        <v>0.0003704370439810248</v>
       </c>
       <c r="DS3">
-        <v>0.00379728055478027</v>
+        <v>0.003699446446846411</v>
       </c>
       <c r="DT3">
-        <v>0.002318975794523356</v>
+        <v>0.002177373441408507</v>
       </c>
       <c r="DU3">
-        <v>5.851035938493026E-09</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.00126459575154596</v>
+        <v>0.00109177631419</v>
       </c>
       <c r="DW3">
-        <v>0.0008845717860558718</v>
+        <v>0.0007005009595794895</v>
       </c>
       <c r="DX3">
-        <v>0.0187935077660388</v>
+        <v>0.01913966772956969</v>
       </c>
       <c r="DY3">
-        <v>0.004688726491116338</v>
+        <v>0.004617285468935903</v>
       </c>
       <c r="DZ3">
-        <v>0.003429335439782526</v>
+        <v>0.003320607561876926</v>
       </c>
       <c r="EA3">
-        <v>0.008594712350327525</v>
+        <v>0.008638916052669062</v>
       </c>
       <c r="EB3">
-        <v>0.01844105775167264</v>
+        <v>0.01877678270947431</v>
       </c>
       <c r="EC3">
-        <v>0.009498191387154072</v>
+        <v>0.009569144439875051</v>
       </c>
       <c r="ED3">
-        <v>0.002999988522281993</v>
+        <v>0.002878548948075287</v>
       </c>
       <c r="EE3">
-        <v>0.002462921100390684</v>
+        <v>0.00232558054336094</v>
       </c>
       <c r="EF3">
-        <v>0.0002291928293420878</v>
+        <v>2.571816433722449E-05</v>
       </c>
       <c r="EG3">
-        <v>7.214687794076593E-05</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0001831277974644393</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>5.003265203937195E-08</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>5.936356741970771E-06</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0004101592467184274</v>
+        <v>0.0002120424637539875</v>
       </c>
       <c r="EL3">
-        <v>0.001071457043673468</v>
+        <v>0.0008929193386453979</v>
       </c>
       <c r="EM3">
-        <v>0.007885999321439801</v>
+        <v>0.007909220120630889</v>
       </c>
       <c r="EN3">
-        <v>0.005486962223653081</v>
+        <v>0.005439154607921139</v>
       </c>
       <c r="EO3">
-        <v>0.004616711188180935</v>
+        <v>0.004543138005217149</v>
       </c>
       <c r="EP3">
-        <v>0.00115994844728045</v>
+        <v>0.0009840307117969598</v>
       </c>
       <c r="EQ3">
-        <v>8.924146363755528E-06</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0005934894641911174</v>
+        <v>0.0004008005484183074</v>
       </c>
       <c r="ES3">
-        <v>0.0002854906116368315</v>
+        <v>8.368275797213744E-05</v>
       </c>
       <c r="ET3">
-        <v>0.003011088522734439</v>
+        <v>0.002889977586812863</v>
       </c>
       <c r="EU3">
-        <v>0.00397797416214549</v>
+        <v>0.003885489859152003</v>
       </c>
       <c r="EV3">
-        <v>3.991708362705308E-05</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0002098737085546245</v>
+        <v>5.827061345523573E-06</v>
       </c>
       <c r="EX3">
-        <v>0.0004553622185609376</v>
+        <v>0.0002585837623121396</v>
       </c>
       <c r="EY3">
-        <v>0.003417223139288819</v>
+        <v>0.003308136651878625</v>
       </c>
       <c r="EZ3">
-        <v>0.03785323154292877</v>
+        <v>0.03876369373004439</v>
       </c>
       <c r="FA3">
-        <v>0.04415754179989763</v>
+        <v>0.04525465602551178</v>
       </c>
       <c r="FB3">
-        <v>0.0004426414180424274</v>
+        <v>0.0002454863363974587</v>
       </c>
       <c r="FC3">
-        <v>0.01676548868337507</v>
+        <v>0.01705160498146696</v>
       </c>
       <c r="FD3">
-        <v>2.251200791760791E-05</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.003784814354272138</v>
+        <v>0.003686611158897729</v>
       </c>
       <c r="FF3">
-        <v>0.004967757702489879</v>
+        <v>0.004904577971756833</v>
       </c>
       <c r="FG3">
-        <v>0.0214829728756636</v>
+        <v>0.02190875997122329</v>
       </c>
       <c r="FH3">
-        <v>0.003311298034971224</v>
+        <v>0.003199075417541542</v>
       </c>
       <c r="FI3">
-        <v>2.671921508909713E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0002581937105241875</v>
+        <v>5.557767610225103E-05</v>
       </c>
       <c r="FK3">
-        <v>0.007305155797764144</v>
+        <v>0.007311179532831859</v>
       </c>
       <c r="FL3">
-        <v>0.01535440962585833</v>
+        <v>0.0155987480336129</v>
       </c>
       <c r="FM3">
-        <v>0.005610323728681398</v>
+        <v>0.005566168483382895</v>
       </c>
       <c r="FN3">
-        <v>0.0009846699401359546</v>
+        <v>0.000803562724863246</v>
       </c>
       <c r="FO3">
-        <v>0.002134599587008031</v>
+        <v>0.001987538398020483</v>
       </c>
       <c r="FP3">
-        <v>0.005782530235700676</v>
+        <v>0.005743473517325452</v>
       </c>
       <c r="FQ3">
-        <v>0.02254632991900691</v>
+        <v>0.02300359988131992</v>
       </c>
       <c r="FR3">
-        <v>0.01023001441698378</v>
+        <v>0.01032263459184344</v>
       </c>
       <c r="FS3">
-        <v>0.0003126929127456196</v>
+        <v>0.0001116904390109811</v>
       </c>
       <c r="FT3">
-        <v>2.780000113315085E-05</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.005688464231866469</v>
+        <v>0.005646622496470603</v>
       </c>
       <c r="FV3">
-        <v>0.003345000036344946</v>
+        <v>0.003233775235805847</v>
       </c>
       <c r="FW3">
-        <v>5.97216194343022E-05</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0004249643973218974</v>
+        <v>0.0002272859512139536</v>
       </c>
       <c r="FY3">
-        <v>0.001763073871864337</v>
+        <v>0.001605012901892099</v>
       </c>
       <c r="FZ3">
-        <v>7.387681701127967E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.002974847121257209</v>
+        <v>0.002852663184295387</v>
       </c>
       <c r="GB3">
-        <v>0.006011084245016726</v>
+        <v>0.005978794336967611</v>
       </c>
       <c r="GC3">
-        <v>0.002932095819514631</v>
+        <v>0.002808646142560095</v>
       </c>
       <c r="GD3">
-        <v>5.781727235667945E-05</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0001574811864190623</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.004176234570226748</v>
+        <v>0.004089620173347259</v>
       </c>
       <c r="GG3">
-        <v>0.005783758235750731</v>
+        <v>0.005744737874836241</v>
       </c>
       <c r="GH3">
-        <v>0.004643475189271858</v>
+        <v>0.004570694409466922</v>
       </c>
       <c r="GI3">
-        <v>0.002370096096607061</v>
+        <v>0.002230007264909093</v>
       </c>
       <c r="GJ3">
-        <v>0.001774199972317846</v>
+        <v>0.001616468413374815</v>
       </c>
       <c r="GK3">
-        <v>1.55283306329475E-06</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.002766601412768943</v>
+        <v>0.002638251934389653</v>
       </c>
       <c r="GM3">
-        <v>0.0004207075871483864</v>
+        <v>0.0002229031094423769</v>
       </c>
       <c r="GN3">
-        <v>0.0003057762624636913</v>
+        <v>0.0001045690071078951</v>
       </c>
       <c r="GO3">
-        <v>0.0007168130292178871</v>
+        <v>0.0005277753605869366</v>
       </c>
       <c r="GP3">
-        <v>0.003123695627324396</v>
+        <v>0.003005918655748547</v>
       </c>
       <c r="GQ3">
-        <v>0.001367461855738867</v>
+        <v>0.001197687980428141</v>
       </c>
       <c r="GR3">
-        <v>0.0003773045153792416</v>
+        <v>0.0001782150006917712</v>
       </c>
       <c r="GS3">
-        <v>0.001213588849466877</v>
+        <v>0.001039259248133813</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.001046288954790506</v>
+        <v>0.0009773290068827193</v>
       </c>
       <c r="C4">
-        <v>0.0008372934138210732</v>
+        <v>0.0007652848574108083</v>
       </c>
       <c r="D4">
-        <v>0.0007988192054835198</v>
+        <v>0.000726249427536566</v>
       </c>
       <c r="E4">
-        <v>0.0001615498530195315</v>
+        <v>7.968425585424008E-05</v>
       </c>
       <c r="F4">
-        <v>4.152667520565824E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001238535146483668</v>
+        <v>4.143804270040032E-05</v>
       </c>
       <c r="H4">
-        <v>0.0003516421248057628</v>
+        <v>0.0002725493950104393</v>
       </c>
       <c r="I4">
-        <v>8.301123641313619E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.166096276776199E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001457572337019208</v>
+        <v>6.366127031300207E-05</v>
       </c>
       <c r="L4">
-        <v>1.07686625346928E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002537578890352797</v>
+        <v>0.0001732373263204388</v>
       </c>
       <c r="N4">
-        <v>0.0001555560132785216</v>
+        <v>7.360298424405166E-05</v>
       </c>
       <c r="O4">
-        <v>4.163628320092214E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5.368721768020877E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002103053609128364</v>
+        <v>0.0001291509581357923</v>
       </c>
       <c r="R4">
-        <v>0.0002895249474898074</v>
+        <v>0.0002095261172387661</v>
       </c>
       <c r="S4">
-        <v>0.0006739356708796595</v>
+        <v>0.0005995442224623844</v>
       </c>
       <c r="T4">
-        <v>0.0007874070659766312</v>
+        <v>0.0007146708196669038</v>
       </c>
       <c r="U4">
-        <v>0.0008983488611829054</v>
+        <v>0.0008272309178215434</v>
       </c>
       <c r="V4">
-        <v>0.0005283803771690131</v>
+        <v>0.0004518657202663861</v>
       </c>
       <c r="W4">
-        <v>0.0001068391853835454</v>
+        <v>2.417552618421409E-05</v>
       </c>
       <c r="X4">
-        <v>0.0003627170643272216</v>
+        <v>0.000283785884173737</v>
       </c>
       <c r="Y4">
-        <v>0.0006659942712228025</v>
+        <v>0.0005914869819679517</v>
       </c>
       <c r="Z4">
-        <v>0.0001585135231507294</v>
+        <v>7.660363517898624E-05</v>
       </c>
       <c r="AA4">
-        <v>6.365159724965414E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0001429217938244383</v>
+        <v>6.078447000228428E-05</v>
       </c>
       <c r="AC4">
-        <v>2.858683076478085E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.984287527841418E-08</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.000131587664314179</v>
+        <v>4.928501005754347E-05</v>
       </c>
       <c r="AF4">
-        <v>0.0005048696781848958</v>
+        <v>0.0004280120717796636</v>
       </c>
       <c r="AG4">
-        <v>0.0004638449299575495</v>
+        <v>0.0003863888974056263</v>
       </c>
       <c r="AH4">
-        <v>0.0005133901778167303</v>
+        <v>0.0004366568595542138</v>
       </c>
       <c r="AI4">
-        <v>0.0005604092757850644</v>
+        <v>0.0004843618229777639</v>
       </c>
       <c r="AJ4">
-        <v>0.0006667070311920045</v>
+        <v>0.0005922101389345836</v>
       </c>
       <c r="AK4">
-        <v>0.0001864391719440795</v>
+        <v>0.0001049366341481044</v>
       </c>
       <c r="AL4">
-        <v>9.572046586397831E-05</v>
+        <v>1.2894618405956E-05</v>
       </c>
       <c r="AM4">
-        <v>6.727945709289658E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.000187407191902252</v>
+        <v>0.0001059187745696196</v>
       </c>
       <c r="AO4">
-        <v>0.0001249063746028734</v>
+        <v>4.250626067543853E-05</v>
       </c>
       <c r="AP4">
-        <v>1.711110426063985E-08</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1.780806123052477E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>7.948651656543713E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0001984967914230773</v>
+        <v>0.0001171701375770315</v>
       </c>
       <c r="AT4">
-        <v>4.226450817377694E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.125825251353792E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>6.899967701856695E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0003887902532006153</v>
+        <v>0.0003102394014738399</v>
       </c>
       <c r="AX4">
-        <v>0.0001474231436299378</v>
+        <v>6.535148079378383E-05</v>
       </c>
       <c r="AY4">
-        <v>0.0001777862723179659</v>
+        <v>9.615751506654738E-05</v>
       </c>
       <c r="AZ4">
-        <v>0.0004729522095640297</v>
+        <v>0.0003956290244877702</v>
       </c>
       <c r="BA4">
-        <v>0.0004024029026124213</v>
+        <v>0.0003240506179868653</v>
       </c>
       <c r="BB4">
-        <v>0.000212363950823886</v>
+        <v>0.0001312395766047568</v>
       </c>
       <c r="BC4">
-        <v>0.0003613698443854341</v>
+        <v>0.0002824190123955984</v>
       </c>
       <c r="BD4">
-        <v>0.0003078782066967745</v>
+        <v>0.0002281470946075993</v>
       </c>
       <c r="BE4">
-        <v>6.80652210589442E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0001494849235408496</v>
+        <v>6.744333579499412E-05</v>
       </c>
       <c r="BG4">
-        <v>1.561981432507755E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>2.385772396912261E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>9.347406596104384E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>6.658723912280688E-09</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.845917120239071E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0002952433272427198</v>
+        <v>0.0002153279107384707</v>
       </c>
       <c r="BM4">
-        <v>0.0001359550341254677</v>
+        <v>5.371608649471707E-05</v>
       </c>
       <c r="BN4">
-        <v>1.474904836270281E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>7.751456665064388E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0004015369126498402</v>
+        <v>0.0003231719958678719</v>
       </c>
       <c r="BQ4">
-        <v>0.0004766394394047068</v>
+        <v>0.0003993700397833462</v>
       </c>
       <c r="BR4">
-        <v>0.0004542375503726785</v>
+        <v>0.0003766413754093281</v>
       </c>
       <c r="BS4">
-        <v>0.0005875481746124094</v>
+        <v>0.0005118965956947104</v>
       </c>
       <c r="BT4">
-        <v>0.0006206090031838716</v>
+        <v>0.0005454396810770808</v>
       </c>
       <c r="BU4">
-        <v>0.0001071247993712042</v>
+        <v>2.446530641019149E-05</v>
       </c>
       <c r="BV4">
-        <v>3.355090555028627E-07</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>1.179902849017133E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>8.228543644449755E-06</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>7.936019657089536E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0003445221651134119</v>
+        <v>0.0002653255767881181</v>
       </c>
       <c r="CA4">
-        <v>0.0002670870884593333</v>
+        <v>0.000186760958173562</v>
       </c>
       <c r="CB4">
-        <v>0.0003116165365352436</v>
+        <v>0.0002319399552943236</v>
       </c>
       <c r="CC4">
-        <v>0.000196506721509067</v>
+        <v>0.0001151510386032037</v>
       </c>
       <c r="CD4">
-        <v>0.0003362491454708839</v>
+        <v>0.0002569318789822839</v>
       </c>
       <c r="CE4">
-        <v>0.0001036913855195598</v>
+        <v>2.098180950599926E-05</v>
       </c>
       <c r="CF4">
-        <v>4.683120097645298E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0001445714537531575</v>
+        <v>6.245819344576347E-05</v>
       </c>
       <c r="CH4">
-        <v>0.000171857442574147</v>
+        <v>9.014220175143829E-05</v>
       </c>
       <c r="CI4">
-        <v>4.134891821333901E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>5.621229957110156E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001100340452454975</v>
+        <v>2.741698932245714E-05</v>
       </c>
       <c r="CL4">
-        <v>0.0001564403432403102</v>
+        <v>7.450021388699141E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0001902709717785099</v>
+        <v>0.000108824328273393</v>
       </c>
       <c r="CN4">
-        <v>0.04150917820641427</v>
+        <v>0.04203044859373348</v>
       </c>
       <c r="CO4">
-        <v>0.002817487178258134</v>
+        <v>0.00277436361871821</v>
       </c>
       <c r="CP4">
-        <v>0.07397885280341986</v>
+        <v>0.07497375686536187</v>
       </c>
       <c r="CQ4">
-        <v>0.01399484339529154</v>
+        <v>0.01411476342529623</v>
       </c>
       <c r="CR4">
-        <v>0.003264911858925193</v>
+        <v>0.003228314862963482</v>
       </c>
       <c r="CS4">
-        <v>0.001642047629048145</v>
+        <v>0.001581777985973382</v>
       </c>
       <c r="CT4">
-        <v>0.001927996216692485</v>
+        <v>0.001871897692731175</v>
       </c>
       <c r="CU4">
-        <v>0.04942792786425004</v>
+        <v>0.0500647086946337</v>
       </c>
       <c r="CV4">
-        <v>0.004996293784113258</v>
+        <v>0.004984952377977444</v>
       </c>
       <c r="CW4">
-        <v>0.02858327776493438</v>
+        <v>0.0289159986272001</v>
       </c>
       <c r="CX4">
-        <v>0.04157171220371222</v>
+        <v>0.04209389477162137</v>
       </c>
       <c r="CY4">
-        <v>0.08608979628011354</v>
+        <v>0.08726136212672722</v>
       </c>
       <c r="CZ4">
-        <v>0.002113798108664101</v>
+        <v>0.002060409868496473</v>
       </c>
       <c r="DA4">
-        <v>0.00993620157066292</v>
+        <v>0.009996918375959169</v>
       </c>
       <c r="DB4">
-        <v>0.01316481643115648</v>
+        <v>0.01327262889538054</v>
       </c>
       <c r="DC4">
-        <v>0.05527846261145207</v>
+        <v>0.05600058492755181</v>
       </c>
       <c r="DD4">
-        <v>0.08687983624597641</v>
+        <v>0.0880629263698357</v>
       </c>
       <c r="DE4">
-        <v>0.004315810113516534</v>
+        <v>0.004294542522858525</v>
       </c>
       <c r="DF4">
-        <v>0.02028071912368276</v>
+        <v>0.02049233093860404</v>
       </c>
       <c r="DG4">
-        <v>0.01830729220895331</v>
+        <v>0.01849011773473485</v>
       </c>
       <c r="DH4">
-        <v>0.008376695638048199</v>
+        <v>0.00841466400084763</v>
       </c>
       <c r="DI4">
-        <v>0.006710988710022359</v>
+        <v>0.006724659481208775</v>
       </c>
       <c r="DJ4">
-        <v>0.0009676659581877568</v>
+        <v>0.0008975591401849353</v>
       </c>
       <c r="DK4">
-        <v>0.01098550152532332</v>
+        <v>0.01106152442159448</v>
       </c>
       <c r="DL4">
-        <v>0.01424443638450678</v>
+        <v>0.01436799721615514</v>
       </c>
       <c r="DM4">
-        <v>0.004723204095913294</v>
+        <v>0.004707879142848566</v>
       </c>
       <c r="DN4">
-        <v>0.0001071247993712042</v>
+        <v>2.446530641019149E-05</v>
       </c>
       <c r="DO4">
-        <v>0.002848893076901105</v>
+        <v>0.002806227633784081</v>
       </c>
       <c r="DP4">
-        <v>0.00909381360706198</v>
+        <v>0.009142242537237511</v>
       </c>
       <c r="DQ4">
-        <v>0.001220979547242234</v>
+        <v>0.001154567803104638</v>
       </c>
       <c r="DR4">
-        <v>0.0003560817846139279</v>
+        <v>0.0002770538159354038</v>
       </c>
       <c r="DS4">
-        <v>0.001820890721320446</v>
+        <v>0.001763229854342923</v>
       </c>
       <c r="DT4">
-        <v>0.0006282759728525867</v>
+        <v>0.0005532184884855479</v>
       </c>
       <c r="DU4">
-        <v>1.936175616339058E-06</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.00140192093942387</v>
+        <v>0.001338148579189377</v>
       </c>
       <c r="DW4">
-        <v>0.0005733332152266289</v>
+        <v>0.0004974742833393649</v>
       </c>
       <c r="DX4">
-        <v>0.01303515643675901</v>
+        <v>0.01314107755650979</v>
       </c>
       <c r="DY4">
-        <v>0.005008262383596102</v>
+        <v>0.004997095562879561</v>
       </c>
       <c r="DZ4">
-        <v>0.0001036913855195598</v>
+        <v>2.098180950599926E-05</v>
       </c>
       <c r="EA4">
-        <v>0.006297675727881356</v>
+        <v>0.006305317521292959</v>
       </c>
       <c r="EB4">
-        <v>0.01393905939770193</v>
+        <v>0.0140581657090571</v>
       </c>
       <c r="EC4">
-        <v>0.01055687154384416</v>
+        <v>0.010626642033964</v>
       </c>
       <c r="ED4">
-        <v>0.002559153689420563</v>
+        <v>0.002512261830964347</v>
       </c>
       <c r="EE4">
-        <v>0.001357215541355562</v>
+        <v>0.001292791065501638</v>
       </c>
       <c r="EF4">
-        <v>4.76157779425519E-06</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0001864391719440795</v>
+        <v>0.0001049366341481044</v>
       </c>
       <c r="EH4">
-        <v>0.0008008216053969974</v>
+        <v>0.0007282810363670055</v>
       </c>
       <c r="EI4">
-        <v>1.480704036019701E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>6.80652210589442E-06</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0001828569620988646</v>
+        <v>0.0001013021707699139</v>
       </c>
       <c r="EL4">
-        <v>0.001541467633394144</v>
+        <v>0.001479730834472381</v>
       </c>
       <c r="EM4">
-        <v>0.01136262950902786</v>
+        <v>0.01144415355413842</v>
       </c>
       <c r="EN4">
-        <v>0.005734324252223422</v>
+        <v>0.005733748463142078</v>
       </c>
       <c r="EO4">
-        <v>0.006022009739792712</v>
+        <v>0.00602563040590546</v>
       </c>
       <c r="EP4">
-        <v>0.003354523155053144</v>
+        <v>0.003319233315014601</v>
       </c>
       <c r="EQ4">
-        <v>0.0003547469546716051</v>
+        <v>0.0002756995148890916</v>
       </c>
       <c r="ER4">
-        <v>0.001476225836213201</v>
+        <v>0.001413537358147089</v>
       </c>
       <c r="ES4">
-        <v>2.041791711775452E-05</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.001125605851363273</v>
+        <v>0.001057802895437996</v>
       </c>
       <c r="EU4">
-        <v>0.001742198524720687</v>
+        <v>0.001683389778230903</v>
       </c>
       <c r="EV4">
-        <v>0.0002338620298949674</v>
+        <v>0.0001530512471828102</v>
       </c>
       <c r="EW4">
-        <v>0.001162992149747834</v>
+        <v>0.001095734546065971</v>
       </c>
       <c r="EX4">
-        <v>0.001669899527844682</v>
+        <v>0.001610036159157819</v>
       </c>
       <c r="EY4">
-        <v>0.004811198292111119</v>
+        <v>0.004797156906406025</v>
       </c>
       <c r="EZ4">
-        <v>0.03915297030822455</v>
+        <v>0.03963987079751288</v>
       </c>
       <c r="FA4">
-        <v>0.05368644768024204</v>
+        <v>0.05438534734655295</v>
       </c>
       <c r="FB4">
-        <v>0.003947016129451892</v>
+        <v>0.003920368957630251</v>
       </c>
       <c r="FC4">
-        <v>0.009231620101107446</v>
+        <v>0.009282059208378121</v>
       </c>
       <c r="FD4">
-        <v>0.0002364569597828421</v>
+        <v>0.000155684029195581</v>
       </c>
       <c r="FE4">
-        <v>0.00213100990792039</v>
+        <v>0.00207787273548996</v>
       </c>
       <c r="FF4">
-        <v>0.004218683417713318</v>
+        <v>0.004195999044337027</v>
       </c>
       <c r="FG4">
-        <v>0.02213980504335282</v>
+        <v>0.02237853526049098</v>
       </c>
       <c r="FH4">
-        <v>0.005141079777857146</v>
+        <v>0.005131850358462867</v>
       </c>
       <c r="FI4">
-        <v>0.0002328417099390548</v>
+        <v>0.0001520160438658536</v>
       </c>
       <c r="FJ4">
-        <v>0.001391486439874738</v>
+        <v>0.001327561872067313</v>
       </c>
       <c r="FK4">
-        <v>0.01012529856249216</v>
+        <v>0.01018877371705466</v>
       </c>
       <c r="FL4">
-        <v>0.02311247100132453</v>
+        <v>0.02336538945279434</v>
       </c>
       <c r="FM4">
-        <v>0.009558738586972862</v>
+        <v>0.009613949356800074</v>
       </c>
       <c r="FN4">
-        <v>0.0002455541293897591</v>
+        <v>0.0001649138988040554</v>
       </c>
       <c r="FO4">
-        <v>0.001657385228385417</v>
+        <v>0.00159733931417841</v>
       </c>
       <c r="FP4">
-        <v>0.002986346870961812</v>
+        <v>0.002945686460121207</v>
       </c>
       <c r="FQ4">
-        <v>0.0200221771348542</v>
+        <v>0.02023001760947925</v>
       </c>
       <c r="FR4">
-        <v>0.0120412404797055</v>
+        <v>0.01213266339234924</v>
       </c>
       <c r="FS4">
-        <v>8.714710223442801E-05</v>
+        <v>4.196195508946464E-06</v>
       </c>
       <c r="FT4">
-        <v>0.0005676959754702106</v>
+        <v>0.0004917548134216129</v>
       </c>
       <c r="FU4">
-        <v>0.003765296237303896</v>
+        <v>0.003735998325635355</v>
       </c>
       <c r="FV4">
-        <v>0.004374664110973489</v>
+        <v>0.0043542550209142</v>
       </c>
       <c r="FW4">
-        <v>0.0002103053609128364</v>
+        <v>0.0001291509581357923</v>
       </c>
       <c r="FX4">
-        <v>0.0003976824028163911</v>
+        <v>0.0003192612604738362</v>
       </c>
       <c r="FY4">
-        <v>0.003771091437053489</v>
+        <v>0.003741878059701558</v>
       </c>
       <c r="FZ4">
-        <v>0.0002455541293897591</v>
+        <v>0.0001649138988040554</v>
       </c>
       <c r="GA4">
-        <v>0.001844127820316386</v>
+        <v>0.001786805911850816</v>
       </c>
       <c r="GB4">
-        <v>0.004475407806620417</v>
+        <v>0.004456468260292518</v>
       </c>
       <c r="GC4">
-        <v>0.002045990111594042</v>
+        <v>0.00199161275924036</v>
       </c>
       <c r="GD4">
-        <v>0.0002871204475937043</v>
+        <v>0.000207086543011443</v>
       </c>
       <c r="GE4">
-        <v>3.833344834363558E-06</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001383574340216615</v>
+        <v>0.001319534358969371</v>
       </c>
       <c r="GG4">
-        <v>0.002877940075646002</v>
+        <v>0.002835698339785766</v>
       </c>
       <c r="GH4">
-        <v>0.002793735279284439</v>
+        <v>0.002750265251868572</v>
       </c>
       <c r="GI4">
-        <v>0.0007710488666834588</v>
+        <v>0.0006980740040605839</v>
       </c>
       <c r="GJ4">
-        <v>0.0005236008173755349</v>
+        <v>0.0004470164412503977</v>
       </c>
       <c r="GK4">
-        <v>0.0001740829724779832</v>
+        <v>9.240019535931282E-05</v>
       </c>
       <c r="GL4">
-        <v>0.002274997901698758</v>
+        <v>0.002223961075620463</v>
       </c>
       <c r="GM4">
-        <v>0.001427664838311492</v>
+        <v>0.001364268003165581</v>
       </c>
       <c r="GN4">
-        <v>0.0002107059708955263</v>
+        <v>0.0001295574117981787</v>
       </c>
       <c r="GO4">
-        <v>0.0003920546530595627</v>
+        <v>0.0003135514189858689</v>
       </c>
       <c r="GP4">
-        <v>0.002843642677127971</v>
+        <v>0.002800900646666951</v>
       </c>
       <c r="GQ4">
-        <v>0.0008584803629055984</v>
+        <v>0.0007867808595632652</v>
       </c>
       <c r="GR4">
-        <v>1.773929123349628E-05</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>6.899967701856695E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.000233245809522218</v>
+        <v>0.0002312872188678193</v>
       </c>
       <c r="C5">
-        <v>9.070907592520044E-06</v>
+        <v>7.022844612802819E-06</v>
       </c>
       <c r="D5">
-        <v>1.156431948051192E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.029672353745439E-07</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.368458193604997E-05</v>
+        <v>2.164235154246842E-05</v>
       </c>
       <c r="G5">
-        <v>2.05086480787181E-06</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.693434609476745E-07</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.717424177928876E-05</v>
+        <v>2.513340417311588E-05</v>
       </c>
       <c r="J5">
-        <v>2.17392890234357E-05</v>
+        <v>1.969628222768416E-05</v>
       </c>
       <c r="K5">
-        <v>0.0001729806622294267</v>
+        <v>0.0001709980186466335</v>
       </c>
       <c r="L5">
-        <v>0.0005660748345709956</v>
+        <v>0.0005642490821003021</v>
       </c>
       <c r="M5">
-        <v>0.0004591530793740951</v>
+        <v>0.0004572846524649062</v>
       </c>
       <c r="N5">
-        <v>0.000147705793364815</v>
+        <v>0.0001457130621171228</v>
       </c>
       <c r="O5">
-        <v>0.0002351079594385672</v>
+        <v>0.0002331501120024399</v>
       </c>
       <c r="P5">
-        <v>0.0003883052425566955</v>
+        <v>0.0003864085389731363</v>
       </c>
       <c r="Q5">
-        <v>0.0002522881686668042</v>
+        <v>0.0002503371781680766</v>
       </c>
       <c r="R5">
-        <v>0.0002839828872430257</v>
+        <v>0.0002820445466892604</v>
       </c>
       <c r="S5">
-        <v>0.0001509437932193587</v>
+        <v>0.0001489523543169464</v>
       </c>
       <c r="T5">
-        <v>3.61226383773122E-06</v>
+        <v>1.56202221292205E-06</v>
       </c>
       <c r="U5">
-        <v>8.349179624941241E-06</v>
+        <v>6.300828590321569E-06</v>
       </c>
       <c r="V5">
-        <v>2.792635874550244E-05</v>
+        <v>2.588582132304013E-05</v>
       </c>
       <c r="W5">
-        <v>2.089515606135553E-05</v>
+        <v>1.885181235661754E-05</v>
       </c>
       <c r="X5">
-        <v>5.457426754843494E-07</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.311261226644597E-05</v>
+        <v>8.109410069248692E-05</v>
       </c>
       <c r="Z5">
-        <v>0.0002943917467754428</v>
+        <v>0.0002924575605889071</v>
       </c>
       <c r="AA5">
-        <v>0.0002704193078523239</v>
+        <v>0.0002684755538246268</v>
       </c>
       <c r="AB5">
-        <v>3.524567841670667E-05</v>
+        <v>3.320806226930725E-05</v>
       </c>
       <c r="AC5">
-        <v>7.673589655289843E-05</v>
+        <v>7.471483991444788E-05</v>
       </c>
       <c r="AD5">
-        <v>0.0003172002157508492</v>
+        <v>0.0003152751328436664</v>
       </c>
       <c r="AE5">
-        <v>0.0005699757343957609</v>
+        <v>0.0005681515388459142</v>
       </c>
       <c r="AF5">
-        <v>0.0001639936426331382</v>
+        <v>0.0001620074121655777</v>
       </c>
       <c r="AG5">
-        <v>7.889353245597392E-05</v>
+        <v>7.687333696968526E-05</v>
       </c>
       <c r="AH5">
-        <v>6.573374704713292E-05</v>
+        <v>6.370829924851543E-05</v>
       </c>
       <c r="AI5">
-        <v>3.440368345453046E-05</v>
+        <v>3.236573125145967E-05</v>
       </c>
       <c r="AJ5">
-        <v>3.422289046265197E-06</v>
+        <v>1.371971599023641E-06</v>
       </c>
       <c r="AK5">
-        <v>1.616660027376996E-05</v>
+        <v>1.412136931547205E-05</v>
       </c>
       <c r="AL5">
-        <v>0.0001118099409773152</v>
+        <v>0.0001098028830349094</v>
       </c>
       <c r="AM5">
-        <v>5.377387758438976E-05</v>
+        <v>5.174365638196066E-05</v>
       </c>
       <c r="AN5">
-        <v>1.031635453657254E-07</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>9.441109575889967E-06</v>
+        <v>7.3931943505913E-06</v>
       </c>
       <c r="AP5">
-        <v>0.0001008768914684456</v>
+        <v>9.886546994495217E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.0002279744397590165</v>
+        <v>0.0002260137452040193</v>
       </c>
       <c r="AR5">
-        <v>0.0003795189129513918</v>
+        <v>0.0003776187025821307</v>
       </c>
       <c r="AS5">
-        <v>0.0003378443848234795</v>
+        <v>0.0003359275413837629</v>
       </c>
       <c r="AT5">
-        <v>0.0002164293602776403</v>
+        <v>0.00021446405786914</v>
       </c>
       <c r="AU5">
-        <v>0.0006151047123684935</v>
+        <v>0.0006132985286235532</v>
       </c>
       <c r="AV5">
-        <v>0.0008439742620873004</v>
+        <v>0.0008422594243879328</v>
       </c>
       <c r="AW5">
-        <v>0.0006609199703103975</v>
+        <v>0.0006591320722773181</v>
       </c>
       <c r="AX5">
-        <v>0.0003201001556205792</v>
+        <v>0.0003181762301327203</v>
       </c>
       <c r="AY5">
-        <v>0.0002203452401017326</v>
+        <v>0.0002183815005928723</v>
       </c>
       <c r="AZ5">
-        <v>0.0001606100527851346</v>
+        <v>0.0001586224718646508</v>
       </c>
       <c r="BA5">
-        <v>0.0001241987744207886</v>
+        <v>0.0001221966610896066</v>
       </c>
       <c r="BB5">
-        <v>5.362002759130095E-05</v>
+        <v>5.158974498451074E-05</v>
       </c>
       <c r="BC5">
-        <v>6.746226696948499E-08</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0001280974642456531</v>
+        <v>0.0001260969069532663</v>
       </c>
       <c r="BE5">
-        <v>0.0001982452910944983</v>
+        <v>0.0001962727310896321</v>
       </c>
       <c r="BF5">
-        <v>7.061366682791897E-05</v>
+        <v>6.859016669501426E-05</v>
       </c>
       <c r="BG5">
-        <v>1.488188233148159E-05</v>
+        <v>1.283613861863049E-05</v>
       </c>
       <c r="BH5">
-        <v>0.0004320613805910984</v>
+        <v>0.0004301821408867835</v>
       </c>
       <c r="BI5">
-        <v>0.0006884659690729863</v>
+        <v>0.0006866890651545081</v>
       </c>
       <c r="BJ5">
-        <v>0.0006186636722086193</v>
+        <v>0.0006168589089099906</v>
       </c>
       <c r="BK5">
-        <v>0.001014044154447484</v>
+        <v>0.001012397194769274</v>
       </c>
       <c r="BL5">
-        <v>0.0007636874656939141</v>
+        <v>0.0007619405840578531</v>
       </c>
       <c r="BM5">
-        <v>0.000347667124382226</v>
+        <v>0.0003457542013784804</v>
       </c>
       <c r="BN5">
-        <v>0.0004269920808188196</v>
+        <v>0.0004251108178637552</v>
       </c>
       <c r="BO5">
-        <v>0.0008517076117399055</v>
+        <v>0.0008499958605625794</v>
       </c>
       <c r="BP5">
-        <v>0.0002617745082406623</v>
+        <v>0.0002598273039144863</v>
       </c>
       <c r="BQ5">
-        <v>0.0001031476553664392</v>
+        <v>0.0001011371401465705</v>
       </c>
       <c r="BR5">
-        <v>4.288033807374531E-05</v>
+        <v>4.084576905939536E-05</v>
       </c>
       <c r="BS5">
-        <v>6.007138730149535E-06</v>
+        <v>3.957852943945077E-06</v>
       </c>
       <c r="BT5">
-        <v>7.762588651291863E-05</v>
+        <v>7.560518508582559E-05</v>
       </c>
       <c r="BU5">
-        <v>0.0001905636514395701</v>
+        <v>0.0001885880255510734</v>
       </c>
       <c r="BV5">
-        <v>0.0001852548816780487</v>
+        <v>0.0001832771369619266</v>
       </c>
       <c r="BW5">
-        <v>0.000198811061069083</v>
+        <v>0.0001968387268734166</v>
       </c>
       <c r="BX5">
-        <v>0.000393544422321343</v>
+        <v>0.0003916498097907619</v>
       </c>
       <c r="BY5">
-        <v>0.0005326360760731191</v>
+        <v>0.0005307969775790625</v>
       </c>
       <c r="BZ5">
-        <v>0.0006927352688812024</v>
+        <v>0.0006909600689187782</v>
       </c>
       <c r="CA5">
-        <v>0.0004427057801129346</v>
+        <v>0.0004408307887841901</v>
       </c>
       <c r="CB5">
-        <v>0.0004915909779169319</v>
+        <v>0.0004897354975694949</v>
       </c>
       <c r="CC5">
-        <v>0.0006120752425045823</v>
+        <v>0.0006102678496425157</v>
       </c>
       <c r="CD5">
-        <v>0.0007291462072455637</v>
+        <v>0.0007273855395581375</v>
       </c>
       <c r="CE5">
-        <v>0.0003427324846038981</v>
+        <v>0.0003408175920946826</v>
       </c>
       <c r="CF5">
-        <v>0.0004759003986217783</v>
+        <v>0.0004740386558756381</v>
       </c>
       <c r="CG5">
-        <v>0.0006510010307559724</v>
+        <v>0.0006492091738917349</v>
       </c>
       <c r="CH5">
-        <v>0.0003110479260272201</v>
+        <v>0.0003091203876280849</v>
       </c>
       <c r="CI5">
-        <v>7.095150681274264E-05</v>
+        <v>6.892814151798783E-05</v>
       </c>
       <c r="CJ5">
-        <v>1.960835711916063E-05</v>
+        <v>1.756449982930414E-05</v>
       </c>
       <c r="CK5">
-        <v>3.548447240597965E-05</v>
+        <v>3.344695156565211E-05</v>
       </c>
       <c r="CL5">
-        <v>4.767925785817001E-05</v>
+        <v>4.564660418094493E-05</v>
       </c>
       <c r="CM5">
-        <v>0.001364556238701909</v>
+        <v>0.001363049174841476</v>
       </c>
       <c r="CN5">
-        <v>0.05821738738478005</v>
+        <v>0.05823857133119683</v>
       </c>
       <c r="CO5">
-        <v>0.000749112016348667</v>
+        <v>0.0007473593173827701</v>
       </c>
       <c r="CP5">
-        <v>0.1112885350007376</v>
+        <v>0.111330900618</v>
       </c>
       <c r="CQ5">
-        <v>0.02546137285623362</v>
+        <v>0.02546948327495927</v>
       </c>
       <c r="CR5">
-        <v>0.002454875889722973</v>
+        <v>0.002453803992483234</v>
       </c>
       <c r="CS5">
-        <v>0.005719522243069737</v>
+        <v>0.005719753326217465</v>
       </c>
       <c r="CT5">
-        <v>9.007784595355632E-06</v>
+        <v>6.959696422089581E-06</v>
       </c>
       <c r="CU5">
-        <v>0.01347883439450879</v>
+        <v>0.01348216236180851</v>
       </c>
       <c r="CV5">
-        <v>0.02646304781123675</v>
+        <v>0.02647155801685498</v>
       </c>
       <c r="CW5">
-        <v>0.01618696527285513</v>
+        <v>0.01619137410498346</v>
       </c>
       <c r="CX5">
-        <v>0.04837422782695083</v>
+        <v>0.04839148318739951</v>
       </c>
       <c r="CY5">
-        <v>0.0546729535440018</v>
+        <v>0.05469272284170036</v>
       </c>
       <c r="CZ5">
-        <v>0.0001629433726803181</v>
+        <v>0.0001609567230307078</v>
       </c>
       <c r="DA5">
-        <v>0.009591619069128835</v>
+        <v>0.009593395577317029</v>
       </c>
       <c r="DB5">
-        <v>0.001539206730856324</v>
+        <v>0.001537769373218651</v>
       </c>
       <c r="DC5">
-        <v>0.06301422716929819</v>
+        <v>0.06303732562267364</v>
       </c>
       <c r="DD5">
-        <v>0.05744306141956404</v>
+        <v>0.05746393631825038</v>
       </c>
       <c r="DE5">
-        <v>0.01397314637230349</v>
+        <v>0.01397667162860258</v>
       </c>
       <c r="DF5">
-        <v>0.01910320214185302</v>
+        <v>0.01910877489773732</v>
       </c>
       <c r="DG5">
-        <v>0.009810506559296052</v>
+        <v>0.00981237042950631</v>
       </c>
       <c r="DH5">
-        <v>0.005354043359487645</v>
+        <v>0.005354128573292785</v>
       </c>
       <c r="DI5">
-        <v>0.0170114352358186</v>
+        <v>0.01701617312906888</v>
       </c>
       <c r="DJ5">
-        <v>0.004320576805912646</v>
+        <v>0.004320249544213655</v>
       </c>
       <c r="DK5">
-        <v>0.006480112408902787</v>
+        <v>0.006480647057570855</v>
       </c>
       <c r="DL5">
-        <v>0.01321750440624815</v>
+        <v>0.01322072807194443</v>
       </c>
       <c r="DM5">
-        <v>0.0003673205834993606</v>
+        <v>0.0003654155045525216</v>
       </c>
       <c r="DN5">
-        <v>0.005052611773028442</v>
+        <v>0.005052576679944931</v>
       </c>
       <c r="DO5">
-        <v>0.005926337333779266</v>
+        <v>0.005926650960632455</v>
       </c>
       <c r="DP5">
-        <v>0.009897453555390252</v>
+        <v>0.009899352127745365</v>
       </c>
       <c r="DQ5">
-        <v>0.001933523913142954</v>
+        <v>0.001932243934743137</v>
       </c>
       <c r="DR5">
-        <v>0.0002401352392127336</v>
+        <v>0.000238179398256402</v>
       </c>
       <c r="DS5">
-        <v>0.001817891918337332</v>
+        <v>0.001816565789082234</v>
       </c>
       <c r="DT5">
-        <v>0.001837061917476184</v>
+        <v>0.001835743439320226</v>
       </c>
       <c r="DU5">
-        <v>0.0002640881481367299</v>
+        <v>0.0002621418672267778</v>
       </c>
       <c r="DV5">
-        <v>0.002645299381168839</v>
+        <v>0.0026443034854459</v>
       </c>
       <c r="DW5">
-        <v>0.0007274959073196979</v>
+        <v>0.0007257345809672268</v>
       </c>
       <c r="DX5">
-        <v>0.01525667831464514</v>
+        <v>0.01526071585214304</v>
       </c>
       <c r="DY5">
-        <v>0.002019609209275862</v>
+        <v>0.002018363589100603</v>
       </c>
       <c r="DZ5">
-        <v>0.004888831780385707</v>
+        <v>0.00488873131969567</v>
       </c>
       <c r="EA5">
-        <v>0.01116454349847051</v>
+        <v>0.01116694778972019</v>
       </c>
       <c r="EB5">
-        <v>0.0241326439159223</v>
+        <v>0.0241402240144962</v>
       </c>
       <c r="EC5">
-        <v>0.01275988142680533</v>
+        <v>0.01276292244675608</v>
       </c>
       <c r="ED5">
-        <v>0.002645299381168839</v>
+        <v>0.0026443034854459</v>
       </c>
       <c r="EE5">
-        <v>0.002933722068212422</v>
+        <v>0.00293284128728718</v>
       </c>
       <c r="EF5">
-        <v>0.0005743638741986384</v>
+        <v>0.0005725414300360728</v>
       </c>
       <c r="EG5">
-        <v>2.825044273094406E-05</v>
+        <v>2.621003465635935E-05</v>
       </c>
       <c r="EH5">
-        <v>0.0006278079717978425</v>
+        <v>0.0006260068581573183</v>
       </c>
       <c r="EI5">
-        <v>0.000242360929112752</v>
+        <v>0.0002404059764701837</v>
       </c>
       <c r="EJ5">
-        <v>2.97136256652155E-07</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>2.781551875048155E-05</v>
+        <v>2.577493708973919E-05</v>
       </c>
       <c r="EL5">
-        <v>0.002992494165572284</v>
+        <v>0.002991636841671754</v>
       </c>
       <c r="EM5">
-        <v>0.01081617851411963</v>
+        <v>0.01081844376649859</v>
       </c>
       <c r="EN5">
-        <v>0.009363420579379883</v>
+        <v>0.009365106009354878</v>
       </c>
       <c r="EO5">
-        <v>0.00676368329616432</v>
+        <v>0.006764331123187581</v>
       </c>
       <c r="EP5">
-        <v>0.002601419483139996</v>
+        <v>0.002600406074142923</v>
       </c>
       <c r="EQ5">
-        <v>0.0001212632245526583</v>
+        <v>0.0001192599395895472</v>
       </c>
       <c r="ER5">
-        <v>0.0002063626407298538</v>
+        <v>0.0002043933205084827</v>
       </c>
       <c r="ES5">
-        <v>0.0004617774492562042</v>
+        <v>0.0004599100697812901</v>
       </c>
       <c r="ET5">
-        <v>0.003067668362195337</v>
+        <v>0.003066841041698926</v>
       </c>
       <c r="EU5">
-        <v>0.002409639391755071</v>
+        <v>0.002408549439797218</v>
       </c>
       <c r="EV5">
-        <v>7.781097650460409E-05</v>
+        <v>7.579034895033003E-05</v>
       </c>
       <c r="EW5">
-        <v>0.0002578319584177681</v>
+        <v>0.0002558831805474652</v>
       </c>
       <c r="EX5">
-        <v>0.0007795410649817445</v>
+        <v>0.0007778005108086633</v>
       </c>
       <c r="EY5">
-        <v>0.006144908723960682</v>
+        <v>0.006145309586674618</v>
       </c>
       <c r="EZ5">
-        <v>0.04415341801655649</v>
+        <v>0.04416898877420079</v>
       </c>
       <c r="FA5">
-        <v>0.04282719807613245</v>
+        <v>0.042842239515013</v>
       </c>
       <c r="FB5">
-        <v>0.0005093881371174545</v>
+        <v>0.0005075397599434952</v>
       </c>
       <c r="FC5">
-        <v>0.01044837953064176</v>
+        <v>0.0104504979876836</v>
       </c>
       <c r="FD5">
-        <v>0.000410723361549637</v>
+        <v>0.0004088356054495753</v>
       </c>
       <c r="FE5">
-        <v>0.003032804363761484</v>
+        <v>0.003031963128402245</v>
       </c>
       <c r="FF5">
-        <v>0.005801468739388567</v>
+        <v>0.005801732528889745</v>
       </c>
       <c r="FG5">
-        <v>0.01794646019381575</v>
+        <v>0.0179515712727193</v>
       </c>
       <c r="FH5">
-        <v>0.002081449506497895</v>
+        <v>0.00208022856792233</v>
       </c>
       <c r="FI5">
-        <v>0.0001192514996430282</v>
+        <v>0.0001172474117635157</v>
       </c>
       <c r="FJ5">
-        <v>0.0005176888467445731</v>
+        <v>0.0005158437825364532</v>
       </c>
       <c r="FK5">
-        <v>0.008367727124108057</v>
+        <v>0.008369015154516995</v>
       </c>
       <c r="FL5">
-        <v>0.01909475114223265</v>
+        <v>0.01910032052516762</v>
       </c>
       <c r="FM5">
-        <v>0.006698463299094109</v>
+        <v>0.006699085095617323</v>
       </c>
       <c r="FN5">
-        <v>0.001326425540414802</v>
+        <v>0.001324903257891564</v>
       </c>
       <c r="FO5">
-        <v>0.003336391750123844</v>
+        <v>0.003335671682072637</v>
       </c>
       <c r="FP5">
-        <v>0.005428876756126006</v>
+        <v>0.005428991837315726</v>
       </c>
       <c r="FQ5">
-        <v>0.01826469317952021</v>
+        <v>0.01826993127105978</v>
       </c>
       <c r="FR5">
-        <v>0.006626970702305672</v>
+        <v>0.006627563964818956</v>
       </c>
       <c r="FS5">
-        <v>0.0003895111525025241</v>
+        <v>0.0003876149302197976</v>
       </c>
       <c r="FT5">
-        <v>3.670907435096853E-05</v>
+        <v>3.46720422717943E-05</v>
       </c>
       <c r="FU5">
-        <v>0.003362344148958019</v>
+        <v>0.003361634438986381</v>
       </c>
       <c r="FV5">
-        <v>0.001882799515421577</v>
+        <v>0.001881499291981947</v>
       </c>
       <c r="FW5">
-        <v>4.133444814318921E-06</v>
+        <v>2.083411202420589E-06</v>
       </c>
       <c r="FX5">
-        <v>5.757561441360954E-05</v>
+        <v>5.554691055425244E-05</v>
       </c>
       <c r="FY5">
-        <v>0.0008222238630643636</v>
+        <v>0.0008205003443808162</v>
       </c>
       <c r="FZ5">
-        <v>0.0002667347580178398</v>
+        <v>0.0002647895334185551</v>
       </c>
       <c r="GA5">
-        <v>0.003194263056508496</v>
+        <v>0.003193486262282313</v>
       </c>
       <c r="GB5">
-        <v>0.00555723975035973</v>
+        <v>0.00555740606358069</v>
       </c>
       <c r="GC5">
-        <v>0.002468022389132411</v>
+        <v>0.002466955738902315</v>
       </c>
       <c r="GD5">
-        <v>0.0002758089876102107</v>
+        <v>0.0002738673847028064</v>
       </c>
       <c r="GE5">
-        <v>9.820632558841176E-06</v>
+        <v>7.772868808143385E-06</v>
       </c>
       <c r="GF5">
-        <v>0.002234827199607919</v>
+        <v>0.002233667476889867</v>
       </c>
       <c r="GG5">
-        <v>0.003354039849331062</v>
+        <v>0.003353326824960749</v>
       </c>
       <c r="GH5">
-        <v>0.002432707590718809</v>
+        <v>0.002431626845703324</v>
       </c>
       <c r="GI5">
-        <v>0.0003201001556205792</v>
+        <v>0.0003181762301327203</v>
       </c>
       <c r="GJ5">
-        <v>0.0002146338903582958</v>
+        <v>0.0002126678713447369</v>
       </c>
       <c r="GK5">
-        <v>0.0002588147883736178</v>
+        <v>0.0002568664027688217</v>
       </c>
       <c r="GL5">
-        <v>0.004107597515480023</v>
+        <v>0.004107185249830119</v>
       </c>
       <c r="GM5">
-        <v>0.001272786342824363</v>
+        <v>0.001271242651911089</v>
       </c>
       <c r="GN5">
-        <v>6.038850328724999E-05</v>
+        <v>5.836092210356363E-05</v>
       </c>
       <c r="GO5">
-        <v>0.001701643523559399</v>
+        <v>0.001700270997432458</v>
       </c>
       <c r="GP5">
-        <v>0.004607944793003607</v>
+        <v>0.004607732225152169</v>
       </c>
       <c r="GQ5">
-        <v>0.001620239227216213</v>
+        <v>0.0016188342111378</v>
       </c>
       <c r="GR5">
-        <v>0.0002474647388834805</v>
+        <v>0.0002455118232652368</v>
       </c>
       <c r="GS5">
-        <v>0.00075638216602208</v>
+        <v>0.0007546323687065957</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.807122604575064E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.425149151553678E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.535721777825583E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0003702661674132233</v>
+        <v>0.0002517076853827176</v>
       </c>
       <c r="F6">
-        <v>0.0006557318777091416</v>
+        <v>0.0005433207801600917</v>
       </c>
       <c r="G6">
-        <v>0.0003543643279537883</v>
+        <v>0.0002354634064722599</v>
       </c>
       <c r="H6">
-        <v>0.0003110750294253587</v>
+        <v>0.0001912418910351483</v>
       </c>
       <c r="I6">
-        <v>0.0004749210338556004</v>
+        <v>0.0003586162505310086</v>
       </c>
       <c r="J6">
-        <v>0.0007351313750100462</v>
+        <v>0.0006244301123726466</v>
       </c>
       <c r="K6">
-        <v>0.0006152766090843725</v>
+        <v>0.0005019943242733595</v>
       </c>
       <c r="L6">
-        <v>0.0003283711188373978</v>
+        <v>0.0002089104444868481</v>
       </c>
       <c r="M6">
-        <v>9.452392678676677E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001238646357893628</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.121155061887611E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.000218481242572979</v>
+        <v>9.665413577309336E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0001672956843129738</v>
+        <v>4.436631795905611E-05</v>
       </c>
       <c r="R6">
-        <v>0.0001219585158541592</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0005211179222851898</v>
+        <v>0.0004058079695997288</v>
       </c>
       <c r="T6">
-        <v>0.0006213889788765893</v>
+        <v>0.000508238321388405</v>
       </c>
       <c r="U6">
-        <v>0.0003392891284662525</v>
+        <v>0.0002200635688791931</v>
       </c>
       <c r="V6">
-        <v>0.0003092087494888007</v>
+        <v>0.0001893354215419946</v>
       </c>
       <c r="W6">
-        <v>0.0004054067062186608</v>
+        <v>0.0002876049609699514</v>
       </c>
       <c r="X6">
-        <v>0.000311532779409798</v>
+        <v>0.0001917094984737378</v>
       </c>
       <c r="Y6">
-        <v>0.0003316381387263392</v>
+        <v>0.0002122478182804495</v>
       </c>
       <c r="Z6">
-        <v>0.0009512241676642179</v>
+        <v>0.0008451763727891624</v>
       </c>
       <c r="AA6">
-        <v>0.0006842877267384181</v>
+        <v>0.0005724915674353503</v>
       </c>
       <c r="AB6">
-        <v>9.499047677090693E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>7.745594236697346E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0001765193939994243</v>
+        <v>5.3788656369528E-05</v>
       </c>
       <c r="AE6">
-        <v>5.130777825585052E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.254256489375257E-08</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>3.877004468205649E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001014878665500356</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0004332352352726616</v>
+        <v>0.0003160327657389618</v>
       </c>
       <c r="AJ6">
-        <v>0.0005316197419281924</v>
+        <v>0.0004165359415292302</v>
       </c>
       <c r="AK6">
-        <v>0.0003715364273700423</v>
+        <v>0.0002530052998555583</v>
       </c>
       <c r="AL6">
-        <v>0.0004903771133301885</v>
+        <v>0.0003744051702020873</v>
       </c>
       <c r="AM6">
-        <v>0.001054100164167065</v>
+        <v>0.0009502677607789957</v>
       </c>
       <c r="AN6">
-        <v>0.0006136416091399524</v>
+        <v>0.0005003241152900848</v>
       </c>
       <c r="AO6">
-        <v>0.0003921566366690818</v>
+        <v>0.0002740695567234561</v>
       </c>
       <c r="AP6">
-        <v>0.0003388114484824907</v>
+        <v>0.0002195756022570948</v>
       </c>
       <c r="AQ6">
-        <v>0.0001841421937402958</v>
+        <v>6.157560990940998E-05</v>
       </c>
       <c r="AR6">
-        <v>8.258075219276138E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0001996722932123678</v>
+        <v>7.744014356760929E-05</v>
       </c>
       <c r="AT6">
-        <v>0.0001568897346667122</v>
+        <v>3.373628054651276E-05</v>
       </c>
       <c r="AU6">
-        <v>6.821670768105072E-06</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0003737348872953082</v>
+        <v>0.0002552511026943169</v>
       </c>
       <c r="AW6">
-        <v>3.577601278383519E-07</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>6.868839366501629E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0002260196823167183</v>
+        <v>0.0001043549126586457</v>
       </c>
       <c r="AZ6">
-        <v>0.0004668961441283974</v>
+        <v>0.0003504185481653865</v>
       </c>
       <c r="BA6">
-        <v>0.000334446768630863</v>
+        <v>0.0002151169308533518</v>
       </c>
       <c r="BB6">
-        <v>0.0007139336757306378</v>
+        <v>0.0006027759295195799</v>
       </c>
       <c r="BC6">
-        <v>0.0007098274458702244</v>
+        <v>0.0005985812737193398</v>
       </c>
       <c r="BD6">
-        <v>0.0002606366911399525</v>
+        <v>0.0001397173842648312</v>
       </c>
       <c r="BE6">
-        <v>0.0003615103677108668</v>
+        <v>0.0002427633332018262</v>
       </c>
       <c r="BF6">
-        <v>0.0009682519670853771</v>
+        <v>0.0008625708587374231</v>
       </c>
       <c r="BG6">
-        <v>0.0005226246822339691</v>
+        <v>0.0004073471769927801</v>
       </c>
       <c r="BH6">
-        <v>0.0001361908953703456</v>
+        <v>1.259170041723591E-05</v>
       </c>
       <c r="BI6">
-        <v>0.0002606366911399525</v>
+        <v>0.0001397173842648312</v>
       </c>
       <c r="BJ6">
-        <v>0.0002631272610552884</v>
+        <v>0.0001422615875599228</v>
       </c>
       <c r="BK6">
-        <v>7.802681234756739E-08</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>2.321123421096053E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4.073169161537254E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>6.254425287387936E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0001776370239614317</v>
+        <v>5.493035402456005E-05</v>
       </c>
       <c r="BP6">
-        <v>3.542313679583081E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0001014878665500356</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.000465861084163583</v>
+        <v>0.0003493611986178462</v>
       </c>
       <c r="BS6">
-        <v>0.0003852213669048384</v>
+        <v>0.0002669849388302229</v>
       </c>
       <c r="BT6">
-        <v>0.0004088759161007289</v>
+        <v>0.0002911488788334785</v>
       </c>
       <c r="BU6">
-        <v>0.001189534259563138</v>
+        <v>0.001088618372682198</v>
       </c>
       <c r="BV6">
-        <v>0.001054100164167065</v>
+        <v>0.0009502677607789957</v>
       </c>
       <c r="BW6">
-        <v>0.0003622716076849893</v>
+        <v>0.0002435409661598862</v>
       </c>
       <c r="BX6">
-        <v>0.0004933026832307371</v>
+        <v>0.0003773937410248392</v>
       </c>
       <c r="BY6">
-        <v>0.0005185212223734616</v>
+        <v>0.0004031553508432335</v>
       </c>
       <c r="BZ6">
-        <v>0.0001030442104971294</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1.823119938025114E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.685542408708044E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>5.35861281784006E-07</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>2.28241122241203E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0002104323128465932</v>
+        <v>8.843187571697716E-05</v>
       </c>
       <c r="CF6">
-        <v>0.0003913646066960059</v>
+        <v>0.0002732604707167141</v>
       </c>
       <c r="CG6">
-        <v>0.0006023548795236319</v>
+        <v>0.0004887943306798113</v>
       </c>
       <c r="CH6">
-        <v>0.0005116254826078744</v>
+        <v>0.0003961111142106174</v>
       </c>
       <c r="CI6">
-        <v>0.00071158583581045</v>
+        <v>0.0006003775298502881</v>
       </c>
       <c r="CJ6">
-        <v>0.0006751165270501826</v>
+        <v>0.000563122869803907</v>
       </c>
       <c r="CK6">
-        <v>0.000299238589827725</v>
+        <v>0.0001791505586694032</v>
       </c>
       <c r="CL6">
-        <v>0.0002483615415572322</v>
+        <v>0.000127177894478259</v>
       </c>
       <c r="CM6">
-        <v>0.0004822221336074078</v>
+        <v>0.0003660745764073312</v>
       </c>
       <c r="CN6">
-        <v>0.108143526323784</v>
+        <v>0.1103458198499138</v>
       </c>
       <c r="CO6">
-        <v>0.004071464161595213</v>
+        <v>0.004032609427831511</v>
       </c>
       <c r="CP6">
-        <v>0.1010958765633608</v>
+        <v>0.1031464019043623</v>
       </c>
       <c r="CQ6">
-        <v>0.01104324262459754</v>
+        <v>0.01115452221935681</v>
       </c>
       <c r="CR6">
-        <v>0.009474827677914023</v>
+        <v>0.009552332113850424</v>
       </c>
       <c r="CS6">
-        <v>2.251008723479522E-05</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.004706095240021652</v>
+        <v>0.004680907020666718</v>
       </c>
       <c r="CU6">
-        <v>0.00897857969478341</v>
+        <v>0.009045397638295594</v>
       </c>
       <c r="CV6">
-        <v>0.003855554868934804</v>
+        <v>0.003812050619004249</v>
       </c>
       <c r="CW6">
-        <v>0.00492424823260579</v>
+        <v>0.004903757846555615</v>
       </c>
       <c r="CX6">
-        <v>0.01959458933390425</v>
+        <v>0.01989001859764424</v>
       </c>
       <c r="CY6">
-        <v>0.06623067774856355</v>
+        <v>0.06753039563911932</v>
       </c>
       <c r="CZ6">
-        <v>0.006784195769378992</v>
+        <v>0.006803758574347903</v>
       </c>
       <c r="DA6">
-        <v>2.884852301932732E-05</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0003647867875994886</v>
+        <v>0.0002461103094201633</v>
       </c>
       <c r="DC6">
-        <v>0.05775515803667918</v>
+        <v>0.05887235916087762</v>
       </c>
       <c r="DD6">
-        <v>0.04693464840451009</v>
+        <v>0.04781883438680134</v>
       </c>
       <c r="DE6">
-        <v>0.005296973319935424</v>
+        <v>0.005284509412495673</v>
       </c>
       <c r="DF6">
-        <v>0.003687035174663439</v>
+        <v>0.00363990192371448</v>
       </c>
       <c r="DG6">
-        <v>0.02001171131972467</v>
+        <v>0.02031612313068494</v>
       </c>
       <c r="DH6">
-        <v>0.001791630139095574</v>
+        <v>0.001703680134745147</v>
       </c>
       <c r="DI6">
-        <v>0.008012342727629535</v>
+        <v>0.008058353162838415</v>
       </c>
       <c r="DJ6">
-        <v>3.811285170439701E-06</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.02161641726517451</v>
+        <v>0.02195538574641274</v>
       </c>
       <c r="DL6">
-        <v>0.01512764048575309</v>
+        <v>0.01532687587738103</v>
       </c>
       <c r="DM6">
-        <v>0.0002104323128465932</v>
+        <v>8.843187571697716E-05</v>
       </c>
       <c r="DN6">
-        <v>0.002564445712824589</v>
+        <v>0.002493137968099826</v>
       </c>
       <c r="DO6">
-        <v>0.00356392407884846</v>
+        <v>0.003514139682025892</v>
       </c>
       <c r="DP6">
-        <v>0.01080010463286274</v>
+        <v>0.01090614835282747</v>
       </c>
       <c r="DQ6">
-        <v>0.003225836890341349</v>
+        <v>0.003168771927548691</v>
       </c>
       <c r="DR6">
-        <v>0.003763523872063292</v>
+        <v>0.003718037773169531</v>
       </c>
       <c r="DS6">
-        <v>0.001908097435136401</v>
+        <v>0.001822655505214726</v>
       </c>
       <c r="DT6">
-        <v>0.002137412227341106</v>
+        <v>0.002056908495403021</v>
       </c>
       <c r="DU6">
-        <v>0.0008261172019170866</v>
+        <v>0.0007173752809455597</v>
       </c>
       <c r="DV6">
-        <v>4.606613843403409E-05</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.009923005162678741</v>
+        <v>0.01001016091299516</v>
       </c>
       <c r="DX6">
-        <v>0.02175946426031179</v>
+        <v>0.02210151319866382</v>
       </c>
       <c r="DY6">
-        <v>0.005353126818026551</v>
+        <v>0.005341872152643881</v>
       </c>
       <c r="DZ6">
-        <v>0.001377668653167723</v>
+        <v>0.00128080416163817</v>
       </c>
       <c r="EA6">
-        <v>0.01102015062538253</v>
+        <v>0.0111309329436126</v>
       </c>
       <c r="EB6">
-        <v>0.01626787644699207</v>
+        <v>0.01649166634236776</v>
       </c>
       <c r="EC6">
-        <v>0.01105017562436186</v>
+        <v>0.01116160451836662</v>
       </c>
       <c r="ED6">
-        <v>0.005567274310746851</v>
+        <v>0.005560631221907392</v>
       </c>
       <c r="EE6">
-        <v>0.002637123110354003</v>
+        <v>0.002567380442938391</v>
       </c>
       <c r="EF6">
-        <v>0.0006395064182607076</v>
+        <v>0.0005267459122397457</v>
       </c>
       <c r="EG6">
-        <v>0.0004522010146279415</v>
+        <v>0.0003354069652073492</v>
       </c>
       <c r="EH6">
-        <v>0.0004855205034952835</v>
+        <v>0.0003694439753089607</v>
       </c>
       <c r="EI6">
-        <v>0.003086054095093106</v>
+        <v>0.003025978968363797</v>
       </c>
       <c r="EJ6">
-        <v>0.001024333065178964</v>
+        <v>0.0009198596397844763</v>
       </c>
       <c r="EK6">
-        <v>2.814433904326525E-05</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.003880413368089767</v>
+        <v>0.003837444435524578</v>
       </c>
       <c r="EM6">
-        <v>0.01068388963681334</v>
+        <v>0.01078743071552393</v>
       </c>
       <c r="EN6">
-        <v>0.01297940755877982</v>
+        <v>0.01313238165428172</v>
       </c>
       <c r="EO6">
-        <v>0.004101230860583329</v>
+        <v>0.004063017140212212</v>
       </c>
       <c r="EP6">
-        <v>0.001244897557681125</v>
+        <v>0.001145173896231885</v>
       </c>
       <c r="EQ6">
-        <v>0.0001782763839396974</v>
+        <v>5.558348235211147E-05</v>
       </c>
       <c r="ER6">
-        <v>0.0002889906401760923</v>
+        <v>0.0001686819237151824</v>
       </c>
       <c r="ES6">
-        <v>5.85232020105704E-07</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.002082875629195015</v>
+        <v>0.002001197474462798</v>
       </c>
       <c r="EU6">
-        <v>0.00201027063166314</v>
+        <v>0.001927028958725388</v>
       </c>
       <c r="EV6">
-        <v>0.0002479528715711245</v>
+        <v>0.000126760423955204</v>
       </c>
       <c r="EW6">
-        <v>0.0005510575812674251</v>
+        <v>0.0004363923665955654</v>
       </c>
       <c r="EX6">
-        <v>0.001598891245647513</v>
+        <v>0.001506790689970528</v>
       </c>
       <c r="EY6">
-        <v>0.01404706452248604</v>
+        <v>0.01422303016342926</v>
       </c>
       <c r="EZ6">
-        <v>0.0505304912822735</v>
+        <v>0.05149211223453576</v>
       </c>
       <c r="FA6">
-        <v>0.02892639001668032</v>
+        <v>0.02942277569876516</v>
       </c>
       <c r="FB6">
-        <v>0.0001636192444379501</v>
+        <v>4.061070749148984E-05</v>
       </c>
       <c r="FC6">
-        <v>0.008728269703292412</v>
+        <v>0.008789697325999865</v>
       </c>
       <c r="FD6">
-        <v>6.868839366501629E-06</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>4.894501633616992E-05</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01238032107914508</v>
+        <v>0.01252039409828255</v>
       </c>
       <c r="FG6">
-        <v>0.01671447143181058</v>
+        <v>0.01694787856309291</v>
       </c>
       <c r="FH6">
-        <v>0.001421408351680842</v>
+        <v>0.001325485776234956</v>
       </c>
       <c r="FI6">
-        <v>0.0003900608867403244</v>
+        <v>0.0002719286756979526</v>
       </c>
       <c r="FJ6">
-        <v>0.006762481770117135</v>
+        <v>0.006781576973208559</v>
       </c>
       <c r="FK6">
-        <v>0.0207783662936631</v>
+        <v>0.0210992876983134</v>
       </c>
       <c r="FL6">
-        <v>0.01937974734120756</v>
+        <v>0.01967055007263829</v>
       </c>
       <c r="FM6">
-        <v>0.003510313180670901</v>
+        <v>0.003459374295615221</v>
       </c>
       <c r="FN6">
-        <v>0.0003610172877276284</v>
+        <v>0.0002422596349477142</v>
       </c>
       <c r="FO6">
-        <v>0.002962731199285327</v>
+        <v>0.002900000365658292</v>
       </c>
       <c r="FP6">
-        <v>0.01085230863108813</v>
+        <v>0.01095947654228489</v>
       </c>
       <c r="FQ6">
-        <v>0.02438608117102295</v>
+        <v>0.02478469320418204</v>
       </c>
       <c r="FR6">
-        <v>0.00788262973203898</v>
+        <v>0.007925846852228309</v>
       </c>
       <c r="FS6">
-        <v>4.4275523494904E-06</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0004749210338556004</v>
+        <v>0.0003586162505310086</v>
       </c>
       <c r="FU6">
-        <v>0.004978394830765138</v>
+        <v>0.004959070469022763</v>
       </c>
       <c r="FV6">
-        <v>0.003735010873032559</v>
+        <v>0.003688910758649584</v>
       </c>
       <c r="FW6">
-        <v>1.622441744846941E-05</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001090819362918838</v>
+        <v>0.000987777692093163</v>
       </c>
       <c r="FY6">
-        <v>0.001598891245647513</v>
+        <v>0.001506790689970528</v>
       </c>
       <c r="FZ6">
-        <v>6.292386786097478E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.005947888797808294</v>
+        <v>0.005949442082497387</v>
       </c>
       <c r="GB6">
-        <v>0.005722845205458395</v>
+        <v>0.005719552270663443</v>
       </c>
       <c r="GC6">
-        <v>0.000660345377552311</v>
+        <v>0.0005480336297896566</v>
       </c>
       <c r="GD6">
-        <v>1.587211546044551E-05</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0006318457085211248</v>
+        <v>0.0005189202323252118</v>
       </c>
       <c r="GF6">
-        <v>0.002487101315453823</v>
+        <v>0.002414127991533465</v>
       </c>
       <c r="GG6">
-        <v>0.003631177876562244</v>
+        <v>0.003582841762098899</v>
       </c>
       <c r="GH6">
-        <v>0.003577061578401866</v>
+        <v>0.003527560092128505</v>
       </c>
       <c r="GI6">
-        <v>0.002192653625463237</v>
+        <v>0.002113339493891508</v>
       </c>
       <c r="GJ6">
-        <v>0.001120191061920381</v>
+        <v>0.001017781898328057</v>
       </c>
       <c r="GK6">
-        <v>0.0004554796445164883</v>
+        <v>0.0003387561990170338</v>
       </c>
       <c r="GL6">
-        <v>0.003599213877648823</v>
+        <v>0.003550189431859513</v>
       </c>
       <c r="GM6">
-        <v>0.0003921566366690818</v>
+        <v>0.0002740695567234561</v>
       </c>
       <c r="GN6">
-        <v>1.676011943025883E-05</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002103819228483061</v>
+        <v>0.002022592085387639</v>
       </c>
       <c r="GP6">
-        <v>0.00417878185794707</v>
+        <v>0.004142238165815846</v>
       </c>
       <c r="GQ6">
-        <v>0.001209331558890151</v>
+        <v>0.001108841998556563</v>
       </c>
       <c r="GR6">
-        <v>1.027494865071482E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001097364362696348</v>
+        <v>0.000994463635698994</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0004054174741296502</v>
+        <v>6.516579440003828E-05</v>
       </c>
       <c r="C2">
-        <v>0.0007623206665684759</v>
+        <v>7.9599426439236E-05</v>
       </c>
       <c r="D2">
-        <v>0.001110528398704247</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="E2">
-        <v>0.001353549607174046</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="F2">
-        <v>0.001587164215316006</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="G2">
-        <v>0.001820778823457965</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="H2">
-        <v>0.001950942067994428</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="I2">
-        <v>0.002023126770510216</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="J2">
-        <v>0.0020325690678393</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="K2">
-        <v>0.002033564491373993</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="L2">
-        <v>0.002065385947483037</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="M2">
-        <v>0.002204810082342261</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="N2">
-        <v>0.002411224259536229</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="O2">
-        <v>0.002683470639024587</v>
+        <v>8.494007619523393E-05</v>
       </c>
       <c r="P2">
-        <v>0.003051384651847163</v>
+        <v>0.0001108878996841655</v>
       </c>
       <c r="Q2">
-        <v>0.003394485213804938</v>
+        <v>0.0001108878996841655</v>
       </c>
       <c r="R2">
-        <v>0.003736232645715553</v>
+        <v>0.0001108878996841655</v>
       </c>
       <c r="S2">
-        <v>0.004093932938182159</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="T2">
-        <v>0.004349939747104534</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="U2">
-        <v>0.004499619152321175</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="V2">
-        <v>0.004649298557537817</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="W2">
-        <v>0.004773614091870475</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="X2">
-        <v>0.004848037964464303</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="Y2">
-        <v>0.004871786572291992</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="Z2">
-        <v>0.004872553662148726</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AA2">
-        <v>0.004904688006268676</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AB2">
-        <v>0.004987155229142832</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AC2">
-        <v>0.005063967791819911</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AD2">
-        <v>0.005162657189259443</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AE2">
-        <v>0.005430605298597998</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AF2">
-        <v>0.005753369909847022</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AG2">
-        <v>0.006007535388705222</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AH2">
-        <v>0.006186646634947625</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AI2">
-        <v>0.006463444414594609</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AJ2">
-        <v>0.006709132723157363</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AK2">
-        <v>0.006870132588768546</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AL2">
-        <v>0.007093068126538318</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AM2">
-        <v>0.007232282231390222</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AN2">
-        <v>0.007277890390979762</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AO2">
-        <v>0.007284893179823824</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AP2">
-        <v>0.007285237318435818</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AQ2">
-        <v>0.007285739298853313</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AR2">
-        <v>0.007288205800339276</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AS2">
-        <v>0.00734111894918341</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AT2">
-        <v>0.007467344143582622</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AU2">
-        <v>0.00766168358035576</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AV2">
-        <v>0.007785999114688418</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AW2">
-        <v>0.007917481029270838</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AX2">
-        <v>0.008086853995173841</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AY2">
-        <v>0.008345206144177955</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="AZ2">
-        <v>0.00852586368047425</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BA2">
-        <v>0.008665287815333473</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BB2">
-        <v>0.008803849850162651</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BC2">
-        <v>0.008925731508410483</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BD2">
-        <v>0.008975845820157072</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BE2">
-        <v>0.009008637041299915</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BF2">
-        <v>0.009035070765221186</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BG2">
-        <v>0.009038772311050193</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BH2">
-        <v>0.009042871837193069</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BI2">
-        <v>0.009081980652556094</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BJ2">
-        <v>0.009151498294978929</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BK2">
-        <v>0.009244932442235305</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BL2">
-        <v>0.009385877447147533</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BM2">
-        <v>0.009510810661501718</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BN2">
-        <v>0.009713484398565323</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BO2">
-        <v>0.00997390536764154</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BP2">
-        <v>0.0101832257949368</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BQ2">
-        <v>0.01031590384956091</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BR2">
-        <v>0.01047199328500095</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BS2">
-        <v>0.01056827610835661</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BT2">
-        <v>0.01060308934356992</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BU2">
-        <v>0.01061611473902389</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BV2">
-        <v>0.01063537854469527</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BW2">
-        <v>0.01063598948897656</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BX2">
-        <v>0.01063823165505471</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BY2">
-        <v>0.01065114556650478</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="BZ2">
-        <v>0.01067489417433247</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CA2">
-        <v>0.01075975355729</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CB2">
-        <v>0.01088163521553783</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CC2">
-        <v>0.01098615428918054</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CD2">
-        <v>0.01104359285818239</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CE2">
-        <v>0.01115036669190369</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CF2">
-        <v>0.01126120838576675</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CG2">
-        <v>0.0113425132136004</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CH2">
-        <v>0.01143169239670848</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CI2">
-        <v>0.01155010093083527</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CJ2">
-        <v>0.01160753949983712</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CK2">
-        <v>0.01164435532612023</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CL2">
-        <v>0.01166412847480937</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CM2">
-        <v>0.01188298131243685</v>
+        <v>0.0001261550720050663</v>
       </c>
       <c r="CN2">
-        <v>0.05886435494983637</v>
+        <v>0.0488965451392256</v>
       </c>
       <c r="CO2">
-        <v>0.05927617766418926</v>
+        <v>0.04896840899604437</v>
       </c>
       <c r="CP2">
-        <v>0.1272067140317111</v>
+        <v>0.1196456744803081</v>
       </c>
       <c r="CQ2">
-        <v>0.1316020051848962</v>
+        <v>0.1238831151642974</v>
       </c>
       <c r="CR2">
-        <v>0.1329974434335301</v>
+        <v>0.1249835615590131</v>
       </c>
       <c r="CS2">
-        <v>0.1432860637921102</v>
+        <v>0.1353837511011499</v>
       </c>
       <c r="CT2">
-        <v>0.1540403651669202</v>
+        <v>0.1462709107498277</v>
       </c>
       <c r="CU2">
-        <v>0.1813877441200337</v>
+        <v>0.1745097177161598</v>
       </c>
       <c r="CV2">
-        <v>0.2157891283189942</v>
+        <v>0.2101250110892608</v>
       </c>
       <c r="CW2">
-        <v>0.235878241019142</v>
+        <v>0.2307737326380588</v>
       </c>
       <c r="CX2">
-        <v>0.3276435642173561</v>
+        <v>0.3263754169364921</v>
       </c>
       <c r="CY2">
-        <v>0.3696549556815413</v>
+        <v>0.3699486169443228</v>
       </c>
       <c r="CZ2">
-        <v>0.3696722404671438</v>
+        <v>0.3699486169443228</v>
       </c>
       <c r="DA2">
-        <v>0.3911179772145727</v>
+        <v>0.3920159820147934</v>
       </c>
       <c r="DB2">
-        <v>0.3951143546538549</v>
+        <v>0.3958362722309954</v>
       </c>
       <c r="DC2">
-        <v>0.4599862769147776</v>
+        <v>0.463315095894683</v>
       </c>
       <c r="DD2">
-        <v>0.525536659199346</v>
+        <v>0.5315033960851857</v>
       </c>
       <c r="DE2">
-        <v>0.5315656554094692</v>
+        <v>0.5374492283460409</v>
       </c>
       <c r="DF2">
-        <v>0.5578592493258562</v>
+        <v>0.5645860754004993</v>
       </c>
       <c r="DG2">
-        <v>0.569724556739387</v>
+        <v>0.5766350318804578</v>
       </c>
       <c r="DH2">
-        <v>0.5938692975808819</v>
+        <v>0.6015247888145314</v>
       </c>
       <c r="DI2">
-        <v>0.6016680333526843</v>
+        <v>0.6093212661153706</v>
       </c>
       <c r="DJ2">
-        <v>0.608556504192762</v>
+        <v>0.6161658647796894</v>
       </c>
       <c r="DK2">
-        <v>0.6145340004010903</v>
+        <v>0.6220578426627906</v>
       </c>
       <c r="DL2">
-        <v>0.6410999463269693</v>
+        <v>0.6494794925811336</v>
       </c>
       <c r="DM2">
-        <v>0.6461014011012806</v>
+        <v>0.6543508082844457</v>
       </c>
       <c r="DN2">
-        <v>0.6504070959513431</v>
+        <v>0.6584945566774533</v>
       </c>
       <c r="DO2">
-        <v>0.657581698401393</v>
+        <v>0.6656383677548546</v>
       </c>
       <c r="DP2">
-        <v>0.6627469742814137</v>
+        <v>0.6706809938155157</v>
       </c>
       <c r="DQ2">
-        <v>0.6627981292491966</v>
+        <v>0.6706809938155157</v>
       </c>
       <c r="DR2">
-        <v>0.662798544344521</v>
+        <v>0.6706809938155157</v>
       </c>
       <c r="DS2">
-        <v>0.6667075734807589</v>
+        <v>0.6744099425104678</v>
       </c>
       <c r="DT2">
-        <v>0.6677816534181928</v>
+        <v>0.6751743393657158</v>
       </c>
       <c r="DU2">
-        <v>0.6680760504584532</v>
+        <v>0.6751743393657158</v>
       </c>
       <c r="DV2">
-        <v>0.6687460356818036</v>
+        <v>0.6755161678982029</v>
       </c>
       <c r="DW2">
-        <v>0.6692766721002974</v>
+        <v>0.6757122771507916</v>
       </c>
       <c r="DX2">
-        <v>0.6816932420330409</v>
+        <v>0.6883376976873835</v>
       </c>
       <c r="DY2">
-        <v>0.6847696986402619</v>
+        <v>0.6911960119372368</v>
       </c>
       <c r="DZ2">
-        <v>0.6862340096912962</v>
+        <v>0.6923684797258975</v>
       </c>
       <c r="EA2">
-        <v>0.6926703849156174</v>
+        <v>0.6987403147548119</v>
       </c>
       <c r="EB2">
-        <v>0.7065386853989568</v>
+        <v>0.712883833208763</v>
       </c>
       <c r="EC2">
-        <v>0.7118979745857393</v>
+        <v>0.7181293420955892</v>
       </c>
       <c r="ED2">
-        <v>0.7121251995236586</v>
+        <v>0.7181293420955892</v>
       </c>
       <c r="EE2">
-        <v>0.7129238602914936</v>
+        <v>0.7186057287084425</v>
       </c>
       <c r="EF2">
-        <v>0.7129343589478595</v>
+        <v>0.7186057287084425</v>
       </c>
       <c r="EG2">
-        <v>0.7129687420690578</v>
+        <v>0.7186057287084425</v>
       </c>
       <c r="EH2">
-        <v>0.7140888378080955</v>
+        <v>0.7194182450253576</v>
       </c>
       <c r="EI2">
-        <v>0.715107727443606</v>
+        <v>0.7201249284968277</v>
       </c>
       <c r="EJ2">
-        <v>0.7152002215468296</v>
+        <v>0.7201249284968277</v>
       </c>
       <c r="EK2">
-        <v>0.7155055926274724</v>
+        <v>0.7201249284968277</v>
       </c>
       <c r="EL2">
-        <v>0.7173127583904559</v>
+        <v>0.7216559249559455</v>
       </c>
       <c r="EM2">
-        <v>0.7241951612303221</v>
+        <v>0.728494178215134</v>
       </c>
       <c r="EN2">
-        <v>0.7273095890388664</v>
+        <v>0.7313921995591343</v>
       </c>
       <c r="EO2">
-        <v>0.7323754955154239</v>
+        <v>0.7363309134410616</v>
       </c>
       <c r="EP2">
-        <v>0.7339406044699712</v>
+        <v>0.7376087872138662</v>
       </c>
       <c r="EQ2">
-        <v>0.7341049399756987</v>
+        <v>0.7376087872138662</v>
       </c>
       <c r="ER2">
-        <v>0.7367674143684915</v>
+        <v>0.7400341936232878</v>
       </c>
       <c r="ES2">
-        <v>0.7367938480924128</v>
+        <v>0.7400341936232878</v>
       </c>
       <c r="ET2">
-        <v>0.7396708539926825</v>
+        <v>0.7426839390704012</v>
       </c>
       <c r="EU2">
-        <v>0.7420249555747279</v>
+        <v>0.7447868750864197</v>
       </c>
       <c r="EV2">
-        <v>0.7426755252974017</v>
+        <v>0.7451084005184935</v>
       </c>
       <c r="EW2">
-        <v>0.7454923568955741</v>
+        <v>0.7476952207329218</v>
       </c>
       <c r="EX2">
-        <v>0.7469894952477526</v>
+        <v>0.7489020165568223</v>
       </c>
       <c r="EY2">
-        <v>0.7501719373586674</v>
+        <v>0.7518711615475192</v>
       </c>
       <c r="EZ2">
-        <v>0.7917782888087361</v>
+        <v>0.7950208047171853</v>
       </c>
       <c r="FA2">
-        <v>0.8439669406276202</v>
+        <v>0.8492365290850289</v>
       </c>
       <c r="FB2">
-        <v>0.8445515094179937</v>
+        <v>0.8494890362837758</v>
       </c>
       <c r="FC2">
-        <v>0.8600412614578441</v>
+        <v>0.8653281326326937</v>
       </c>
       <c r="FD2">
-        <v>0.8600423311741814</v>
+        <v>0.8653281326326937</v>
       </c>
       <c r="FE2">
-        <v>0.8652721513564516</v>
+        <v>0.8704382537052785</v>
       </c>
       <c r="FF2">
-        <v>0.8699152865182747</v>
+        <v>0.8749348688436379</v>
       </c>
       <c r="FG2">
-        <v>0.8947822003849388</v>
+        <v>0.900579813691221</v>
       </c>
       <c r="FH2">
-        <v>0.8995154565499027</v>
+        <v>0.9051706698077856</v>
       </c>
       <c r="FI2">
-        <v>0.8995744329979581</v>
+        <v>0.9051706698077856</v>
       </c>
       <c r="FJ2">
-        <v>0.9003829536761367</v>
+        <v>0.9056573670870032</v>
       </c>
       <c r="FK2">
-        <v>0.9104802920280501</v>
+        <v>0.9158575299672849</v>
       </c>
       <c r="FL2">
-        <v>0.9344370518629935</v>
+        <v>0.9405507121482599</v>
       </c>
       <c r="FM2">
-        <v>0.9433998761753668</v>
+        <v>0.9495644955038193</v>
       </c>
       <c r="FN2">
-        <v>0.9436271011132861</v>
+        <v>0.9495644955038193</v>
       </c>
       <c r="FO2">
-        <v>0.9441114763501676</v>
+        <v>0.9497122286969309</v>
       </c>
       <c r="FP2">
-        <v>0.9464487321316258</v>
+        <v>0.9517975487891287</v>
       </c>
       <c r="FQ2">
-        <v>0.9621660176794062</v>
+        <v>0.9678745805761182</v>
       </c>
       <c r="FR2">
-        <v>0.9679955653825782</v>
+        <v>0.973611846334809</v>
       </c>
       <c r="FS2">
-        <v>0.9703014288629425</v>
+        <v>0.9756643389943317</v>
       </c>
       <c r="FT2">
-        <v>0.9715558489066616</v>
+        <v>0.9766173203907369</v>
       </c>
       <c r="FU2">
-        <v>0.976038835462903</v>
+        <v>0.980946465564025</v>
       </c>
       <c r="FV2">
-        <v>0.9802708450103974</v>
+        <v>0.9850131600544866</v>
       </c>
       <c r="FW2">
-        <v>0.9804665459972179</v>
+        <v>0.9850131600544866</v>
       </c>
       <c r="FX2">
-        <v>0.9807053037155391</v>
+        <v>0.9850131600544866</v>
       </c>
       <c r="FY2">
-        <v>0.9831982604024239</v>
+        <v>0.9872612990803783</v>
       </c>
       <c r="FZ2">
-        <v>0.9832663084247955</v>
+        <v>0.9872612990803783</v>
       </c>
       <c r="GA2">
-        <v>0.9840831674132647</v>
+        <v>0.9877567158643836</v>
       </c>
       <c r="GB2">
-        <v>0.9861775813862594</v>
+        <v>0.989588092383151</v>
       </c>
       <c r="GC2">
-        <v>0.9869024443815224</v>
+        <v>0.9899873074817717</v>
       </c>
       <c r="GD2">
-        <v>0.9884442374352571</v>
+        <v>0.9912407994431923</v>
       </c>
       <c r="GE2">
-        <v>0.989565744974344</v>
+        <v>0.992054792102059</v>
       </c>
       <c r="GF2">
-        <v>0.9900227673302722</v>
+        <v>0.9921739219489148</v>
       </c>
       <c r="GG2">
-        <v>0.9919297103967332</v>
+        <v>0.9938092571343525</v>
       </c>
       <c r="GH2">
-        <v>0.9933896130476139</v>
+        <v>0.9949771149882776</v>
       </c>
       <c r="GI2">
-        <v>0.9934113023253698</v>
+        <v>0.9949771149882776</v>
       </c>
       <c r="GJ2">
-        <v>0.9934195842656585</v>
+        <v>0.9949771149882776</v>
       </c>
       <c r="GK2">
-        <v>0.9934300829220244</v>
+        <v>0.9949771149882776</v>
       </c>
       <c r="GL2">
-        <v>0.9968263831403926</v>
+        <v>0.9981698948314628</v>
       </c>
       <c r="GM2">
-        <v>0.9980650803835638</v>
+        <v>0.999106434643197</v>
       </c>
       <c r="GN2">
-        <v>0.9985979651321359</v>
+        <v>0.9993048950106039</v>
       </c>
       <c r="GO2">
-        <v>0.9986932294014561</v>
+        <v>0.9993048950106039</v>
       </c>
       <c r="GP2">
-        <v>0.9997010467365807</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9998943681233183</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9999522267983348</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001516188261801077</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001824692734375973</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0003025341383315397</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0008819865619504959</v>
+        <v>0.0003863479124629106</v>
       </c>
       <c r="F3">
-        <v>0.00186665650208645</v>
+        <v>0.001189910637326157</v>
       </c>
       <c r="G3">
-        <v>0.002442625925563437</v>
+        <v>0.001572672428282493</v>
       </c>
       <c r="H3">
-        <v>0.002765734538733609</v>
+        <v>0.001695086945896985</v>
       </c>
       <c r="I3">
-        <v>0.003066902011009442</v>
+        <v>0.001794910710128542</v>
       </c>
       <c r="J3">
-        <v>0.003271116219333381</v>
+        <v>0.001794910710128542</v>
       </c>
       <c r="K3">
-        <v>0.003504401388842276</v>
+        <v>0.001824842376758679</v>
       </c>
       <c r="L3">
-        <v>0.003667443465488004</v>
+        <v>0.001824842376758679</v>
       </c>
       <c r="M3">
-        <v>0.003921403525839625</v>
+        <v>0.001876061056789638</v>
       </c>
       <c r="N3">
-        <v>0.004079461952282216</v>
+        <v>0.001876061056789638</v>
       </c>
       <c r="O3">
-        <v>0.00422854245835886</v>
+        <v>0.001876061056789638</v>
       </c>
       <c r="P3">
-        <v>0.004283407630595209</v>
+        <v>0.001876061056789638</v>
       </c>
       <c r="Q3">
-        <v>0.004295821226101198</v>
+        <v>0.001876061056789638</v>
       </c>
       <c r="R3">
-        <v>0.00430348132441343</v>
+        <v>0.001876061056789638</v>
       </c>
       <c r="S3">
-        <v>0.004339820225894633</v>
+        <v>0.001876061056789638</v>
       </c>
       <c r="T3">
-        <v>0.004559333064842156</v>
+        <v>0.001891812634758093</v>
       </c>
       <c r="U3">
-        <v>0.004735524252023854</v>
+        <v>0.001891812634758093</v>
       </c>
       <c r="V3">
-        <v>0.005154018289082014</v>
+        <v>0.002112436657418707</v>
       </c>
       <c r="W3">
-        <v>0.006104419627821153</v>
+        <v>0.002880716188638485</v>
       </c>
       <c r="X3">
-        <v>0.006944616262068257</v>
+        <v>0.003535528179003943</v>
       </c>
       <c r="Y3">
-        <v>0.007368207629334188</v>
+        <v>0.003761400448790342</v>
       </c>
       <c r="Z3">
-        <v>0.00785811929930339</v>
+        <v>0.004055556569898152</v>
       </c>
       <c r="AA3">
-        <v>0.008264422115864626</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AB3">
-        <v>0.00844839130336336</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AC3">
-        <v>0.008557983912830445</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AD3">
-        <v>0.008721232249484581</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AE3">
-        <v>0.008757571150965785</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AF3">
-        <v>0.008757611431901428</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AG3">
-        <v>0.008814453769218368</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AH3">
-        <v>0.008919967443519191</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AI3">
-        <v>0.009008612477132435</v>
+        <v>0.004263628425968649</v>
       </c>
       <c r="AJ3">
-        <v>0.00931882835977709</v>
+        <v>0.004372768497320879</v>
       </c>
       <c r="AK3">
-        <v>0.009557199959493312</v>
+        <v>0.004407937188359481</v>
       </c>
       <c r="AL3">
-        <v>0.00994870967545157</v>
+        <v>0.004600777963735488</v>
       </c>
       <c r="AM3">
-        <v>0.0102462952875814</v>
+        <v>0.00469691381950321</v>
       </c>
       <c r="AN3">
-        <v>0.01042752864496862</v>
+        <v>0.00469691381950321</v>
       </c>
       <c r="AO3">
-        <v>0.01058898858154986</v>
+        <v>0.00469691381950321</v>
       </c>
       <c r="AP3">
-        <v>0.01098172811755825</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AQ3">
-        <v>0.01114983120441027</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AR3">
-        <v>0.01120717721674774</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AS3">
-        <v>0.01122027240128151</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AT3">
-        <v>0.01122454122805551</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AU3">
-        <v>0.01122479210176574</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AV3">
-        <v>0.01124633260464374</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AW3">
-        <v>0.01124648415278992</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AX3">
-        <v>0.01125305286605767</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AY3">
-        <v>0.01132358763893272</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="AZ3">
-        <v>0.01141732860675368</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="BA3">
-        <v>0.0114429884597996</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="BB3">
-        <v>0.01144431780075378</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="BC3">
-        <v>0.01146379641154775</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="BD3">
-        <v>0.01150463428921233</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="BE3">
-        <v>0.01153167549031455</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="BF3">
-        <v>0.0115321477156338</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="BG3">
-        <v>0.01169619052232032</v>
+        <v>0.004891020826274914</v>
       </c>
       <c r="BH3">
-        <v>0.01195772133298053</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BI3">
-        <v>0.01200374101485633</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BJ3">
-        <v>0.01200622905205775</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BK3">
-        <v>0.01213151682716458</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BL3">
-        <v>0.01223512537138775</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BM3">
-        <v>0.01223517540403979</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BN3">
-        <v>0.01224709940652582</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BO3">
-        <v>0.01224761854981698</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BP3">
-        <v>0.01227064619475561</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BQ3">
-        <v>0.01231352237050327</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BR3">
-        <v>0.01232113784141369</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BS3">
-        <v>0.01232252069777005</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BT3">
-        <v>0.0124187269316915</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BU3">
-        <v>0.01249371463474806</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BV3">
-        <v>0.01249683318627517</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BW3">
-        <v>0.01250056408782725</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BX3">
-        <v>0.01253606181627416</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BY3">
-        <v>0.01263165986017082</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="BZ3">
-        <v>0.01267941164411722</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CA3">
-        <v>0.01277179859788299</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CB3">
-        <v>0.01281590343168074</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CC3">
-        <v>0.01281663069711038</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CD3">
-        <v>0.01284166522013081</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CE3">
-        <v>0.01284668192263529</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CF3">
-        <v>0.01288020727800181</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CG3">
-        <v>0.01297840959200462</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CH3">
-        <v>0.01303777658442447</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CI3">
-        <v>0.01311801229769494</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CJ3">
-        <v>0.01327784023420966</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CK3">
-        <v>0.01331775731783671</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CL3">
-        <v>0.01332861814427941</v>
+        <v>0.004950034404208802</v>
       </c>
       <c r="CM3">
-        <v>0.01354514157310508</v>
+        <v>0.00496270806443595</v>
       </c>
       <c r="CN3">
-        <v>0.07838816421615989</v>
+        <v>0.07151528102988959</v>
       </c>
       <c r="CO3">
-        <v>0.07848498057010621</v>
+        <v>0.07151528102988959</v>
       </c>
       <c r="CP3">
-        <v>0.1725366444037292</v>
+        <v>0.1681412769301102</v>
       </c>
       <c r="CQ3">
-        <v>0.1804856797277384</v>
+        <v>0.1761153993634854</v>
       </c>
       <c r="CR3">
-        <v>0.187881352029192</v>
+        <v>0.1835197753267938</v>
       </c>
       <c r="CS3">
-        <v>0.1903053878279977</v>
+        <v>0.1858053192894428</v>
       </c>
       <c r="CT3">
-        <v>0.1905887835995492</v>
+        <v>0.1858868451852912</v>
       </c>
       <c r="CU3">
-        <v>0.2135340545348172</v>
+        <v>0.2093011975500893</v>
       </c>
       <c r="CV3">
-        <v>0.2359314264477525</v>
+        <v>0.2321514292179793</v>
       </c>
       <c r="CW3">
-        <v>0.2543809171997689</v>
+        <v>0.2509368946040729</v>
       </c>
       <c r="CX3">
-        <v>0.3132129995978128</v>
+        <v>0.311300561107072</v>
       </c>
       <c r="CY3">
-        <v>0.3662501517596506</v>
+        <v>0.3656977265758782</v>
       </c>
       <c r="CZ3">
-        <v>0.3664718168486859</v>
+        <v>0.3657156941257136</v>
       </c>
       <c r="DA3">
-        <v>0.3768568942719902</v>
+        <v>0.3761979826822927</v>
       </c>
       <c r="DB3">
-        <v>0.3787238330480882</v>
+        <v>0.3779099356219879</v>
       </c>
       <c r="DC3">
-        <v>0.4481044098760974</v>
+        <v>0.4491344063728688</v>
       </c>
       <c r="DD3">
-        <v>0.5184205527422411</v>
+        <v>0.5213221425137641</v>
       </c>
       <c r="DE3">
-        <v>0.5244123929864734</v>
+        <v>0.5272811230918248</v>
       </c>
       <c r="DF3">
-        <v>0.5429795497432859</v>
+        <v>0.5461877382261793</v>
       </c>
       <c r="DG3">
-        <v>0.5558905402695484</v>
+        <v>0.5592707247250598</v>
       </c>
       <c r="DH3">
-        <v>0.5691019938080581</v>
+        <v>0.5726630700600672</v>
       </c>
       <c r="DI3">
-        <v>0.5784730631900307</v>
+        <v>0.5821013287870055</v>
       </c>
       <c r="DJ3">
-        <v>0.5826828103616234</v>
+        <v>0.5862254537710335</v>
       </c>
       <c r="DK3">
-        <v>0.5900379842614263</v>
+        <v>0.5935881322944275</v>
       </c>
       <c r="DL3">
-        <v>0.6086396300196446</v>
+        <v>0.6125302575478289</v>
       </c>
       <c r="DM3">
-        <v>0.6109678059145429</v>
+        <v>0.614717103477458</v>
       </c>
       <c r="DN3">
-        <v>0.6144017255545123</v>
+        <v>0.6180424309641729</v>
       </c>
       <c r="DO3">
-        <v>0.6229864209044316</v>
+        <v>0.6266710334425866</v>
       </c>
       <c r="DP3">
-        <v>0.6324398332897604</v>
+        <v>0.6361940731064228</v>
       </c>
       <c r="DQ3">
-        <v>0.6332497057827715</v>
+        <v>0.6368176631471407</v>
       </c>
       <c r="DR3">
-        <v>0.6338137048657606</v>
+        <v>0.6371881001911217</v>
       </c>
       <c r="DS3">
-        <v>0.6376109854205408</v>
+        <v>0.6408875466379681</v>
       </c>
       <c r="DT3">
-        <v>0.6399299612150642</v>
+        <v>0.6430649200793767</v>
       </c>
       <c r="DU3">
-        <v>0.6399299670661002</v>
+        <v>0.6430649200793767</v>
       </c>
       <c r="DV3">
-        <v>0.6411945628176461</v>
+        <v>0.6441566963935667</v>
       </c>
       <c r="DW3">
-        <v>0.6420791346037019</v>
+        <v>0.6448571973531462</v>
       </c>
       <c r="DX3">
-        <v>0.6608726423697407</v>
+        <v>0.6639968650827158</v>
       </c>
       <c r="DY3">
-        <v>0.665561368860857</v>
+        <v>0.6686141505516517</v>
       </c>
       <c r="DZ3">
-        <v>0.6689907043006396</v>
+        <v>0.6719347581135287</v>
       </c>
       <c r="EA3">
-        <v>0.6775854166509671</v>
+        <v>0.6805736741661977</v>
       </c>
       <c r="EB3">
-        <v>0.6960264744026396</v>
+        <v>0.6993504568756721</v>
       </c>
       <c r="EC3">
-        <v>0.7055246657897937</v>
+        <v>0.7089196013155471</v>
       </c>
       <c r="ED3">
-        <v>0.7085246543120757</v>
+        <v>0.7117981502636224</v>
       </c>
       <c r="EE3">
-        <v>0.7109875754124664</v>
+        <v>0.7141237308069833</v>
       </c>
       <c r="EF3">
-        <v>0.7112167682418085</v>
+        <v>0.7141494489713206</v>
       </c>
       <c r="EG3">
-        <v>0.7112889151197492</v>
+        <v>0.7141494489713206</v>
       </c>
       <c r="EH3">
-        <v>0.7114720429172137</v>
+        <v>0.7141494489713206</v>
       </c>
       <c r="EI3">
-        <v>0.7114720929498657</v>
+        <v>0.7141494489713206</v>
       </c>
       <c r="EJ3">
-        <v>0.7114780293066076</v>
+        <v>0.7141494489713206</v>
       </c>
       <c r="EK3">
-        <v>0.711888188553326</v>
+        <v>0.7143614914350745</v>
       </c>
       <c r="EL3">
-        <v>0.7129596455969995</v>
+        <v>0.71525441077372</v>
       </c>
       <c r="EM3">
-        <v>0.7208456449184394</v>
+        <v>0.7231636308943509</v>
       </c>
       <c r="EN3">
-        <v>0.7263326071420925</v>
+        <v>0.728602785502272</v>
       </c>
       <c r="EO3">
-        <v>0.7309493183302734</v>
+        <v>0.7331459235074891</v>
       </c>
       <c r="EP3">
-        <v>0.7321092667775538</v>
+        <v>0.7341299542192861</v>
       </c>
       <c r="EQ3">
-        <v>0.7321181909239176</v>
+        <v>0.7341299542192861</v>
       </c>
       <c r="ER3">
-        <v>0.7327116803881087</v>
+        <v>0.7345307547677044</v>
       </c>
       <c r="ES3">
-        <v>0.7329971709997456</v>
+        <v>0.7346144375256765</v>
       </c>
       <c r="ET3">
-        <v>0.7360082595224801</v>
+        <v>0.7375044151124893</v>
       </c>
       <c r="EU3">
-        <v>0.7399862336846256</v>
+        <v>0.7413899049716414</v>
       </c>
       <c r="EV3">
-        <v>0.7400261507682526</v>
+        <v>0.7413899049716414</v>
       </c>
       <c r="EW3">
-        <v>0.7402360244768073</v>
+        <v>0.7413957320329869</v>
       </c>
       <c r="EX3">
-        <v>0.7406913866953682</v>
+        <v>0.7416543157952991</v>
       </c>
       <c r="EY3">
-        <v>0.744108609834657</v>
+        <v>0.7449624524471777</v>
       </c>
       <c r="EZ3">
-        <v>0.7819618413775857</v>
+        <v>0.7837261461772221</v>
       </c>
       <c r="FA3">
-        <v>0.8261193831774833</v>
+        <v>0.828980802202734</v>
       </c>
       <c r="FB3">
-        <v>0.8265620245955257</v>
+        <v>0.8292262885391314</v>
       </c>
       <c r="FC3">
-        <v>0.8433275132789008</v>
+        <v>0.8462778935205983</v>
       </c>
       <c r="FD3">
-        <v>0.8433500252868183</v>
+        <v>0.8462778935205983</v>
       </c>
       <c r="FE3">
-        <v>0.8471348396410905</v>
+        <v>0.849964504679496</v>
       </c>
       <c r="FF3">
-        <v>0.8521025973435804</v>
+        <v>0.8548690826512528</v>
       </c>
       <c r="FG3">
-        <v>0.873585570219244</v>
+        <v>0.8767778426224762</v>
       </c>
       <c r="FH3">
-        <v>0.8768968682542152</v>
+        <v>0.8799769180400177</v>
       </c>
       <c r="FI3">
-        <v>0.8769235874693043</v>
+        <v>0.8799769180400177</v>
       </c>
       <c r="FJ3">
-        <v>0.8771817811798285</v>
+        <v>0.8800324957161199</v>
       </c>
       <c r="FK3">
-        <v>0.8844869369775926</v>
+        <v>0.8873436752489517</v>
       </c>
       <c r="FL3">
-        <v>0.8998413466034509</v>
+        <v>0.9029424232825647</v>
       </c>
       <c r="FM3">
-        <v>0.9054516703321324</v>
+        <v>0.9085085917659476</v>
       </c>
       <c r="FN3">
-        <v>0.9064363402722683</v>
+        <v>0.9093121544908108</v>
       </c>
       <c r="FO3">
-        <v>0.9085709398592763</v>
+        <v>0.9112996928888313</v>
       </c>
       <c r="FP3">
-        <v>0.9143534700949769</v>
+        <v>0.9170431664061567</v>
       </c>
       <c r="FQ3">
-        <v>0.9368998000139839</v>
+        <v>0.9400467662874766</v>
       </c>
       <c r="FR3">
-        <v>0.9471298144309677</v>
+        <v>0.9503694008793201</v>
       </c>
       <c r="FS3">
-        <v>0.9474425073437133</v>
+        <v>0.950481091318331</v>
       </c>
       <c r="FT3">
-        <v>0.9474703073448464</v>
+        <v>0.950481091318331</v>
       </c>
       <c r="FU3">
-        <v>0.9531587715767128</v>
+        <v>0.9561277138148017</v>
       </c>
       <c r="FV3">
-        <v>0.9565037716130578</v>
+        <v>0.9593614890506075</v>
       </c>
       <c r="FW3">
-        <v>0.9565634932324921</v>
+        <v>0.9593614890506075</v>
       </c>
       <c r="FX3">
-        <v>0.956988457629814</v>
+        <v>0.9595887750018214</v>
       </c>
       <c r="FY3">
-        <v>0.9587515315016784</v>
+        <v>0.9611937879037135</v>
       </c>
       <c r="FZ3">
-        <v>0.9588254083186897</v>
+        <v>0.9611937879037135</v>
       </c>
       <c r="GA3">
-        <v>0.9618002554399468</v>
+        <v>0.9640464510880088</v>
       </c>
       <c r="GB3">
-        <v>0.9678113396849636</v>
+        <v>0.9700252454249764</v>
       </c>
       <c r="GC3">
-        <v>0.9707434355044782</v>
+        <v>0.9728338915675364</v>
       </c>
       <c r="GD3">
-        <v>0.9708012527768348</v>
+        <v>0.9728338915675364</v>
       </c>
       <c r="GE3">
-        <v>0.9709587339632539</v>
+        <v>0.9728338915675364</v>
       </c>
       <c r="GF3">
-        <v>0.9751349685334807</v>
+        <v>0.9769235117408837</v>
       </c>
       <c r="GG3">
-        <v>0.9809187267692314</v>
+        <v>0.9826682496157199</v>
       </c>
       <c r="GH3">
-        <v>0.9855622019585033</v>
+        <v>0.9872389440251867</v>
       </c>
       <c r="GI3">
-        <v>0.9879322980551104</v>
+        <v>0.9894689512900958</v>
       </c>
       <c r="GJ3">
-        <v>0.9897064980274283</v>
+        <v>0.9910854197034706</v>
       </c>
       <c r="GK3">
-        <v>0.9897080508604915</v>
+        <v>0.9910854197034706</v>
       </c>
       <c r="GL3">
-        <v>0.9924746522732605</v>
+        <v>0.9937236716378602</v>
       </c>
       <c r="GM3">
-        <v>0.9928953598604089</v>
+        <v>0.9939465747473026</v>
       </c>
       <c r="GN3">
-        <v>0.9932011361228725</v>
+        <v>0.9940511437544105</v>
       </c>
       <c r="GO3">
-        <v>0.9939179491520904</v>
+        <v>0.9945789191149974</v>
       </c>
       <c r="GP3">
-        <v>0.9970416447794148</v>
+        <v>0.9975848377707459</v>
       </c>
       <c r="GQ3">
-        <v>0.9984091066351537</v>
+        <v>0.9987825257511741</v>
       </c>
       <c r="GR3">
-        <v>0.9987864111505329</v>
+        <v>0.9989607407518659</v>
       </c>
       <c r="GS3">
         <v>0.9999999999999998</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.001046288954790506</v>
+        <v>0.0009773290068827193</v>
       </c>
       <c r="C4">
-        <v>0.001883582368611579</v>
+        <v>0.001742613864293528</v>
       </c>
       <c r="D4">
-        <v>0.002682401574095099</v>
+        <v>0.002468863291830094</v>
       </c>
       <c r="E4">
-        <v>0.00284395142711463</v>
+        <v>0.002548547547684334</v>
       </c>
       <c r="F4">
-        <v>0.002885478102320288</v>
+        <v>0.002548547547684334</v>
       </c>
       <c r="G4">
-        <v>0.003009331616968655</v>
+        <v>0.002589985590384735</v>
       </c>
       <c r="H4">
-        <v>0.003360973741774418</v>
+        <v>0.002862534985395174</v>
       </c>
       <c r="I4">
-        <v>0.003443984978187554</v>
+        <v>0.002862534985395174</v>
       </c>
       <c r="J4">
-        <v>0.003495645940955316</v>
+        <v>0.002862534985395174</v>
       </c>
       <c r="K4">
-        <v>0.003641403174657237</v>
+        <v>0.002926196255708176</v>
       </c>
       <c r="L4">
-        <v>0.00365217183719193</v>
+        <v>0.002926196255708176</v>
       </c>
       <c r="M4">
-        <v>0.003905929726227209</v>
+        <v>0.003099433582028615</v>
       </c>
       <c r="N4">
-        <v>0.004061485739505731</v>
+        <v>0.003173036566272666</v>
       </c>
       <c r="O4">
-        <v>0.004065649367825823</v>
+        <v>0.003173036566272666</v>
       </c>
       <c r="P4">
-        <v>0.004119336585506032</v>
+        <v>0.003173036566272666</v>
       </c>
       <c r="Q4">
-        <v>0.004329641946418868</v>
+        <v>0.003302187524408458</v>
       </c>
       <c r="R4">
-        <v>0.004619166893908675</v>
+        <v>0.003511713641647225</v>
       </c>
       <c r="S4">
-        <v>0.005293102564788335</v>
+        <v>0.004111257864109609</v>
       </c>
       <c r="T4">
-        <v>0.006080509630764966</v>
+        <v>0.004825928683776512</v>
       </c>
       <c r="U4">
-        <v>0.006978858491947871</v>
+        <v>0.005653159601598056</v>
       </c>
       <c r="V4">
-        <v>0.007507238869116885</v>
+        <v>0.006105025321864441</v>
       </c>
       <c r="W4">
-        <v>0.00761407805450043</v>
+        <v>0.006129200848048655</v>
       </c>
       <c r="X4">
-        <v>0.007976795118827651</v>
+        <v>0.006412986732222392</v>
       </c>
       <c r="Y4">
-        <v>0.008642789390050453</v>
+        <v>0.007004473714190344</v>
       </c>
       <c r="Z4">
-        <v>0.008801302913201184</v>
+        <v>0.00708107734936933</v>
       </c>
       <c r="AA4">
-        <v>0.008864954510450837</v>
+        <v>0.00708107734936933</v>
       </c>
       <c r="AB4">
-        <v>0.009007876304275277</v>
+        <v>0.007141861819371614</v>
       </c>
       <c r="AC4">
-        <v>0.009036463135040057</v>
+        <v>0.007141861819371614</v>
       </c>
       <c r="AD4">
-        <v>0.009036502977915336</v>
+        <v>0.007141861819371614</v>
       </c>
       <c r="AE4">
-        <v>0.009168090642229515</v>
+        <v>0.007191146829429158</v>
       </c>
       <c r="AF4">
-        <v>0.00967296032041441</v>
+        <v>0.007619158901208822</v>
       </c>
       <c r="AG4">
-        <v>0.01013680525037196</v>
+        <v>0.008005547798614449</v>
       </c>
       <c r="AH4">
-        <v>0.01065019542818869</v>
+        <v>0.008442204658168662</v>
       </c>
       <c r="AI4">
-        <v>0.01121060470397376</v>
+        <v>0.008926566481146425</v>
       </c>
       <c r="AJ4">
-        <v>0.01187731173516576</v>
+        <v>0.009518776620081009</v>
       </c>
       <c r="AK4">
-        <v>0.01206375090710984</v>
+        <v>0.009623713254229112</v>
       </c>
       <c r="AL4">
-        <v>0.01215947137297382</v>
+        <v>0.009636607872635069</v>
       </c>
       <c r="AM4">
-        <v>0.01222675083006671</v>
+        <v>0.009636607872635069</v>
       </c>
       <c r="AN4">
-        <v>0.01241415802196896</v>
+        <v>0.009742526647204689</v>
       </c>
       <c r="AO4">
-        <v>0.01253906439657184</v>
+        <v>0.009785032907880128</v>
       </c>
       <c r="AP4">
-        <v>0.0125390815076761</v>
+        <v>0.009785032907880128</v>
       </c>
       <c r="AQ4">
-        <v>0.01254086231379915</v>
+        <v>0.009785032907880128</v>
       </c>
       <c r="AR4">
-        <v>0.0125488109654557</v>
+        <v>0.009785032907880128</v>
       </c>
       <c r="AS4">
-        <v>0.01274730775687877</v>
+        <v>0.009902203045457159</v>
       </c>
       <c r="AT4">
-        <v>0.01278957226505255</v>
+        <v>0.009902203045457159</v>
       </c>
       <c r="AU4">
-        <v>0.0127906980903039</v>
+        <v>0.009902203045457159</v>
       </c>
       <c r="AV4">
-        <v>0.01285969776732247</v>
+        <v>0.009902203045457159</v>
       </c>
       <c r="AW4">
-        <v>0.01324848802052309</v>
+        <v>0.010212442446931</v>
       </c>
       <c r="AX4">
-        <v>0.01339591116415302</v>
+        <v>0.01027779392772478</v>
       </c>
       <c r="AY4">
-        <v>0.01357369743647099</v>
+        <v>0.01037395144279133</v>
       </c>
       <c r="AZ4">
-        <v>0.01404664964603502</v>
+        <v>0.0107695804672791</v>
       </c>
       <c r="BA4">
-        <v>0.01444905254864744</v>
+        <v>0.01109363108526597</v>
       </c>
       <c r="BB4">
-        <v>0.01466141649947133</v>
+        <v>0.01122487066187072</v>
       </c>
       <c r="BC4">
-        <v>0.01502278634385676</v>
+        <v>0.01150728967426632</v>
       </c>
       <c r="BD4">
-        <v>0.01533066455055354</v>
+        <v>0.01173543676887392</v>
       </c>
       <c r="BE4">
-        <v>0.01533747107265943</v>
+        <v>0.01173543676887392</v>
       </c>
       <c r="BF4">
-        <v>0.01548695599620028</v>
+        <v>0.01180288010466892</v>
       </c>
       <c r="BG4">
-        <v>0.01550257581052536</v>
+        <v>0.01180288010466892</v>
       </c>
       <c r="BH4">
-        <v>0.01552643353449448</v>
+        <v>0.01180288010466892</v>
       </c>
       <c r="BI4">
-        <v>0.01553578094109059</v>
+        <v>0.01180288010466892</v>
       </c>
       <c r="BJ4">
-        <v>0.0155357875998145</v>
+        <v>0.01180288010466892</v>
       </c>
       <c r="BK4">
-        <v>0.01555424677101689</v>
+        <v>0.01180288010466892</v>
       </c>
       <c r="BL4">
-        <v>0.01584949009825961</v>
+        <v>0.01201820801540739</v>
       </c>
       <c r="BM4">
-        <v>0.01598544513238508</v>
+        <v>0.0120719241019021</v>
       </c>
       <c r="BN4">
-        <v>0.01598692003722135</v>
+        <v>0.0120719241019021</v>
       </c>
       <c r="BO4">
-        <v>0.01606443460387199</v>
+        <v>0.0120719241019021</v>
       </c>
       <c r="BP4">
-        <v>0.01646597151652183</v>
+        <v>0.01239509609776998</v>
       </c>
       <c r="BQ4">
-        <v>0.01694261095592654</v>
+        <v>0.01279446613755332</v>
       </c>
       <c r="BR4">
-        <v>0.01739684850629921</v>
+        <v>0.01317110751296265</v>
       </c>
       <c r="BS4">
-        <v>0.01798439668091162</v>
+        <v>0.01368300410865736</v>
       </c>
       <c r="BT4">
-        <v>0.01860500568409549</v>
+        <v>0.01422844378973444</v>
       </c>
       <c r="BU4">
-        <v>0.0187121304834667</v>
+        <v>0.01425290909614463</v>
       </c>
       <c r="BV4">
-        <v>0.0187124659925222</v>
+        <v>0.01425290909614463</v>
       </c>
       <c r="BW4">
-        <v>0.01872426502101237</v>
+        <v>0.01425290909614463</v>
       </c>
       <c r="BX4">
-        <v>0.01873249356465682</v>
+        <v>0.01425290909614463</v>
       </c>
       <c r="BY4">
-        <v>0.01881185376122772</v>
+        <v>0.01425290909614463</v>
       </c>
       <c r="BZ4">
-        <v>0.01915637592634113</v>
+        <v>0.01451823467293275</v>
       </c>
       <c r="CA4">
-        <v>0.01942346301480046</v>
+        <v>0.01470499563110631</v>
       </c>
       <c r="CB4">
-        <v>0.01973507955133571</v>
+        <v>0.01493693558640063</v>
       </c>
       <c r="CC4">
-        <v>0.01993158627284478</v>
+        <v>0.01505208662500384</v>
       </c>
       <c r="CD4">
-        <v>0.02026783541831566</v>
+        <v>0.01530901850398612</v>
       </c>
       <c r="CE4">
-        <v>0.02037152680383522</v>
+        <v>0.01533000031349212</v>
       </c>
       <c r="CF4">
-        <v>0.02041835800481167</v>
+        <v>0.01533000031349212</v>
       </c>
       <c r="CG4">
-        <v>0.02056292945856483</v>
+        <v>0.01539245850693789</v>
       </c>
       <c r="CH4">
-        <v>0.02073478690113898</v>
+        <v>0.01548260070868932</v>
       </c>
       <c r="CI4">
-        <v>0.02077613581935232</v>
+        <v>0.01548260070868932</v>
       </c>
       <c r="CJ4">
-        <v>0.02078175704930943</v>
+        <v>0.01548260070868932</v>
       </c>
       <c r="CK4">
-        <v>0.02089179109455492</v>
+        <v>0.01551001769801178</v>
       </c>
       <c r="CL4">
-        <v>0.02104823143779523</v>
+        <v>0.01558451791189877</v>
       </c>
       <c r="CM4">
-        <v>0.02123850240957375</v>
+        <v>0.01569334224017217</v>
       </c>
       <c r="CN4">
-        <v>0.06274768061598801</v>
+        <v>0.05772379083390564</v>
       </c>
       <c r="CO4">
-        <v>0.06556516779424615</v>
+        <v>0.06049815445262385</v>
       </c>
       <c r="CP4">
-        <v>0.139544020597666</v>
+        <v>0.1354719113179857</v>
       </c>
       <c r="CQ4">
-        <v>0.1535388639929575</v>
+        <v>0.149586674743282</v>
       </c>
       <c r="CR4">
-        <v>0.1568037758518827</v>
+        <v>0.1528149896062455</v>
       </c>
       <c r="CS4">
-        <v>0.1584458234809309</v>
+        <v>0.1543967675922188</v>
       </c>
       <c r="CT4">
-        <v>0.1603738196976234</v>
+        <v>0.15626866528495</v>
       </c>
       <c r="CU4">
-        <v>0.2098017475618734</v>
+        <v>0.2063333739795837</v>
       </c>
       <c r="CV4">
-        <v>0.2147980413459867</v>
+        <v>0.2113183263575611</v>
       </c>
       <c r="CW4">
-        <v>0.2433813191109211</v>
+        <v>0.2402343249847612</v>
       </c>
       <c r="CX4">
-        <v>0.2849530313146333</v>
+        <v>0.2823282197563826</v>
       </c>
       <c r="CY4">
-        <v>0.3710428275947468</v>
+        <v>0.3695895818831099</v>
       </c>
       <c r="CZ4">
-        <v>0.3731566257034109</v>
+        <v>0.3716499917516063</v>
       </c>
       <c r="DA4">
-        <v>0.3830928272740738</v>
+        <v>0.3816469101275655</v>
       </c>
       <c r="DB4">
-        <v>0.3962576437052303</v>
+        <v>0.3949195390229461</v>
       </c>
       <c r="DC4">
-        <v>0.4515361063166824</v>
+        <v>0.4509201239504979</v>
       </c>
       <c r="DD4">
-        <v>0.5384159425626588</v>
+        <v>0.5389830503203336</v>
       </c>
       <c r="DE4">
-        <v>0.5427317526761753</v>
+        <v>0.5432775928431921</v>
       </c>
       <c r="DF4">
-        <v>0.5630124717998581</v>
+        <v>0.5637699237817961</v>
       </c>
       <c r="DG4">
-        <v>0.5813197640088115</v>
+        <v>0.582260041516531</v>
       </c>
       <c r="DH4">
-        <v>0.5896964596468597</v>
+        <v>0.5906747055173787</v>
       </c>
       <c r="DI4">
-        <v>0.5964074483568821</v>
+        <v>0.5973993649985875</v>
       </c>
       <c r="DJ4">
-        <v>0.5973751143150698</v>
+        <v>0.5982969241387724</v>
       </c>
       <c r="DK4">
-        <v>0.6083606158403931</v>
+        <v>0.6093584485603669</v>
       </c>
       <c r="DL4">
-        <v>0.6226050522248999</v>
+        <v>0.623726445776522</v>
       </c>
       <c r="DM4">
-        <v>0.6273282563208132</v>
+        <v>0.6284343249193706</v>
       </c>
       <c r="DN4">
-        <v>0.6274353811201845</v>
+        <v>0.6284587902257808</v>
       </c>
       <c r="DO4">
-        <v>0.6302842741970855</v>
+        <v>0.6312650178595649</v>
       </c>
       <c r="DP4">
-        <v>0.6393780878041475</v>
+        <v>0.6404072603968024</v>
       </c>
       <c r="DQ4">
-        <v>0.6405990673513897</v>
+        <v>0.641561828199907</v>
       </c>
       <c r="DR4">
-        <v>0.6409551491360036</v>
+        <v>0.6418388820158425</v>
       </c>
       <c r="DS4">
-        <v>0.642776039857324</v>
+        <v>0.6436021118701855</v>
       </c>
       <c r="DT4">
-        <v>0.6434043158301765</v>
+        <v>0.644155330358671</v>
       </c>
       <c r="DU4">
-        <v>0.6434062520057929</v>
+        <v>0.644155330358671</v>
       </c>
       <c r="DV4">
-        <v>0.6448081729452168</v>
+        <v>0.6454934789378604</v>
       </c>
       <c r="DW4">
-        <v>0.6453815061604434</v>
+        <v>0.6459909532211997</v>
       </c>
       <c r="DX4">
-        <v>0.6584166625972024</v>
+        <v>0.6591320307777095</v>
       </c>
       <c r="DY4">
-        <v>0.6634249249807985</v>
+        <v>0.6641291263405891</v>
       </c>
       <c r="DZ4">
-        <v>0.6635286163663181</v>
+        <v>0.6641501081500951</v>
       </c>
       <c r="EA4">
-        <v>0.6698262920941994</v>
+        <v>0.6704554256713881</v>
       </c>
       <c r="EB4">
-        <v>0.6837653514919013</v>
+        <v>0.6845135913804451</v>
       </c>
       <c r="EC4">
-        <v>0.6943222230357454</v>
+        <v>0.6951402334144091</v>
       </c>
       <c r="ED4">
-        <v>0.696881376725166</v>
+        <v>0.6976524952453734</v>
       </c>
       <c r="EE4">
-        <v>0.6982385922665216</v>
+        <v>0.698945286310875</v>
       </c>
       <c r="EF4">
-        <v>0.6982433538443159</v>
+        <v>0.698945286310875</v>
       </c>
       <c r="EG4">
-        <v>0.69842979301626</v>
+        <v>0.6990502229450232</v>
       </c>
       <c r="EH4">
-        <v>0.6992306146216569</v>
+        <v>0.6997785039813902</v>
       </c>
       <c r="EI4">
-        <v>0.6992454216620171</v>
+        <v>0.6997785039813902</v>
       </c>
       <c r="EJ4">
-        <v>0.699252228184123</v>
+        <v>0.6997785039813902</v>
       </c>
       <c r="EK4">
-        <v>0.6994350851462219</v>
+        <v>0.6998798061521601</v>
       </c>
       <c r="EL4">
-        <v>0.700976552779616</v>
+        <v>0.7013595369866324</v>
       </c>
       <c r="EM4">
-        <v>0.7123391822886439</v>
+        <v>0.7128036905407709</v>
       </c>
       <c r="EN4">
-        <v>0.7180735065408673</v>
+        <v>0.718537439003913</v>
       </c>
       <c r="EO4">
-        <v>0.72409551628066</v>
+        <v>0.7245630694098184</v>
       </c>
       <c r="EP4">
-        <v>0.7274500394357132</v>
+        <v>0.727882302724833</v>
       </c>
       <c r="EQ4">
-        <v>0.7278047863903848</v>
+        <v>0.728158002239722</v>
       </c>
       <c r="ER4">
-        <v>0.729281012226598</v>
+        <v>0.7295715395978691</v>
       </c>
       <c r="ES4">
-        <v>0.7293014301437157</v>
+        <v>0.7295715395978691</v>
       </c>
       <c r="ET4">
-        <v>0.730427035995079</v>
+        <v>0.7306293424933071</v>
       </c>
       <c r="EU4">
-        <v>0.7321692345197996</v>
+        <v>0.732312732271538</v>
       </c>
       <c r="EV4">
-        <v>0.7324030965496946</v>
+        <v>0.7324657835187208</v>
       </c>
       <c r="EW4">
-        <v>0.7335660886994424</v>
+        <v>0.7335615180647868</v>
       </c>
       <c r="EX4">
-        <v>0.7352359882272871</v>
+        <v>0.7351715542239445</v>
       </c>
       <c r="EY4">
-        <v>0.7400471865193982</v>
+        <v>0.7399687111303506</v>
       </c>
       <c r="EZ4">
-        <v>0.7792001568276227</v>
+        <v>0.7796085819278634</v>
       </c>
       <c r="FA4">
-        <v>0.8328866045078647</v>
+        <v>0.8339939292744164</v>
       </c>
       <c r="FB4">
-        <v>0.8368336206373166</v>
+        <v>0.8379142982320467</v>
       </c>
       <c r="FC4">
-        <v>0.846065240738424</v>
+        <v>0.8471963574404248</v>
       </c>
       <c r="FD4">
-        <v>0.8463016976982068</v>
+        <v>0.8473520414696204</v>
       </c>
       <c r="FE4">
-        <v>0.8484327076061272</v>
+        <v>0.8494299142051104</v>
       </c>
       <c r="FF4">
-        <v>0.8526513910238406</v>
+        <v>0.8536259132494474</v>
       </c>
       <c r="FG4">
-        <v>0.8747911960671934</v>
+        <v>0.8760044485099383</v>
       </c>
       <c r="FH4">
-        <v>0.8799322758450505</v>
+        <v>0.8811362988684012</v>
       </c>
       <c r="FI4">
-        <v>0.8801651175549896</v>
+        <v>0.881288314912267</v>
       </c>
       <c r="FJ4">
-        <v>0.8815566039948644</v>
+        <v>0.8826158767843343</v>
       </c>
       <c r="FK4">
-        <v>0.8916819025573565</v>
+        <v>0.8928046505013889</v>
       </c>
       <c r="FL4">
-        <v>0.914794373558681</v>
+        <v>0.9161700399541832</v>
       </c>
       <c r="FM4">
-        <v>0.9243531121456539</v>
+        <v>0.9257839893109833</v>
       </c>
       <c r="FN4">
-        <v>0.9245986662750436</v>
+        <v>0.9259489032097873</v>
       </c>
       <c r="FO4">
-        <v>0.926256051503429</v>
+        <v>0.9275462425239657</v>
       </c>
       <c r="FP4">
-        <v>0.9292423983743908</v>
+        <v>0.9304919289840868</v>
       </c>
       <c r="FQ4">
-        <v>0.949264575509245</v>
+        <v>0.9507219465935661</v>
       </c>
       <c r="FR4">
-        <v>0.9613058159889505</v>
+        <v>0.9628546099859153</v>
       </c>
       <c r="FS4">
-        <v>0.9613929630911849</v>
+        <v>0.9628588061814243</v>
       </c>
       <c r="FT4">
-        <v>0.9619606590666552</v>
+        <v>0.9633505609948458</v>
       </c>
       <c r="FU4">
-        <v>0.9657259553039591</v>
+        <v>0.9670865593204812</v>
       </c>
       <c r="FV4">
-        <v>0.9701006194149326</v>
+        <v>0.9714408143413954</v>
       </c>
       <c r="FW4">
-        <v>0.9703109247758455</v>
+        <v>0.9715699652995312</v>
       </c>
       <c r="FX4">
-        <v>0.9707086071786618</v>
+        <v>0.9718892265600051</v>
       </c>
       <c r="FY4">
-        <v>0.9744796986157153</v>
+        <v>0.9756311046197067</v>
       </c>
       <c r="FZ4">
-        <v>0.974725252745105</v>
+        <v>0.9757960185185107</v>
       </c>
       <c r="GA4">
-        <v>0.9765693805654214</v>
+        <v>0.9775828244303615</v>
       </c>
       <c r="GB4">
-        <v>0.9810447883720418</v>
+        <v>0.982039292690654</v>
       </c>
       <c r="GC4">
-        <v>0.9830907784836358</v>
+        <v>0.9840309054498944</v>
       </c>
       <c r="GD4">
-        <v>0.9833778989312295</v>
+        <v>0.9842379919929058</v>
       </c>
       <c r="GE4">
-        <v>0.9833817322760638</v>
+        <v>0.9842379919929058</v>
       </c>
       <c r="GF4">
-        <v>0.9847653066162805</v>
+        <v>0.9855575263518752</v>
       </c>
       <c r="GG4">
-        <v>0.9876432466919265</v>
+        <v>0.988393224691661</v>
       </c>
       <c r="GH4">
-        <v>0.9904369819712109</v>
+        <v>0.9911434899435296</v>
       </c>
       <c r="GI4">
-        <v>0.9912080308378943</v>
+        <v>0.9918415639475903</v>
       </c>
       <c r="GJ4">
-        <v>0.9917316316552699</v>
+        <v>0.9922885803888407</v>
       </c>
       <c r="GK4">
-        <v>0.9919057146277479</v>
+        <v>0.9923809805842</v>
       </c>
       <c r="GL4">
-        <v>0.9941807125294466</v>
+        <v>0.9946049416598205</v>
       </c>
       <c r="GM4">
-        <v>0.9956083773677581</v>
+        <v>0.9959692096629861</v>
       </c>
       <c r="GN4">
-        <v>0.9958190833386537</v>
+        <v>0.9960987670747843</v>
       </c>
       <c r="GO4">
-        <v>0.9962111379917132</v>
+        <v>0.9964123184937701</v>
       </c>
       <c r="GP4">
-        <v>0.9990547806688412</v>
+        <v>0.999213219140437</v>
       </c>
       <c r="GQ4">
-        <v>0.9999132610317468</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9999310003229803</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.000233245809522218</v>
+        <v>0.0002312872188678193</v>
       </c>
       <c r="C5">
-        <v>0.000242316717114738</v>
+        <v>0.0002383100634806221</v>
       </c>
       <c r="D5">
-        <v>0.0002434731490627892</v>
+        <v>0.0002383100634806221</v>
       </c>
       <c r="E5">
-        <v>0.0002435761162981638</v>
+        <v>0.0002383100634806221</v>
       </c>
       <c r="F5">
-        <v>0.0002672606982342137</v>
+        <v>0.0002599524150230905</v>
       </c>
       <c r="G5">
-        <v>0.0002693115630420856</v>
+        <v>0.0002599524150230905</v>
       </c>
       <c r="H5">
-        <v>0.0002701809065030332</v>
+        <v>0.0002599524150230905</v>
       </c>
       <c r="I5">
-        <v>0.000297355148282322</v>
+        <v>0.0002850858191962064</v>
       </c>
       <c r="J5">
-        <v>0.0003190944373057577</v>
+        <v>0.0003047821014238905</v>
       </c>
       <c r="K5">
-        <v>0.0004920750995351844</v>
+        <v>0.000475780120070524</v>
       </c>
       <c r="L5">
-        <v>0.00105814993410618</v>
+        <v>0.001040029202170826</v>
       </c>
       <c r="M5">
-        <v>0.001517303013480275</v>
+        <v>0.001497313854635732</v>
       </c>
       <c r="N5">
-        <v>0.00166500880684509</v>
+        <v>0.001643026916752855</v>
       </c>
       <c r="O5">
-        <v>0.001900116766283657</v>
+        <v>0.001876177028755295</v>
       </c>
       <c r="P5">
-        <v>0.002288422008840353</v>
+        <v>0.002262585567728432</v>
       </c>
       <c r="Q5">
-        <v>0.002540710177507157</v>
+        <v>0.002512922745896508</v>
       </c>
       <c r="R5">
-        <v>0.002824693064750183</v>
+        <v>0.002794967292585768</v>
       </c>
       <c r="S5">
-        <v>0.002975636857969542</v>
+        <v>0.002943919646902715</v>
       </c>
       <c r="T5">
-        <v>0.002979249121807273</v>
+        <v>0.002945481669115637</v>
       </c>
       <c r="U5">
-        <v>0.002987598301432214</v>
+        <v>0.002951782497705958</v>
       </c>
       <c r="V5">
-        <v>0.003015524660177717</v>
+        <v>0.002977668319028999</v>
       </c>
       <c r="W5">
-        <v>0.003036419816239073</v>
+        <v>0.002996520131385616</v>
       </c>
       <c r="X5">
-        <v>0.003036965558914557</v>
+        <v>0.002996520131385616</v>
       </c>
       <c r="Y5">
-        <v>0.003120078171181003</v>
+        <v>0.003077614232078103</v>
       </c>
       <c r="Z5">
-        <v>0.003414469917956446</v>
+        <v>0.00337007179266701</v>
       </c>
       <c r="AA5">
-        <v>0.00368488922580877</v>
+        <v>0.003638547346491637</v>
       </c>
       <c r="AB5">
-        <v>0.003720134904225477</v>
+        <v>0.003671755408760944</v>
       </c>
       <c r="AC5">
-        <v>0.003796870800778375</v>
+        <v>0.003746470248675392</v>
       </c>
       <c r="AD5">
-        <v>0.004114071016529225</v>
+        <v>0.004061745381519059</v>
       </c>
       <c r="AE5">
-        <v>0.004684046750924985</v>
+        <v>0.004629896920364973</v>
       </c>
       <c r="AF5">
-        <v>0.004848040393558123</v>
+        <v>0.00479190433253055</v>
       </c>
       <c r="AG5">
-        <v>0.004926933926014098</v>
+        <v>0.004868777669500236</v>
       </c>
       <c r="AH5">
-        <v>0.00499266767306123</v>
+        <v>0.004932485968748752</v>
       </c>
       <c r="AI5">
-        <v>0.005027071356515761</v>
+        <v>0.004964851700000212</v>
       </c>
       <c r="AJ5">
-        <v>0.005030493645562026</v>
+        <v>0.004966223671599235</v>
       </c>
       <c r="AK5">
-        <v>0.005046660245835796</v>
+        <v>0.004980345040914707</v>
       </c>
       <c r="AL5">
-        <v>0.005158470186813111</v>
+        <v>0.005090147923949616</v>
       </c>
       <c r="AM5">
-        <v>0.005212244064397501</v>
+        <v>0.005141891580331577</v>
       </c>
       <c r="AN5">
-        <v>0.005212347227942867</v>
+        <v>0.005141891580331577</v>
       </c>
       <c r="AO5">
-        <v>0.005221788337518757</v>
+        <v>0.005149284774682169</v>
       </c>
       <c r="AP5">
-        <v>0.005322665228987202</v>
+        <v>0.005248150244627121</v>
       </c>
       <c r="AQ5">
-        <v>0.005550639668746219</v>
+        <v>0.00547416398983114</v>
       </c>
       <c r="AR5">
-        <v>0.005930158581697611</v>
+        <v>0.005851782692413272</v>
       </c>
       <c r="AS5">
-        <v>0.006268002966521091</v>
+        <v>0.006187710233797035</v>
       </c>
       <c r="AT5">
-        <v>0.00648443232679873</v>
+        <v>0.006402174291666175</v>
       </c>
       <c r="AU5">
-        <v>0.007099537039167224</v>
+        <v>0.007015472820289728</v>
       </c>
       <c r="AV5">
-        <v>0.007943511301254523</v>
+        <v>0.007857732244677661</v>
       </c>
       <c r="AW5">
-        <v>0.008604431271564921</v>
+        <v>0.008516864316954979</v>
       </c>
       <c r="AX5">
-        <v>0.0089245314271855</v>
+        <v>0.008835040547087699</v>
       </c>
       <c r="AY5">
-        <v>0.009144876667287232</v>
+        <v>0.009053422047680572</v>
       </c>
       <c r="AZ5">
-        <v>0.009305486720072366</v>
+        <v>0.009212044519545222</v>
       </c>
       <c r="BA5">
-        <v>0.009429685494493155</v>
+        <v>0.009334241180634828</v>
       </c>
       <c r="BB5">
-        <v>0.009483305522084456</v>
+        <v>0.009385830925619339</v>
       </c>
       <c r="BC5">
-        <v>0.009483372984351425</v>
+        <v>0.009385830925619339</v>
       </c>
       <c r="BD5">
-        <v>0.009611470448597078</v>
+        <v>0.009511927832572606</v>
       </c>
       <c r="BE5">
-        <v>0.009809715739691577</v>
+        <v>0.009708200563662239</v>
       </c>
       <c r="BF5">
-        <v>0.009880329406519495</v>
+        <v>0.009776790730357253</v>
       </c>
       <c r="BG5">
-        <v>0.009895211288850977</v>
+        <v>0.009789626868975883</v>
       </c>
       <c r="BH5">
-        <v>0.01032727266944207</v>
+        <v>0.01021980900986267</v>
       </c>
       <c r="BI5">
-        <v>0.01101573863851506</v>
+        <v>0.01090649807501718</v>
       </c>
       <c r="BJ5">
-        <v>0.01163440231072368</v>
+        <v>0.01152335698392717</v>
       </c>
       <c r="BK5">
-        <v>0.01264844646517116</v>
+        <v>0.01253575417869644</v>
       </c>
       <c r="BL5">
-        <v>0.01341213393086508</v>
+        <v>0.01329769476275429</v>
       </c>
       <c r="BM5">
-        <v>0.0137598010552473</v>
+        <v>0.01364344896413277</v>
       </c>
       <c r="BN5">
-        <v>0.01418679313606612</v>
+        <v>0.01406855978199653</v>
       </c>
       <c r="BO5">
-        <v>0.01503850074780603</v>
+        <v>0.01491855564255911</v>
       </c>
       <c r="BP5">
-        <v>0.01530027525604669</v>
+        <v>0.01517838294647359</v>
       </c>
       <c r="BQ5">
-        <v>0.01540342291141313</v>
+        <v>0.01527952008662016</v>
       </c>
       <c r="BR5">
-        <v>0.01544630324948688</v>
+        <v>0.01532036585567956</v>
       </c>
       <c r="BS5">
-        <v>0.01545231038821702</v>
+        <v>0.0153243237086235</v>
       </c>
       <c r="BT5">
-        <v>0.01552993627472994</v>
+        <v>0.01539992889370933</v>
       </c>
       <c r="BU5">
-        <v>0.01572049992616951</v>
+        <v>0.0155885169192604</v>
       </c>
       <c r="BV5">
-        <v>0.01590575480784756</v>
+        <v>0.01577179405622233</v>
       </c>
       <c r="BW5">
-        <v>0.01610456586891664</v>
+        <v>0.01596863278309575</v>
       </c>
       <c r="BX5">
-        <v>0.01649811029123799</v>
+        <v>0.01636028259288651</v>
       </c>
       <c r="BY5">
-        <v>0.01703074636731111</v>
+        <v>0.01689107957046557</v>
       </c>
       <c r="BZ5">
-        <v>0.01772348163619231</v>
+        <v>0.01758203963938435</v>
       </c>
       <c r="CA5">
-        <v>0.01816618741630524</v>
+        <v>0.01802287042816854</v>
       </c>
       <c r="CB5">
-        <v>0.01865777839422218</v>
+        <v>0.01851260592573804</v>
       </c>
       <c r="CC5">
-        <v>0.01926985363672676</v>
+        <v>0.01912287377538055</v>
       </c>
       <c r="CD5">
-        <v>0.01999899984397232</v>
+        <v>0.01985025931493869</v>
       </c>
       <c r="CE5">
-        <v>0.02034173232857622</v>
+        <v>0.02019107690703337</v>
       </c>
       <c r="CF5">
-        <v>0.020817632727198</v>
+        <v>0.02066511556290901</v>
       </c>
       <c r="CG5">
-        <v>0.02146863375795397</v>
+        <v>0.02131432473680075</v>
       </c>
       <c r="CH5">
-        <v>0.02177968168398119</v>
+        <v>0.02162344512442883</v>
       </c>
       <c r="CI5">
-        <v>0.02185063319079393</v>
+        <v>0.02169237326594682</v>
       </c>
       <c r="CJ5">
-        <v>0.0218702415479131</v>
+        <v>0.02170993776577613</v>
       </c>
       <c r="CK5">
-        <v>0.02190572602031908</v>
+        <v>0.02174338471734178</v>
       </c>
       <c r="CL5">
-        <v>0.02195340527817725</v>
+        <v>0.02178903132152272</v>
       </c>
       <c r="CM5">
-        <v>0.02331796151687916</v>
+        <v>0.0231520804963642</v>
       </c>
       <c r="CN5">
-        <v>0.0815353489016592</v>
+        <v>0.08139065182756103</v>
       </c>
       <c r="CO5">
-        <v>0.08228446091800787</v>
+        <v>0.0821380111449438</v>
       </c>
       <c r="CP5">
-        <v>0.1935729959187454</v>
+        <v>0.1934689117629438</v>
       </c>
       <c r="CQ5">
-        <v>0.2190343687749791</v>
+        <v>0.218938395037903</v>
       </c>
       <c r="CR5">
-        <v>0.221489244664702</v>
+        <v>0.2213921990303863</v>
       </c>
       <c r="CS5">
-        <v>0.2272087669077718</v>
+        <v>0.2271119523566038</v>
       </c>
       <c r="CT5">
-        <v>0.2272177746923671</v>
+        <v>0.2271189120530258</v>
       </c>
       <c r="CU5">
-        <v>0.2406966090868759</v>
+        <v>0.2406010744148344</v>
       </c>
       <c r="CV5">
-        <v>0.2671596568981127</v>
+        <v>0.2670726324316893</v>
       </c>
       <c r="CW5">
-        <v>0.2833466221709678</v>
+        <v>0.2832640065366728</v>
       </c>
       <c r="CX5">
-        <v>0.3317208499979186</v>
+        <v>0.3316554897240723</v>
       </c>
       <c r="CY5">
-        <v>0.3863938035419204</v>
+        <v>0.3863482125657726</v>
       </c>
       <c r="CZ5">
-        <v>0.3865567469146007</v>
+        <v>0.3865091692888033</v>
       </c>
       <c r="DA5">
-        <v>0.3961483659837295</v>
+        <v>0.3961025648661203</v>
       </c>
       <c r="DB5">
-        <v>0.3976875727145859</v>
+        <v>0.397640334239339</v>
       </c>
       <c r="DC5">
-        <v>0.460701799883884</v>
+        <v>0.4606776598620126</v>
       </c>
       <c r="DD5">
-        <v>0.5181448613034481</v>
+        <v>0.518141596180263</v>
       </c>
       <c r="DE5">
-        <v>0.5321180076757516</v>
+        <v>0.5321182678088656</v>
       </c>
       <c r="DF5">
-        <v>0.5512212098176046</v>
+        <v>0.5512270427066029</v>
       </c>
       <c r="DG5">
-        <v>0.5610317163769006</v>
+        <v>0.5610394131361093</v>
       </c>
       <c r="DH5">
-        <v>0.5663857597363883</v>
+        <v>0.566393541709402</v>
       </c>
       <c r="DI5">
-        <v>0.5833971949722069</v>
+        <v>0.5834097148384709</v>
       </c>
       <c r="DJ5">
-        <v>0.5877177717781196</v>
+        <v>0.5877299643826845</v>
       </c>
       <c r="DK5">
-        <v>0.5941978841870224</v>
+        <v>0.5942106114402554</v>
       </c>
       <c r="DL5">
-        <v>0.6074153885932705</v>
+        <v>0.6074313395121999</v>
       </c>
       <c r="DM5">
-        <v>0.6077827091767698</v>
+        <v>0.6077967550167523</v>
       </c>
       <c r="DN5">
-        <v>0.6128353209497982</v>
+        <v>0.6128493316966973</v>
       </c>
       <c r="DO5">
-        <v>0.6187616582835774</v>
+        <v>0.6187759826573298</v>
       </c>
       <c r="DP5">
-        <v>0.6286591118389677</v>
+        <v>0.6286753347850752</v>
       </c>
       <c r="DQ5">
-        <v>0.6305926357521107</v>
+        <v>0.6306075787198183</v>
       </c>
       <c r="DR5">
-        <v>0.6308327709913234</v>
+        <v>0.6308457581180748</v>
       </c>
       <c r="DS5">
-        <v>0.6326506629096608</v>
+        <v>0.6326623239071569</v>
       </c>
       <c r="DT5">
-        <v>0.634487724827137</v>
+        <v>0.6344980673464772</v>
       </c>
       <c r="DU5">
-        <v>0.6347518129752737</v>
+        <v>0.6347602092137039</v>
       </c>
       <c r="DV5">
-        <v>0.6373971123564426</v>
+        <v>0.6374045126991498</v>
       </c>
       <c r="DW5">
-        <v>0.6381246082637623</v>
+        <v>0.638130247280117</v>
       </c>
       <c r="DX5">
-        <v>0.6533812865784074</v>
+        <v>0.6533909631322601</v>
       </c>
       <c r="DY5">
-        <v>0.6554008957876833</v>
+        <v>0.6554093267213607</v>
       </c>
       <c r="DZ5">
-        <v>0.660289727568069</v>
+        <v>0.6602980580410563</v>
       </c>
       <c r="EA5">
-        <v>0.6714542710665395</v>
+        <v>0.6714650058307765</v>
       </c>
       <c r="EB5">
-        <v>0.6955869149824618</v>
+        <v>0.6956052298452727</v>
       </c>
       <c r="EC5">
-        <v>0.7083467964092671</v>
+        <v>0.7083681522920288</v>
       </c>
       <c r="ED5">
-        <v>0.710992095790436</v>
+        <v>0.7110124557774746</v>
       </c>
       <c r="EE5">
-        <v>0.7139258178586484</v>
+        <v>0.7139452970647618</v>
       </c>
       <c r="EF5">
-        <v>0.714500181732847</v>
+        <v>0.7145178384947979</v>
       </c>
       <c r="EG5">
-        <v>0.7145284321755779</v>
+        <v>0.7145440485294542</v>
       </c>
       <c r="EH5">
-        <v>0.7151562401473758</v>
+        <v>0.7151700553876115</v>
       </c>
       <c r="EI5">
-        <v>0.7153986010764886</v>
+        <v>0.7154104613640817</v>
       </c>
       <c r="EJ5">
-        <v>0.7153988982127452</v>
+        <v>0.7154104613640817</v>
       </c>
       <c r="EK5">
-        <v>0.7154267137314957</v>
+        <v>0.7154362363011715</v>
       </c>
       <c r="EL5">
-        <v>0.7184192078970679</v>
+        <v>0.7184278731428433</v>
       </c>
       <c r="EM5">
-        <v>0.7292353864111876</v>
+        <v>0.7292463169093418</v>
       </c>
       <c r="EN5">
-        <v>0.7385988069905675</v>
+        <v>0.7386114229186967</v>
       </c>
       <c r="EO5">
-        <v>0.7453624902867317</v>
+        <v>0.7453757540418843</v>
       </c>
       <c r="EP5">
-        <v>0.7479639097698717</v>
+        <v>0.7479761601160272</v>
       </c>
       <c r="EQ5">
-        <v>0.7480851729944243</v>
+        <v>0.7480954200556167</v>
       </c>
       <c r="ER5">
-        <v>0.7482915356351542</v>
+        <v>0.7482998133761252</v>
       </c>
       <c r="ES5">
-        <v>0.7487533130844104</v>
+        <v>0.7487597234459065</v>
       </c>
       <c r="ET5">
-        <v>0.7518209814466057</v>
+        <v>0.7518265644876054</v>
       </c>
       <c r="EU5">
-        <v>0.7542306208383608</v>
+        <v>0.7542351139274026</v>
       </c>
       <c r="EV5">
-        <v>0.7543084318148654</v>
+        <v>0.7543109042763529</v>
       </c>
       <c r="EW5">
-        <v>0.7545662637732832</v>
+        <v>0.7545667874569004</v>
       </c>
       <c r="EX5">
-        <v>0.755345804838265</v>
+        <v>0.7553445879677091</v>
       </c>
       <c r="EY5">
-        <v>0.7614907135622256</v>
+        <v>0.7614898975543837</v>
       </c>
       <c r="EZ5">
-        <v>0.8056441315787821</v>
+        <v>0.8056588863285845</v>
       </c>
       <c r="FA5">
-        <v>0.8484713296549146</v>
+        <v>0.8485011258435975</v>
       </c>
       <c r="FB5">
-        <v>0.848980717792032</v>
+        <v>0.8490086656035409</v>
       </c>
       <c r="FC5">
-        <v>0.8594290973226737</v>
+        <v>0.8594591635912245</v>
       </c>
       <c r="FD5">
-        <v>0.8598398206842234</v>
+        <v>0.8598679991966741</v>
       </c>
       <c r="FE5">
-        <v>0.8628726250479849</v>
+        <v>0.8628999623250764</v>
       </c>
       <c r="FF5">
-        <v>0.8686740937873735</v>
+        <v>0.8687016948539661</v>
       </c>
       <c r="FG5">
-        <v>0.8866205539811892</v>
+        <v>0.8866532661266854</v>
       </c>
       <c r="FH5">
-        <v>0.8887020034876871</v>
+        <v>0.8887334946946077</v>
       </c>
       <c r="FI5">
-        <v>0.8888212549873301</v>
+        <v>0.8888507421063713</v>
       </c>
       <c r="FJ5">
-        <v>0.8893389438340746</v>
+        <v>0.8893665858889077</v>
       </c>
       <c r="FK5">
-        <v>0.8977066709581827</v>
+        <v>0.8977356010434248</v>
       </c>
       <c r="FL5">
-        <v>0.9168014221004154</v>
+        <v>0.9168359215685924</v>
       </c>
       <c r="FM5">
-        <v>0.9234998853995094</v>
+        <v>0.9235350066642097</v>
       </c>
       <c r="FN5">
-        <v>0.9248263109399243</v>
+        <v>0.9248599099221013</v>
       </c>
       <c r="FO5">
-        <v>0.9281627026900481</v>
+        <v>0.9281955816041739</v>
       </c>
       <c r="FP5">
-        <v>0.9335915794461741</v>
+        <v>0.9336245734414896</v>
       </c>
       <c r="FQ5">
-        <v>0.9518562726256943</v>
+        <v>0.9518945047125494</v>
       </c>
       <c r="FR5">
-        <v>0.9584832433279999</v>
+        <v>0.9585220686773684</v>
       </c>
       <c r="FS5">
-        <v>0.9588727544805025</v>
+        <v>0.9589096836075882</v>
       </c>
       <c r="FT5">
-        <v>0.9589094635548534</v>
+        <v>0.95894435564986</v>
       </c>
       <c r="FU5">
-        <v>0.9622718077038114</v>
+        <v>0.9623059900888464</v>
       </c>
       <c r="FV5">
-        <v>0.964154607219233</v>
+        <v>0.9641874893808283</v>
       </c>
       <c r="FW5">
-        <v>0.9641587406640473</v>
+        <v>0.9641895727920308</v>
       </c>
       <c r="FX5">
-        <v>0.9642163162784609</v>
+        <v>0.964245119702585</v>
       </c>
       <c r="FY5">
-        <v>0.9650385401415253</v>
+        <v>0.9650656200469658</v>
       </c>
       <c r="FZ5">
-        <v>0.9653052748995432</v>
+        <v>0.9653304095803844</v>
       </c>
       <c r="GA5">
-        <v>0.9684995379560517</v>
+        <v>0.9685238958426667</v>
       </c>
       <c r="GB5">
-        <v>0.9740567777064114</v>
+        <v>0.9740813019062474</v>
       </c>
       <c r="GC5">
-        <v>0.9765248000955439</v>
+        <v>0.9765482576451497</v>
       </c>
       <c r="GD5">
-        <v>0.9768006090831541</v>
+        <v>0.9768221250298526</v>
       </c>
       <c r="GE5">
-        <v>0.976810429715713</v>
+        <v>0.9768298978986607</v>
       </c>
       <c r="GF5">
-        <v>0.9790452569153208</v>
+        <v>0.9790635653755506</v>
       </c>
       <c r="GG5">
-        <v>0.9823992967646519</v>
+        <v>0.9824168922005113</v>
       </c>
       <c r="GH5">
-        <v>0.9848320043553707</v>
+        <v>0.9848485190462146</v>
       </c>
       <c r="GI5">
-        <v>0.9851521045109912</v>
+        <v>0.9851666952763474</v>
       </c>
       <c r="GJ5">
-        <v>0.9853667384013495</v>
+        <v>0.9853793631476921</v>
       </c>
       <c r="GK5">
-        <v>0.9856255531897231</v>
+        <v>0.9856362295504609</v>
       </c>
       <c r="GL5">
-        <v>0.9897331507052032</v>
+        <v>0.989743414800291</v>
       </c>
       <c r="GM5">
-        <v>0.9910059370480275</v>
+        <v>0.9910146574522022</v>
       </c>
       <c r="GN5">
-        <v>0.9910663255513148</v>
+        <v>0.9910730183743057</v>
       </c>
       <c r="GO5">
-        <v>0.9927679690748742</v>
+        <v>0.9927732893717381</v>
       </c>
       <c r="GP5">
-        <v>0.9973759138678778</v>
+        <v>0.9973810215968903</v>
       </c>
       <c r="GQ5">
-        <v>0.998996153095094</v>
+        <v>0.9989998558080282</v>
       </c>
       <c r="GR5">
-        <v>0.9992436178339775</v>
+        <v>0.9992453676312935</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.807122604575064E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.705861412011184E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8.241583189836767E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000452681999311591</v>
+        <v>0.0002517076853827176</v>
       </c>
       <c r="F6">
-        <v>0.001108413877020732</v>
+        <v>0.0007950284655428093</v>
       </c>
       <c r="G6">
-        <v>0.001462778204974521</v>
+        <v>0.001030491872015069</v>
       </c>
       <c r="H6">
-        <v>0.001773853234399879</v>
+        <v>0.001221733763050217</v>
       </c>
       <c r="I6">
-        <v>0.00224877426825548</v>
+        <v>0.001580350013581226</v>
       </c>
       <c r="J6">
-        <v>0.002983905643265526</v>
+        <v>0.002204780125953872</v>
       </c>
       <c r="K6">
-        <v>0.003599182252349899</v>
+        <v>0.002706774450227232</v>
       </c>
       <c r="L6">
-        <v>0.003927553371187296</v>
+        <v>0.00291568489471408</v>
       </c>
       <c r="M6">
-        <v>0.004022077297974064</v>
+        <v>0.00291568489471408</v>
       </c>
       <c r="N6">
-        <v>0.004145941933763426</v>
+        <v>0.00291568489471408</v>
       </c>
       <c r="O6">
-        <v>0.004157153484382302</v>
+        <v>0.00291568489471408</v>
       </c>
       <c r="P6">
-        <v>0.00437563472695528</v>
+        <v>0.003012339030487173</v>
       </c>
       <c r="Q6">
-        <v>0.004542930411268254</v>
+        <v>0.003056705348446229</v>
       </c>
       <c r="R6">
-        <v>0.004664888927122413</v>
+        <v>0.003056705348446229</v>
       </c>
       <c r="S6">
-        <v>0.005186006849407603</v>
+        <v>0.003462513318045958</v>
       </c>
       <c r="T6">
-        <v>0.005807395828284193</v>
+        <v>0.003970751639434363</v>
       </c>
       <c r="U6">
-        <v>0.006146684956750446</v>
+        <v>0.004190815208313556</v>
       </c>
       <c r="V6">
-        <v>0.006455893706239247</v>
+        <v>0.004380150629855551</v>
       </c>
       <c r="W6">
-        <v>0.006861300412457907</v>
+        <v>0.004667755590825502</v>
       </c>
       <c r="X6">
-        <v>0.007172833191867705</v>
+        <v>0.00485946508929924</v>
       </c>
       <c r="Y6">
-        <v>0.007504471330594044</v>
+        <v>0.00507171290757969</v>
       </c>
       <c r="Z6">
-        <v>0.008455695498258262</v>
+        <v>0.005916889280368853</v>
       </c>
       <c r="AA6">
-        <v>0.00913998322499668</v>
+        <v>0.006489380847804203</v>
       </c>
       <c r="AB6">
-        <v>0.009234973701767587</v>
+        <v>0.006489380847804203</v>
       </c>
       <c r="AC6">
-        <v>0.00931242964413456</v>
+        <v>0.006489380847804203</v>
       </c>
       <c r="AD6">
-        <v>0.009488949038133986</v>
+        <v>0.006543169504173731</v>
       </c>
       <c r="AE6">
-        <v>0.009540256816389836</v>
+        <v>0.006543169504173731</v>
       </c>
       <c r="AF6">
-        <v>0.009540289358954731</v>
+        <v>0.006543169504173731</v>
       </c>
       <c r="AG6">
-        <v>0.009579059403636788</v>
+        <v>0.006543169504173731</v>
       </c>
       <c r="AH6">
-        <v>0.009680547270186824</v>
+        <v>0.006543169504173731</v>
       </c>
       <c r="AI6">
-        <v>0.01011378250545949</v>
+        <v>0.006859202269912693</v>
       </c>
       <c r="AJ6">
-        <v>0.01064540224738768</v>
+        <v>0.007275738211441923</v>
       </c>
       <c r="AK6">
-        <v>0.01101693867475772</v>
+        <v>0.007528743511297482</v>
       </c>
       <c r="AL6">
-        <v>0.01150731578808791</v>
+        <v>0.007903148681499569</v>
       </c>
       <c r="AM6">
-        <v>0.01256141595225498</v>
+        <v>0.008853416442278564</v>
       </c>
       <c r="AN6">
-        <v>0.01317505756139493</v>
+        <v>0.009353740557568649</v>
       </c>
       <c r="AO6">
-        <v>0.01356721419806401</v>
+        <v>0.009627810114292104</v>
       </c>
       <c r="AP6">
-        <v>0.0139060256465465</v>
+        <v>0.009847385716549199</v>
       </c>
       <c r="AQ6">
-        <v>0.0140901678402868</v>
+        <v>0.009908961326458609</v>
       </c>
       <c r="AR6">
-        <v>0.01409842591550607</v>
+        <v>0.009908961326458609</v>
       </c>
       <c r="AS6">
-        <v>0.01429809820871844</v>
+        <v>0.009986401470026218</v>
       </c>
       <c r="AT6">
-        <v>0.01445498794338515</v>
+        <v>0.01002013775057273</v>
       </c>
       <c r="AU6">
-        <v>0.01446180961415326</v>
+        <v>0.01002013775057273</v>
       </c>
       <c r="AV6">
-        <v>0.01483554450144856</v>
+        <v>0.01027538885326705</v>
       </c>
       <c r="AW6">
-        <v>0.0148359022615764</v>
+        <v>0.01027538885326705</v>
       </c>
       <c r="AX6">
-        <v>0.0148427711009429</v>
+        <v>0.01027538885326705</v>
       </c>
       <c r="AY6">
-        <v>0.01506879078325962</v>
+        <v>0.01037974376592569</v>
       </c>
       <c r="AZ6">
-        <v>0.01553568692738802</v>
+        <v>0.01073016231409108</v>
       </c>
       <c r="BA6">
-        <v>0.01587013369601888</v>
+        <v>0.01094527924494443</v>
       </c>
       <c r="BB6">
-        <v>0.01658406737174952</v>
+        <v>0.01154805517446401</v>
       </c>
       <c r="BC6">
-        <v>0.01729389481761975</v>
+        <v>0.01214663644818335</v>
       </c>
       <c r="BD6">
-        <v>0.0175545315087597</v>
+        <v>0.01228635383244818</v>
       </c>
       <c r="BE6">
-        <v>0.01791604187647057</v>
+        <v>0.01252911716565001</v>
       </c>
       <c r="BF6">
-        <v>0.01888429384355594</v>
+        <v>0.01339168802438743</v>
       </c>
       <c r="BG6">
-        <v>0.01940691852578991</v>
+        <v>0.01379903520138021</v>
       </c>
       <c r="BH6">
-        <v>0.01954310942116026</v>
+        <v>0.01381162690179745</v>
       </c>
       <c r="BI6">
-        <v>0.01980374611230021</v>
+        <v>0.01395134428606228</v>
       </c>
       <c r="BJ6">
-        <v>0.0200668733733555</v>
+        <v>0.0140936058736222</v>
       </c>
       <c r="BK6">
-        <v>0.02006695140016785</v>
+        <v>0.0140936058736222</v>
       </c>
       <c r="BL6">
-        <v>0.02006927252358894</v>
+        <v>0.0140936058736222</v>
       </c>
       <c r="BM6">
-        <v>0.02007334569275048</v>
+        <v>0.0140936058736222</v>
       </c>
       <c r="BN6">
-        <v>0.02013588994562436</v>
+        <v>0.0140936058736222</v>
       </c>
       <c r="BO6">
-        <v>0.02031352696958579</v>
+        <v>0.01414853622764676</v>
       </c>
       <c r="BP6">
-        <v>0.02034895010638162</v>
+        <v>0.01414853622764676</v>
       </c>
       <c r="BQ6">
-        <v>0.02045043797293165</v>
+        <v>0.01414853622764676</v>
       </c>
       <c r="BR6">
-        <v>0.02091629905709524</v>
+        <v>0.0144978974262646</v>
       </c>
       <c r="BS6">
-        <v>0.02130152042400008</v>
+        <v>0.01476488236509483</v>
       </c>
       <c r="BT6">
-        <v>0.02171039634010081</v>
+        <v>0.01505603124392831</v>
       </c>
       <c r="BU6">
-        <v>0.02289993059966394</v>
+        <v>0.0161446496166105</v>
       </c>
       <c r="BV6">
-        <v>0.02395403076383101</v>
+        <v>0.0170949173773895</v>
       </c>
       <c r="BW6">
-        <v>0.024316302371516</v>
+        <v>0.01733845834354938</v>
       </c>
       <c r="BX6">
-        <v>0.02480960505474673</v>
+        <v>0.01771585208457422</v>
       </c>
       <c r="BY6">
-        <v>0.02532812627712019</v>
+        <v>0.01811900743541746</v>
       </c>
       <c r="BZ6">
-        <v>0.02543117048761732</v>
+        <v>0.01811900743541746</v>
       </c>
       <c r="CA6">
-        <v>0.02544940168699758</v>
+        <v>0.01811900743541746</v>
       </c>
       <c r="CB6">
-        <v>0.02547625711108466</v>
+        <v>0.01811900743541746</v>
       </c>
       <c r="CC6">
-        <v>0.02547679297236644</v>
+        <v>0.01811900743541746</v>
       </c>
       <c r="CD6">
-        <v>0.02549961708459056</v>
+        <v>0.01811900743541746</v>
       </c>
       <c r="CE6">
-        <v>0.02571004939743715</v>
+        <v>0.01820743931113444</v>
       </c>
       <c r="CF6">
-        <v>0.02610141400413316</v>
+        <v>0.01848069978185115</v>
       </c>
       <c r="CG6">
-        <v>0.02670376888365679</v>
+        <v>0.01896949411253096</v>
       </c>
       <c r="CH6">
-        <v>0.02721539436626467</v>
+        <v>0.01936560522674158</v>
       </c>
       <c r="CI6">
-        <v>0.02792698020207512</v>
+        <v>0.01996598275659187</v>
       </c>
       <c r="CJ6">
-        <v>0.0286020967291253</v>
+        <v>0.02052910562639577</v>
       </c>
       <c r="CK6">
-        <v>0.02890133531895302</v>
+        <v>0.02070825618506518</v>
       </c>
       <c r="CL6">
-        <v>0.02914969686051026</v>
+        <v>0.02083543407954343</v>
       </c>
       <c r="CM6">
-        <v>0.02963191899411766</v>
+        <v>0.02120150865595077</v>
       </c>
       <c r="CN6">
-        <v>0.1377754453179016</v>
+        <v>0.1315473285058645</v>
       </c>
       <c r="CO6">
-        <v>0.1418469094794969</v>
+        <v>0.135579937933696</v>
       </c>
       <c r="CP6">
-        <v>0.2429427860428577</v>
+        <v>0.2387263398380584</v>
       </c>
       <c r="CQ6">
-        <v>0.2539860286674552</v>
+        <v>0.2498808620574152</v>
       </c>
       <c r="CR6">
-        <v>0.2634608563453693</v>
+        <v>0.2594331941712656</v>
       </c>
       <c r="CS6">
-        <v>0.2634833664326041</v>
+        <v>0.2594331941712656</v>
       </c>
       <c r="CT6">
-        <v>0.2681894616726257</v>
+        <v>0.2641141011919323</v>
       </c>
       <c r="CU6">
-        <v>0.2771680413674091</v>
+        <v>0.2731594988302279</v>
       </c>
       <c r="CV6">
-        <v>0.2810235962363439</v>
+        <v>0.2769715494492321</v>
       </c>
       <c r="CW6">
-        <v>0.2859478444689497</v>
+        <v>0.2818753072957877</v>
       </c>
       <c r="CX6">
-        <v>0.3055424338028539</v>
+        <v>0.301765325893432</v>
       </c>
       <c r="CY6">
-        <v>0.3717731115514175</v>
+        <v>0.3692957215325513</v>
       </c>
       <c r="CZ6">
-        <v>0.3785573073207965</v>
+        <v>0.3760994801068992</v>
       </c>
       <c r="DA6">
-        <v>0.3785861558438158</v>
+        <v>0.3760994801068992</v>
       </c>
       <c r="DB6">
-        <v>0.3789509426314153</v>
+        <v>0.3763455904163194</v>
       </c>
       <c r="DC6">
-        <v>0.4367061006680945</v>
+        <v>0.435217949577197</v>
       </c>
       <c r="DD6">
-        <v>0.4836407490726046</v>
+        <v>0.4830367839639984</v>
       </c>
       <c r="DE6">
-        <v>0.48893772239254</v>
+        <v>0.488321293376494</v>
       </c>
       <c r="DF6">
-        <v>0.4926247575672035</v>
+        <v>0.4919611953002085</v>
       </c>
       <c r="DG6">
-        <v>0.5126364688869282</v>
+        <v>0.5122773184308935</v>
       </c>
       <c r="DH6">
-        <v>0.5144280990260237</v>
+        <v>0.5139809985656387</v>
       </c>
       <c r="DI6">
-        <v>0.5224404417536532</v>
+        <v>0.5220393517284772</v>
       </c>
       <c r="DJ6">
-        <v>0.5224442530388237</v>
+        <v>0.5220393517284772</v>
       </c>
       <c r="DK6">
-        <v>0.5440606703039982</v>
+        <v>0.5439947374748899</v>
       </c>
       <c r="DL6">
-        <v>0.5591883107897513</v>
+        <v>0.5593216133522709</v>
       </c>
       <c r="DM6">
-        <v>0.5593987431025979</v>
+        <v>0.5594100452279879</v>
       </c>
       <c r="DN6">
-        <v>0.5619631888154224</v>
+        <v>0.5619031831960877</v>
       </c>
       <c r="DO6">
-        <v>0.5655271128942708</v>
+        <v>0.5654173228781135</v>
       </c>
       <c r="DP6">
-        <v>0.5763272175271336</v>
+        <v>0.576323471230941</v>
       </c>
       <c r="DQ6">
-        <v>0.579553054417475</v>
+        <v>0.5794922431584897</v>
       </c>
       <c r="DR6">
-        <v>0.5833165782895382</v>
+        <v>0.5832102809316592</v>
       </c>
       <c r="DS6">
-        <v>0.5852246757246746</v>
+        <v>0.5850329364368739</v>
       </c>
       <c r="DT6">
-        <v>0.5873620879520157</v>
+        <v>0.587089844932277</v>
       </c>
       <c r="DU6">
-        <v>0.5881882051539328</v>
+        <v>0.5878072202132225</v>
       </c>
       <c r="DV6">
-        <v>0.5882342712923668</v>
+        <v>0.5878072202132225</v>
       </c>
       <c r="DW6">
-        <v>0.5981572764550456</v>
+        <v>0.5978173811262176</v>
       </c>
       <c r="DX6">
-        <v>0.6199167407153574</v>
+        <v>0.6199188943248815</v>
       </c>
       <c r="DY6">
-        <v>0.625269867533384</v>
+        <v>0.6252607664775254</v>
       </c>
       <c r="DZ6">
-        <v>0.6266475361865517</v>
+        <v>0.6265415706391635</v>
       </c>
       <c r="EA6">
-        <v>0.6376676868119342</v>
+        <v>0.6376725035827761</v>
       </c>
       <c r="EB6">
-        <v>0.6539355632589263</v>
+        <v>0.6541641699251438</v>
       </c>
       <c r="EC6">
-        <v>0.6649857388832882</v>
+        <v>0.6653257744435104</v>
       </c>
       <c r="ED6">
-        <v>0.670553013194035</v>
+        <v>0.6708864056654178</v>
       </c>
       <c r="EE6">
-        <v>0.6731901363043891</v>
+        <v>0.6734537861083562</v>
       </c>
       <c r="EF6">
-        <v>0.6738296427226498</v>
+        <v>0.6739805320205959</v>
       </c>
       <c r="EG6">
-        <v>0.6742818437372777</v>
+        <v>0.6743159389858033</v>
       </c>
       <c r="EH6">
-        <v>0.674767364240773</v>
+        <v>0.6746853829611122</v>
       </c>
       <c r="EI6">
-        <v>0.6778534183358661</v>
+        <v>0.677711361929476</v>
       </c>
       <c r="EJ6">
-        <v>0.6788777514010451</v>
+        <v>0.6786312215692605</v>
       </c>
       <c r="EK6">
-        <v>0.6789058957400884</v>
+        <v>0.6786312215692605</v>
       </c>
       <c r="EL6">
-        <v>0.6827863091081782</v>
+        <v>0.6824686660047851</v>
       </c>
       <c r="EM6">
-        <v>0.6934701987449915</v>
+        <v>0.693256096720309</v>
       </c>
       <c r="EN6">
-        <v>0.7064496063037713</v>
+        <v>0.7063884783745907</v>
       </c>
       <c r="EO6">
-        <v>0.7105508371643546</v>
+        <v>0.7104514955148029</v>
       </c>
       <c r="EP6">
-        <v>0.7117957347220357</v>
+        <v>0.7115966694110348</v>
       </c>
       <c r="EQ6">
-        <v>0.7119740111059755</v>
+        <v>0.711652252893387</v>
       </c>
       <c r="ER6">
-        <v>0.7122630017461515</v>
+        <v>0.7118209348171022</v>
       </c>
       <c r="ES6">
-        <v>0.7122635869781716</v>
+        <v>0.7118209348171022</v>
       </c>
       <c r="ET6">
-        <v>0.7143464626073667</v>
+        <v>0.713822132291565</v>
       </c>
       <c r="EU6">
-        <v>0.7163567332390298</v>
+        <v>0.7157491612502904</v>
       </c>
       <c r="EV6">
-        <v>0.7166046861106009</v>
+        <v>0.7158759216742456</v>
       </c>
       <c r="EW6">
-        <v>0.7171557436918683</v>
+        <v>0.7163123140408412</v>
       </c>
       <c r="EX6">
-        <v>0.7187546349375158</v>
+        <v>0.7178191047308117</v>
       </c>
       <c r="EY6">
-        <v>0.7328016994600018</v>
+        <v>0.732042134894241</v>
       </c>
       <c r="EZ6">
-        <v>0.7833321907422753</v>
+        <v>0.7835342471287767</v>
       </c>
       <c r="FA6">
-        <v>0.8122585807589556</v>
+        <v>0.8129570228275419</v>
       </c>
       <c r="FB6">
-        <v>0.8124222000033936</v>
+        <v>0.8129976335350334</v>
       </c>
       <c r="FC6">
-        <v>0.821150469706686</v>
+        <v>0.8217873308610333</v>
       </c>
       <c r="FD6">
-        <v>0.8211573385460526</v>
+        <v>0.8217873308610333</v>
       </c>
       <c r="FE6">
-        <v>0.8212062835623887</v>
+        <v>0.8217873308610333</v>
       </c>
       <c r="FF6">
-        <v>0.8335866046415338</v>
+        <v>0.8343077249593158</v>
       </c>
       <c r="FG6">
-        <v>0.8503010760733444</v>
+        <v>0.8512556035224087</v>
       </c>
       <c r="FH6">
-        <v>0.8517224844250252</v>
+        <v>0.8525810892986436</v>
       </c>
       <c r="FI6">
-        <v>0.8521125453117655</v>
+        <v>0.8528530179743415</v>
       </c>
       <c r="FJ6">
-        <v>0.8588750270818827</v>
+        <v>0.8596345949475501</v>
       </c>
       <c r="FK6">
-        <v>0.8796533933755458</v>
+        <v>0.8807338826458635</v>
       </c>
       <c r="FL6">
-        <v>0.8990331407167533</v>
+        <v>0.9004044327185018</v>
       </c>
       <c r="FM6">
-        <v>0.9025434538974242</v>
+        <v>0.9038638070141171</v>
       </c>
       <c r="FN6">
-        <v>0.9029044711851518</v>
+        <v>0.9041060666490648</v>
       </c>
       <c r="FO6">
-        <v>0.9058672023844372</v>
+        <v>0.9070060670147231</v>
       </c>
       <c r="FP6">
-        <v>0.9167195110155253</v>
+        <v>0.917965543557008</v>
       </c>
       <c r="FQ6">
-        <v>0.9411055921865482</v>
+        <v>0.9427502367611901</v>
       </c>
       <c r="FR6">
-        <v>0.9489882219185872</v>
+        <v>0.9506760836134184</v>
       </c>
       <c r="FS6">
-        <v>0.9489926494709368</v>
+        <v>0.9506760836134184</v>
       </c>
       <c r="FT6">
-        <v>0.9494675705047924</v>
+        <v>0.9510346998639494</v>
       </c>
       <c r="FU6">
-        <v>0.9544459653355575</v>
+        <v>0.9559937703329722</v>
       </c>
       <c r="FV6">
-        <v>0.95818097620859</v>
+        <v>0.9596826810916218</v>
       </c>
       <c r="FW6">
-        <v>0.9581972006260384</v>
+        <v>0.9596826810916218</v>
       </c>
       <c r="FX6">
-        <v>0.9592880199889573</v>
+        <v>0.9606704587837149</v>
       </c>
       <c r="FY6">
-        <v>0.9608869112346048</v>
+        <v>0.9621772494736854</v>
       </c>
       <c r="FZ6">
-        <v>0.9609498351024658</v>
+        <v>0.9621772494736854</v>
       </c>
       <c r="GA6">
-        <v>0.9668977239002741</v>
+        <v>0.9681266915561828</v>
       </c>
       <c r="GB6">
-        <v>0.9726205691057325</v>
+        <v>0.9738462438268463</v>
       </c>
       <c r="GC6">
-        <v>0.9732809144832848</v>
+        <v>0.9743942774566359</v>
       </c>
       <c r="GD6">
-        <v>0.9732967865987452</v>
+        <v>0.9743942774566359</v>
       </c>
       <c r="GE6">
-        <v>0.9739286323072663</v>
+        <v>0.9749131976889611</v>
       </c>
       <c r="GF6">
-        <v>0.9764157336227202</v>
+        <v>0.9773273256804946</v>
       </c>
       <c r="GG6">
-        <v>0.9800469114992824</v>
+        <v>0.9809101674425935</v>
       </c>
       <c r="GH6">
-        <v>0.9836239730776842</v>
+        <v>0.984437727534722</v>
       </c>
       <c r="GI6">
-        <v>0.9858166267031475</v>
+        <v>0.9865510670286135</v>
       </c>
       <c r="GJ6">
-        <v>0.9869368177650679</v>
+        <v>0.9875688489269415</v>
       </c>
       <c r="GK6">
-        <v>0.9873922974095845</v>
+        <v>0.9879076051259585</v>
       </c>
       <c r="GL6">
-        <v>0.9909915112872333</v>
+        <v>0.991457794557818</v>
       </c>
       <c r="GM6">
-        <v>0.9913836679239023</v>
+        <v>0.9917318641145415</v>
       </c>
       <c r="GN6">
-        <v>0.9914004280433326</v>
+        <v>0.9917318641145415</v>
       </c>
       <c r="GO6">
-        <v>0.9935042472718156</v>
+        <v>0.9937544561999292</v>
       </c>
       <c r="GP6">
-        <v>0.9976830291297627</v>
+        <v>0.997896694365745</v>
       </c>
       <c r="GQ6">
-        <v>0.9988923606886528</v>
+        <v>0.9990055363643016</v>
       </c>
       <c r="GR6">
-        <v>0.9989026356373035</v>
+        <v>0.9990055363643016</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>107</v>
       </c>
       <c r="E2">
-        <v>0.01166412847480937</v>
+        <v>0.0488965451392256</v>
       </c>
       <c r="F2">
-        <v>0.525536659199346</v>
+        <v>0.5315033960851857</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>107</v>
       </c>
       <c r="E3">
-        <v>0.01332861814427941</v>
+        <v>0.07151528102988959</v>
       </c>
       <c r="F3">
-        <v>0.5184205527422411</v>
+        <v>0.5213221425137641</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.02104823143779523</v>
+        <v>0.05772379083390564</v>
       </c>
       <c r="F4">
-        <v>0.5384159425626588</v>
+        <v>0.5389830503203336</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.0218702415479131</v>
+        <v>0.08139065182756103</v>
       </c>
       <c r="F5">
-        <v>0.5181448613034481</v>
+        <v>0.518141596180263</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6">
-        <v>0.0286020967291253</v>
+        <v>0.02083543407954343</v>
       </c>
       <c r="F6">
-        <v>0.5126364688869282</v>
+        <v>0.5122773184308935</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.01166412847480937</v>
+        <v>0.0488965451392256</v>
       </c>
       <c r="F2">
-        <v>0.7065386853989568</v>
+        <v>0.712883833208763</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>132</v>
       </c>
       <c r="E3">
-        <v>0.01332861814427941</v>
+        <v>0.07151528102988959</v>
       </c>
       <c r="F3">
-        <v>0.7055246657897937</v>
+        <v>0.7089196013155471</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>141</v>
       </c>
       <c r="E4">
-        <v>0.02104823143779523</v>
+        <v>0.05772379083390564</v>
       </c>
       <c r="F4">
-        <v>0.700976552779616</v>
+        <v>0.7013595369866324</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.0218702415479131</v>
+        <v>0.08139065182756103</v>
       </c>
       <c r="F5">
-        <v>0.7083467964092671</v>
+        <v>0.7083681522920288</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.0286020967291253</v>
+        <v>0.02083543407954343</v>
       </c>
       <c r="F6">
-        <v>0.7064496063037713</v>
+        <v>0.7063884783745907</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>156</v>
       </c>
       <c r="E2">
-        <v>0.01166412847480937</v>
+        <v>0.0488965451392256</v>
       </c>
       <c r="F2">
-        <v>0.8439669406276202</v>
+        <v>0.8492365290850289</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01332861814427941</v>
+        <v>0.07151528102988959</v>
       </c>
       <c r="F3">
-        <v>0.8261193831774833</v>
+        <v>0.828980802202734</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>156</v>
       </c>
       <c r="E4">
-        <v>0.02104823143779523</v>
+        <v>0.05772379083390564</v>
       </c>
       <c r="F4">
-        <v>0.8328866045078647</v>
+        <v>0.8339939292744164</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.0218702415479131</v>
+        <v>0.08139065182756103</v>
       </c>
       <c r="F5">
-        <v>0.8056441315787821</v>
+        <v>0.8056588863285845</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>156</v>
       </c>
       <c r="E6">
-        <v>0.0286020967291253</v>
+        <v>0.02083543407954343</v>
       </c>
       <c r="F6">
-        <v>0.8122585807589556</v>
+        <v>0.8129570228275419</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E2">
-        <v>0.01166412847480937</v>
+        <v>0.0488965451392256</v>
       </c>
       <c r="F2">
-        <v>0.9003829536761367</v>
+        <v>0.900579813691221</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3">
-        <v>0.01332861814427941</v>
+        <v>0.07151528102988959</v>
       </c>
       <c r="F3">
-        <v>0.9054516703321324</v>
+        <v>0.9029424232825647</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.02104823143779523</v>
+        <v>0.05772379083390564</v>
       </c>
       <c r="F4">
-        <v>0.914794373558681</v>
+        <v>0.9161700399541832</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>167</v>
       </c>
       <c r="E5">
-        <v>0.0218702415479131</v>
+        <v>0.08139065182756103</v>
       </c>
       <c r="F5">
-        <v>0.9168014221004154</v>
+        <v>0.9168359215685924</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6">
-        <v>0.0286020967291253</v>
+        <v>0.02083543407954343</v>
       </c>
       <c r="F6">
-        <v>0.9025434538974242</v>
+        <v>0.9004044327185018</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>9</v>

--- a/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
@@ -1994,13 +1994,13 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>6.516579440003828E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.443363203919772E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.340649755997931E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2.594782348893153E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1.526717232090084E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2264,91 +2264,91 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.04877039006722053</v>
+        <v>0.07155857592139214</v>
       </c>
       <c r="CO2">
-        <v>7.186385681877671E-05</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.07067726548426376</v>
+        <v>0.1598371971756514</v>
       </c>
       <c r="CQ2">
-        <v>0.004237440683989284</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.001100446394715647</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01040018954213683</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0108871596486778</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0282388069663321</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.03561529337310101</v>
+        <v>0.01854719129828654</v>
       </c>
       <c r="CW2">
-        <v>0.02064872154879794</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.09560168429843331</v>
+        <v>0.2602756799164084</v>
       </c>
       <c r="CY2">
-        <v>0.04357320000783069</v>
+        <v>0.05061534398598173</v>
       </c>
       <c r="CZ2">
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.02206736507047059</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.003820290216201992</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.06747882366368764</v>
+        <v>0.1469483653040484</v>
       </c>
       <c r="DD2">
-        <v>0.06818830019050275</v>
+        <v>0.1498073585838829</v>
       </c>
       <c r="DE2">
-        <v>0.005945832260855251</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.02713684705445835</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01204895647995857</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0248897569340736</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.007796477300839206</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.006844598664318695</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.005891977883101251</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.02742164991834296</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.004871315703312082</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.004143748393007524</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.00714381107740134</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.005042626060661124</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
         <v>0</v>
@@ -2357,43 +2357,43 @@
         <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.003728948694952096</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0007643968552480158</v>
+        <v>0</v>
       </c>
       <c r="DU2">
         <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0003418285324870645</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0001961092525886862</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.01262542053659185</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.002858314249853232</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.001172467788660805</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.006371835028914406</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.01414351845395112</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.005245508886826171</v>
+        <v>0</v>
       </c>
       <c r="ED2">
         <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0004763866128532751</v>
+        <v>0</v>
       </c>
       <c r="EF2">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0008125163169150542</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0007066834714702189</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -2414,115 +2414,115 @@
         <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.001530996459117777</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.00683825325918838</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.002898021344000274</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.004938713881927371</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.001277873772804686</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
         <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002425406409421549</v>
+        <v>0</v>
       </c>
       <c r="ES2">
         <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.002649745447113434</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.002102936016018472</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.0003215254320738068</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.002586820214428337</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.001206795823900492</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.002969144990696853</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.04314964316966603</v>
+        <v>0.04890852761056656</v>
       </c>
       <c r="FA2">
-        <v>0.05421572436784363</v>
+        <v>0.09350176020378191</v>
       </c>
       <c r="FB2">
-        <v>0.0002525071987469085</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.01583909634891789</v>
+        <v>0</v>
       </c>
       <c r="FD2">
         <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.005110121072584763</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.004496615138359423</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0256449448475831</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.00459085611656463</v>
+        <v>0</v>
       </c>
       <c r="FI2">
         <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0004866972792175552</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.01020016288028167</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.02469318218097507</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.009013783355559329</v>
+        <v>0</v>
       </c>
       <c r="FN2">
         <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0001477331931116812</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.002085320092197728</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.01607703178698953</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.005737265758690813</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002052492659522643</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0009529813964051809</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.00432914517328808</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.004066694490461567</v>
+        <v>0</v>
       </c>
       <c r="FW2">
         <v>0</v>
@@ -2531,34 +2531,34 @@
         <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002248139025891663</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
         <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0004954167840053213</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001831376518767415</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0003992150986206001</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001253491961420715</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0008139926588667648</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0001191298468557626</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.001635335185437663</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001167857853925063</v>
+        <v>0</v>
       </c>
       <c r="GI2">
         <v>0</v>
@@ -2570,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.003192779843185252</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0009365398117342958</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.000198460367406854</v>
+        <v>0</v>
       </c>
       <c r="GO2">
         <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0006951049893963236</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
@@ -2776,31 +2776,31 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0003863479124629106</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.000803562724863246</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003827617909563361</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.000122414517614492</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.982376423155693E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.993166663013727E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.121868003095918E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2821,28 +2821,28 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1.575157796845435E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002206240226606147</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0007682795312197777</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.000654811990365458</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0002258722697863992</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0002941561211078104</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002080718560704964</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2869,16 +2869,16 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.00010914007135223</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.516869103860295E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0001928407753760067</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.613585576772146E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0001941070067717046</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>5.90135779338875E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
@@ -3034,142 +3034,142 @@
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>1.267366022714825E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.06655257296545364</v>
+        <v>0.1380077929650518</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.09662599590022058</v>
+        <v>0.2536986774073609</v>
       </c>
       <c r="CQ3">
-        <v>0.0079741224333752</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.007404375963308417</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.002285543962649024</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>8.152589584844162E-05</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.02341435236479806</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.02285023166789003</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.01878546538609359</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.0603636665029991</v>
+        <v>0.1141993936376728</v>
       </c>
       <c r="CY3">
-        <v>0.05439716546880616</v>
+        <v>0.09124657635548263</v>
       </c>
       <c r="CZ3">
-        <v>1.796754983538656E-05</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.010482288556579</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.001711952939695204</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.07122447075088094</v>
+        <v>0.1559803392891784</v>
       </c>
       <c r="DD3">
-        <v>0.07218773614089527</v>
+        <v>0.1596859708418338</v>
       </c>
       <c r="DE3">
-        <v>0.005958980578060772</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.01890661513435446</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01308298649888053</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.0133923453350074</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.009438258726938282</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.004124124984028059</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.007362678523394016</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.01894212525340132</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.002186845929629189</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.003325327486714835</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.008628602478413721</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.00952303966383632</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0006235900407179194</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0003704370439810248</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.003699446446846411</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002177373441408507</v>
+        <v>0</v>
       </c>
       <c r="DU3">
         <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.00109177631419</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0007005009595794895</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.01913966772956969</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004617285468935903</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.003320607561876926</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.008638916052669062</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.01877678270947431</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.009569144439875051</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.002878548948075287</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.00232558054336094</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>2.571816433722449E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
         <v>0</v>
@@ -3184,139 +3184,139 @@
         <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0002120424637539875</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0008929193386453979</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.007909220120630889</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.005439154607921139</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.004543138005217149</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0009840307117969598</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
         <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0004008005484183074</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>8.368275797213744E-05</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.002889977586812863</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.003885489859152003</v>
+        <v>0</v>
       </c>
       <c r="EV3">
         <v>0</v>
       </c>
       <c r="EW3">
-        <v>5.827061345523573E-06</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0002585837623121396</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.003308136651878625</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.03876369373004439</v>
+        <v>0.03110542859573526</v>
       </c>
       <c r="FA3">
-        <v>0.04525465602551178</v>
+        <v>0.05607582090768454</v>
       </c>
       <c r="FB3">
-        <v>0.0002454863363974587</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.01705160498146696</v>
+        <v>0</v>
       </c>
       <c r="FD3">
         <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.003686611158897729</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.004904577971756833</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.02190875997122329</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.003199075417541542</v>
+        <v>0</v>
       </c>
       <c r="FI3">
         <v>0</v>
       </c>
       <c r="FJ3">
-        <v>5.557767610225103E-05</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.007311179532831859</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0155987480336129</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.005566168483382895</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.000803562724863246</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001987538398020483</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.005743473517325452</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.02300359988131992</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.01032263459184344</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0001116904390109811</v>
+        <v>0</v>
       </c>
       <c r="FT3">
         <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.005646622496470603</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.003233775235805847</v>
+        <v>0</v>
       </c>
       <c r="FW3">
         <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0002272859512139536</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001605012901892099</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.002852663184295387</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.005978794336967611</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.002808646142560095</v>
+        <v>0</v>
       </c>
       <c r="GD3">
         <v>0</v>
@@ -3325,46 +3325,46 @@
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.004089620173347259</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.005744737874836241</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.004570694409466922</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.002230007264909093</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.001616468413374815</v>
+        <v>0</v>
       </c>
       <c r="GK3">
         <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.002638251934389653</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0002229031094423769</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0001045690071078951</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0005277753605869366</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.003005918655748547</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.001197687980428141</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0001782150006917712</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001039259248133813</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,25 +3540,25 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0009773290068827193</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0007652848574108083</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.000726249427536566</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7.968425585424008E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.143804270040032E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002725493950104393</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3567,16 +3567,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.366127031300207E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001732373263204388</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>7.360298424405166E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3585,40 +3585,40 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001291509581357923</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002095261172387661</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0005995442224623844</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0007146708196669038</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0008272309178215434</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0004518657202663861</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.417552618421409E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.000283785884173737</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0005914869819679517</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>7.660363517898624E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>6.078447000228428E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -3627,37 +3627,37 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>4.928501005754347E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0004280120717796636</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0003863888974056263</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0004366568595542138</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0004843618229777639</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0005922101389345836</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0001049366341481044</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.2894618405956E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0001059187745696196</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>4.250626067543853E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0001171701375770315</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -3681,34 +3681,34 @@
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0003102394014738399</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>6.535148079378383E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>9.615751506654738E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0003956290244877702</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0003240506179868653</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0001312395766047568</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0002824190123955984</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0002281470946075993</v>
+        <v>0</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>6.744333579499412E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0002153279107384707</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>5.371608649471707E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3738,22 +3738,22 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0003231719958678719</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0003993700397833462</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0003766413754093281</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0005118965956947104</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0005454396810770808</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>2.446530641019149E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -3768,31 +3768,31 @@
         <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0002653255767881181</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.000186760958173562</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0002319399552943236</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001151510386032037</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0002569318789822839</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>2.098180950599926E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
         <v>0</v>
       </c>
       <c r="CG4">
-        <v>6.245819344576347E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>9.014220175143829E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -3801,154 +3801,154 @@
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>2.741698932245714E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>7.450021388699141E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.000108824328273393</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.04203044859373348</v>
+        <v>0.04468279132553272</v>
       </c>
       <c r="CO4">
-        <v>0.00277436361871821</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.07497375686536187</v>
+        <v>0.1707418086077028</v>
       </c>
       <c r="CQ4">
-        <v>0.01411476342529623</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.003228314862963482</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.001581777985973382</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.001871897692731175</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0500647086946337</v>
+        <v>0.07542624078598267</v>
       </c>
       <c r="CV4">
-        <v>0.004984952377977444</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.0289159986272001</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.04209389477162137</v>
+        <v>0.04492557091430113</v>
       </c>
       <c r="CY4">
-        <v>0.08726136212672722</v>
+        <v>0.2177608703008159</v>
       </c>
       <c r="CZ4">
-        <v>0.002060409868496473</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.009996918375959169</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.01327262889538054</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.05600058492755181</v>
+        <v>0.09814013213109313</v>
       </c>
       <c r="DD4">
-        <v>0.0880629263698357</v>
+        <v>0.2208280911136631</v>
       </c>
       <c r="DE4">
-        <v>0.004294542522858525</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.02049233093860404</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01849011773473485</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.00841466400084763</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.006724659481208775</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0008975591401849353</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.01106152442159448</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01436799721615514</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.004707879142848566</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>2.446530641019149E-05</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002806227633784081</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.009142242537237511</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.001154567803104638</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0002770538159354038</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001763229854342923</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0005532184884855479</v>
+        <v>0</v>
       </c>
       <c r="DU4">
         <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.001338148579189377</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0004974742833393649</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.01314107755650979</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.004997095562879561</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>2.098180950599926E-05</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.006305317521292959</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0140581657090571</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.010626642033964</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.002512261830964347</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.001292791065501638</v>
+        <v>0</v>
       </c>
       <c r="EF4">
         <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0001049366341481044</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0007282810363670055</v>
+        <v>0</v>
       </c>
       <c r="EI4">
         <v>0</v>
@@ -3957,181 +3957,181 @@
         <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0001013021707699139</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.001479730834472381</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.01144415355413842</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.005733748463142078</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.00602563040590546</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.003319233315014601</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0002756995148890916</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.001413537358147089</v>
+        <v>0</v>
       </c>
       <c r="ES4">
         <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.001057802895437996</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001683389778230903</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0001530512471828102</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.001095734546065971</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.001610036159157819</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.004797156906406025</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.03963987079751288</v>
+        <v>0.03553514029900608</v>
       </c>
       <c r="FA4">
-        <v>0.05438534734655295</v>
+        <v>0.0919593545219025</v>
       </c>
       <c r="FB4">
-        <v>0.003920368957630251</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.009282059208378121</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.000155684029195581</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.00207787273548996</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.004195999044337027</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.02237853526049098</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.005131850358462867</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0001520160438658536</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001327561872067313</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01018877371705466</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.02336538945279434</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.009613949356800074</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0001649138988040554</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.00159733931417841</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.002945686460121207</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.02023001760947925</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.01213266339234924</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>4.196195508946464E-06</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0004917548134216129</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.003735998325635355</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0043542550209142</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0001291509581357923</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0003192612604738362</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.003741878059701558</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0001649138988040554</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001786805911850816</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.004456468260292518</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.00199161275924036</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.000207086543011443</v>
+        <v>0</v>
       </c>
       <c r="GE4">
         <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001319534358969371</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.002835698339785766</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.002750265251868572</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0006980740040605839</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0004470164412503977</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>9.240019535931282E-05</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.002223961075620463</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001364268003165581</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0001295574117981787</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0003135514189858689</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.002800900646666951</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0007867808595632652</v>
+        <v>0</v>
       </c>
       <c r="GR4">
         <v>0</v>
@@ -4313,10 +4313,10 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002312872188678193</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.022844612802819E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.164235154246842E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4334,583 +4334,583 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.513340417311588E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.969628222768416E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001709980186466335</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0005642490821003021</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0004572846524649062</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001457130621171228</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002331501120024399</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0003864085389731363</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0002503371781680766</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002820445466892604</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001489523543169464</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.56202221292205E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>6.300828590321569E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2.588582132304013E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.885181235661754E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.109410069248692E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0002924575605889071</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002684755538246268</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.320806226930725E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>7.471483991444788E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003152751328436664</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0005681515388459142</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001620074121655777</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>7.687333696968526E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>6.370829924851543E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.236573125145967E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.371971599023641E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.412136931547205E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001098028830349094</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>5.174365638196066E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>7.3931943505913E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>9.886546994495217E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0002260137452040193</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0003776187025821307</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0003359275413837629</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.00021446405786914</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0006132985286235532</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0008422594243879328</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0006591320722773181</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0003181762301327203</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0002183815005928723</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0001586224718646508</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0001221966610896066</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>5.158974498451074E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0001260969069532663</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001962727310896321</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>6.859016669501426E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.283613861863049E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0004301821408867835</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0006866890651545081</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0006168589089099906</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001012397194769274</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0007619405840578531</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0003457542013784804</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0004251108178637552</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0008499958605625794</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0002598273039144863</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001011371401465705</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>4.084576905939536E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>3.957852943945077E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>7.560518508582559E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0001885880255510734</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0001832771369619266</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0001968387268734166</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0003916498097907619</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0005307969775790625</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0006909600689187782</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0004408307887841901</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0004897354975694949</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0006102678496425157</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0007273855395581375</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0003408175920946826</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0004740386558756381</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0006492091738917349</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0003091203876280849</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>6.892814151798783E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.756449982930414E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.344695156565211E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>4.564660418094493E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001363049174841476</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.05823857133119683</v>
+        <v>0.1175768524347332</v>
       </c>
       <c r="CO5">
-        <v>0.0007473593173827701</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.111330900618</v>
+        <v>0.3387149190705229</v>
       </c>
       <c r="CQ5">
-        <v>0.02546948327495927</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.002453803992483234</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.005719753326217465</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>6.959696422089581E-06</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01348216236180851</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02647155801685498</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01619137410498346</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.04839148318739951</v>
+        <v>0.0765621510011532</v>
       </c>
       <c r="CY5">
-        <v>0.05469272284170036</v>
+        <v>0.1028078247788758</v>
       </c>
       <c r="CZ5">
-        <v>0.0001609567230307078</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.009593395577317029</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.001537769373218651</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.06303732562267364</v>
+        <v>0.1375644337017911</v>
       </c>
       <c r="DD5">
-        <v>0.05746393631825038</v>
+        <v>0.114350373366806</v>
       </c>
       <c r="DE5">
-        <v>0.01397667162860258</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01910877489773732</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.00981237042950631</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.005354128573292785</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01701617312906888</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.004320249544213655</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.006480647057570855</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01322072807194443</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0003654155045525216</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.005052576679944931</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.005926650960632455</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.009899352127745365</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001932243934743137</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.000238179398256402</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.001816565789082234</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.001835743439320226</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0002621418672267778</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0026443034854459</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0007257345809672268</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01526071585214304</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.002018363589100603</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.00488873131969567</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.01116694778972019</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0241402240144962</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.01276292244675608</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0026443034854459</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.00293284128728718</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0005725414300360728</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>2.621003465635935E-05</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0006260068581573183</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0002404059764701837</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
         <v>0</v>
       </c>
       <c r="EK5">
-        <v>2.577493708973919E-05</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002991636841671754</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01081844376649859</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.009365106009354878</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.006764331123187581</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.002600406074142923</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0001192599395895472</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0002043933205084827</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0004599100697812901</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.003066841041698926</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.002408549439797218</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>7.579034895033003E-05</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0002558831805474652</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0007778005108086633</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.006145309586674618</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.04416898877420079</v>
+        <v>0.05897478454994559</v>
       </c>
       <c r="FA5">
-        <v>0.042842239515013</v>
+        <v>0.05344866109617238</v>
       </c>
       <c r="FB5">
-        <v>0.0005075397599434952</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0104504979876836</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0004088356054495753</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.003031963128402245</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.005801732528889745</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0179515712727193</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.00208022856792233</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0001172474117635157</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0005158437825364532</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.008369015154516995</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01910032052516762</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.006699085095617323</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.001324903257891564</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.003335671682072637</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.005428991837315726</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.01826993127105978</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.006627563964818956</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0003876149302197976</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>3.46720422717943E-05</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.003361634438986381</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001881499291981947</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>2.083411202420589E-06</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>5.554691055425244E-05</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0008205003443808162</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0002647895334185551</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.003193486262282313</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.00555740606358069</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.002466955738902315</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0002738673847028064</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>7.772868808143385E-06</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.002233667476889867</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.003353326824960749</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.002431626845703324</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0003181762301327203</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0002126678713447369</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0002568664027688217</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.004107185249830119</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.001271242651911089</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>5.836092210356363E-05</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.001700270997432458</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.004607732225152169</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0016188342111378</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0002455118232652368</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0007546323687065957</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5095,28 +5095,28 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002517076853827176</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0005433207801600917</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002354634064722599</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001912418910351483</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0003586162505310086</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0006244301123726466</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0005019943242733595</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0002089104444868481</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -5128,40 +5128,40 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>9.665413577309336E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.436631795905611E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0004058079695997288</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.000508238321388405</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0002200635688791931</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001893354215419946</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0002876049609699514</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001917094984737378</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0002122478182804495</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0008451763727891624</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0005724915674353503</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>5.3788656369528E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -5185,46 +5185,46 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0003160327657389618</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0004165359415292302</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0002530052998555583</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0003744051702020873</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0009502677607789957</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0005003241152900848</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002740695567234561</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0002195756022570948</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.157560990940998E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>7.744014356760929E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>3.373628054651276E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0002552511026943169</v>
+        <v>0</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -5233,40 +5233,40 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0001043549126586457</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0003504185481653865</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0002151169308533518</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0006027759295195799</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0005985812737193398</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0001397173842648312</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0002427633332018262</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0008625708587374231</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0004073471769927801</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.259170041723591E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0001397173842648312</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001422615875599228</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="BO6">
-        <v>5.493035402456005E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -5290,28 +5290,28 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0003493611986178462</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0002669849388302229</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0002911488788334785</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.001088618372682198</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0009502677607789957</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0002435409661598862</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0003773937410248392</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0004031553508432335</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
         <v>0</v>
@@ -5329,235 +5329,235 @@
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>8.843187571697716E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0002732604707167141</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0004887943306798113</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0003961111142106174</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0006003775298502881</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.000563122869803907</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001791505586694032</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.000127177894478259</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0003660745764073312</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1103458198499138</v>
+        <v>0.3117133048154946</v>
       </c>
       <c r="CO6">
-        <v>0.004032609427831511</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.1031464019043623</v>
+        <v>0.2836003401035989</v>
       </c>
       <c r="CQ6">
-        <v>0.01115452221935681</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.009552332113850424</v>
+        <v>0</v>
       </c>
       <c r="CS6">
         <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.004680907020666718</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.009045397638295594</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.003812050619004249</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.004903757846555615</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01989001859764424</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.06753039563911932</v>
+        <v>0.1445236071112982</v>
       </c>
       <c r="CZ6">
-        <v>0.006803758574347903</v>
+        <v>0</v>
       </c>
       <c r="DA6">
         <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0002461103094201633</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.05887235916087762</v>
+        <v>0.1107148914862364</v>
       </c>
       <c r="DD6">
-        <v>0.04781883438680134</v>
+        <v>0.06755204773055687</v>
       </c>
       <c r="DE6">
-        <v>0.005284509412495673</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.00363990192371448</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.02031612313068494</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.001703680134745147</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.008058353162838415</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
         <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.02195538574641274</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.01532687587738103</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>8.843187571697716E-05</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.002493137968099826</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.003514139682025892</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01090614835282747</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.003168771927548691</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.003718037773169531</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.001822655505214726</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.002056908495403021</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0007173752809455597</v>
+        <v>0</v>
       </c>
       <c r="DV6">
         <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01001016091299516</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.02210151319866382</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.005341872152643881</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.00128080416163817</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0111309329436126</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01649166634236776</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.01116160451836662</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.005560631221907392</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002567380442938391</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0005267459122397457</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0003354069652073492</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0003694439753089607</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.003025978968363797</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0009198596397844763</v>
+        <v>0</v>
       </c>
       <c r="EK6">
         <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.003837444435524578</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.01078743071552393</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.01313238165428172</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.004063017140212212</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.001145173896231885</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>5.558348235211147E-05</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0001686819237151824</v>
+        <v>0</v>
       </c>
       <c r="ES6">
         <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.002001197474462798</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.001927028958725388</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.000126760423955204</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0004363923665955654</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001506790689970528</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01422303016342926</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.05149211223453576</v>
+        <v>0.08189580875281496</v>
       </c>
       <c r="FA6">
-        <v>0.02942277569876516</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>4.061070749148984E-05</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.008789697325999865</v>
+        <v>0</v>
       </c>
       <c r="FD6">
         <v>0</v>
@@ -5566,124 +5566,124 @@
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01252039409828255</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01694787856309291</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.001325485776234956</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0002719286756979526</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.006781576973208559</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0210992876983134</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01967055007263829</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.003459374295615221</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0002422596349477142</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.002900000365658292</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.01095947654228489</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.02478469320418204</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.007925846852228309</v>
+        <v>0</v>
       </c>
       <c r="FS6">
         <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0003586162505310086</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.004959070469022763</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.003688910758649584</v>
+        <v>0</v>
       </c>
       <c r="FW6">
         <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.000987777692093163</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001506790689970528</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
         <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.005949442082497387</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.005719552270663443</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0005480336297896566</v>
+        <v>0</v>
       </c>
       <c r="GD6">
         <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0005189202323252118</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.002414127991533465</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.003582841762098899</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.003527560092128505</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.002113339493891508</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001017781898328057</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0003387561990170338</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.003550189431859513</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0002740695567234561</v>
+        <v>0</v>
       </c>
       <c r="GN6">
         <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002022592085387639</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.004142238165815846</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001108841998556563</v>
+        <v>0</v>
       </c>
       <c r="GR6">
         <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.000994463635698994</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,592 +6645,592 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>6.516579440003828E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.9599426439236E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.494007619523393E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001108878996841655</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001108878996841655</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001108878996841655</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0001261550720050663</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0488965451392256</v>
+        <v>0.07155857592139214</v>
       </c>
       <c r="CO2">
-        <v>0.04896840899604437</v>
+        <v>0.07155857592139214</v>
       </c>
       <c r="CP2">
-        <v>0.1196456744803081</v>
+        <v>0.2313957730970436</v>
       </c>
       <c r="CQ2">
-        <v>0.1238831151642974</v>
+        <v>0.2313957730970436</v>
       </c>
       <c r="CR2">
-        <v>0.1249835615590131</v>
+        <v>0.2313957730970436</v>
       </c>
       <c r="CS2">
-        <v>0.1353837511011499</v>
+        <v>0.2313957730970436</v>
       </c>
       <c r="CT2">
-        <v>0.1462709107498277</v>
+        <v>0.2313957730970436</v>
       </c>
       <c r="CU2">
-        <v>0.1745097177161598</v>
+        <v>0.2313957730970436</v>
       </c>
       <c r="CV2">
-        <v>0.2101250110892608</v>
+        <v>0.2499429643953301</v>
       </c>
       <c r="CW2">
-        <v>0.2307737326380588</v>
+        <v>0.2499429643953301</v>
       </c>
       <c r="CX2">
-        <v>0.3263754169364921</v>
+        <v>0.5102186443117385</v>
       </c>
       <c r="CY2">
-        <v>0.3699486169443228</v>
+        <v>0.5608339882977202</v>
       </c>
       <c r="CZ2">
-        <v>0.3699486169443228</v>
+        <v>0.5608339882977202</v>
       </c>
       <c r="DA2">
-        <v>0.3920159820147934</v>
+        <v>0.5608339882977202</v>
       </c>
       <c r="DB2">
-        <v>0.3958362722309954</v>
+        <v>0.5608339882977202</v>
       </c>
       <c r="DC2">
-        <v>0.463315095894683</v>
+        <v>0.7077823536017687</v>
       </c>
       <c r="DD2">
-        <v>0.5315033960851857</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DE2">
-        <v>0.5374492283460409</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DF2">
-        <v>0.5645860754004993</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DG2">
-        <v>0.5766350318804578</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DH2">
-        <v>0.6015247888145314</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DI2">
-        <v>0.6093212661153706</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DJ2">
-        <v>0.6161658647796894</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DK2">
-        <v>0.6220578426627906</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DL2">
-        <v>0.6494794925811336</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DM2">
-        <v>0.6543508082844457</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DN2">
-        <v>0.6584945566774533</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DO2">
-        <v>0.6656383677548546</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DP2">
-        <v>0.6706809938155157</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DQ2">
-        <v>0.6706809938155157</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DR2">
-        <v>0.6706809938155157</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DS2">
-        <v>0.6744099425104678</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DT2">
-        <v>0.6751743393657158</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DU2">
-        <v>0.6751743393657158</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DV2">
-        <v>0.6755161678982029</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DW2">
-        <v>0.6757122771507916</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DX2">
-        <v>0.6883376976873835</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DY2">
-        <v>0.6911960119372368</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="DZ2">
-        <v>0.6923684797258975</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EA2">
-        <v>0.6987403147548119</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EB2">
-        <v>0.712883833208763</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EC2">
-        <v>0.7181293420955892</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="ED2">
-        <v>0.7181293420955892</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EE2">
-        <v>0.7186057287084425</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EF2">
-        <v>0.7186057287084425</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EG2">
-        <v>0.7186057287084425</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EH2">
-        <v>0.7194182450253576</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EI2">
-        <v>0.7201249284968277</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EJ2">
-        <v>0.7201249284968277</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EK2">
-        <v>0.7201249284968277</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EL2">
-        <v>0.7216559249559455</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EM2">
-        <v>0.728494178215134</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EN2">
-        <v>0.7313921995591343</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EO2">
-        <v>0.7363309134410616</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EP2">
-        <v>0.7376087872138662</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EQ2">
-        <v>0.7376087872138662</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="ER2">
-        <v>0.7400341936232878</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="ES2">
-        <v>0.7400341936232878</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="ET2">
-        <v>0.7426839390704012</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EU2">
-        <v>0.7447868750864197</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EV2">
-        <v>0.7451084005184935</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EW2">
-        <v>0.7476952207329218</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EX2">
-        <v>0.7489020165568223</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EY2">
-        <v>0.7518711615475192</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="EZ2">
-        <v>0.7950208047171853</v>
+        <v>0.9064982397962181</v>
       </c>
       <c r="FA2">
-        <v>0.8492365290850289</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8494890362837758</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8653281326326937</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8653281326326937</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8704382537052785</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8749348688436379</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.900579813691221</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9051706698077856</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9051706698077856</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9056573670870032</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9158575299672849</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9405507121482599</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9495644955038193</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9495644955038193</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9497122286969309</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9517975487891287</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9678745805761182</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.973611846334809</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9756643389943317</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9766173203907369</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.980946465564025</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9850131600544866</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9850131600544866</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9850131600544866</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9872612990803783</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9872612990803783</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9877567158643836</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.989588092383151</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9899873074817717</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9912407994431923</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.992054792102059</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9921739219489148</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9938092571343525</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9949771149882776</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9949771149882776</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9949771149882776</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9949771149882776</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9981698948314628</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.999106434643197</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9993048950106039</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9993048950106039</v>
+        <v>1</v>
       </c>
       <c r="GP2">
         <v>1</v>
@@ -7427,763 +7427,763 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0003863479124629106</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.001189910637326157</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001572672428282493</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001695086945896985</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001794910710128542</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001794910710128542</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001824842376758679</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001824842376758679</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001876061056789638</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001876061056789638</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001876061056789638</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001876061056789638</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001876061056789638</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001876061056789638</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001876061056789638</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001891812634758093</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001891812634758093</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002112436657418707</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002880716188638485</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003535528179003943</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003761400448790342</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.004055556569898152</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004263628425968649</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004372768497320879</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.004407937188359481</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.004600777963735488</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.00469691381950321</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.00469691381950321</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.00469691381950321</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.004891020826274914</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.004950034404208802</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.00496270806443595</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.07151528102988959</v>
+        <v>0.1380077929650518</v>
       </c>
       <c r="CO3">
-        <v>0.07151528102988959</v>
+        <v>0.1380077929650518</v>
       </c>
       <c r="CP3">
-        <v>0.1681412769301102</v>
+        <v>0.3917064703724127</v>
       </c>
       <c r="CQ3">
-        <v>0.1761153993634854</v>
+        <v>0.3917064703724127</v>
       </c>
       <c r="CR3">
-        <v>0.1835197753267938</v>
+        <v>0.3917064703724127</v>
       </c>
       <c r="CS3">
-        <v>0.1858053192894428</v>
+        <v>0.3917064703724127</v>
       </c>
       <c r="CT3">
-        <v>0.1858868451852912</v>
+        <v>0.3917064703724127</v>
       </c>
       <c r="CU3">
-        <v>0.2093011975500893</v>
+        <v>0.3917064703724127</v>
       </c>
       <c r="CV3">
-        <v>0.2321514292179793</v>
+        <v>0.3917064703724127</v>
       </c>
       <c r="CW3">
-        <v>0.2509368946040729</v>
+        <v>0.3917064703724127</v>
       </c>
       <c r="CX3">
-        <v>0.311300561107072</v>
+        <v>0.5059058640100855</v>
       </c>
       <c r="CY3">
-        <v>0.3656977265758782</v>
+        <v>0.5971524403655681</v>
       </c>
       <c r="CZ3">
-        <v>0.3657156941257136</v>
+        <v>0.5971524403655681</v>
       </c>
       <c r="DA3">
-        <v>0.3761979826822927</v>
+        <v>0.5971524403655681</v>
       </c>
       <c r="DB3">
-        <v>0.3779099356219879</v>
+        <v>0.5971524403655681</v>
       </c>
       <c r="DC3">
-        <v>0.4491344063728688</v>
+        <v>0.7531327796547465</v>
       </c>
       <c r="DD3">
-        <v>0.5213221425137641</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DE3">
-        <v>0.5272811230918248</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DF3">
-        <v>0.5461877382261793</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DG3">
-        <v>0.5592707247250598</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DH3">
-        <v>0.5726630700600672</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DI3">
-        <v>0.5821013287870055</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DJ3">
-        <v>0.5862254537710335</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DK3">
-        <v>0.5935881322944275</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DL3">
-        <v>0.6125302575478289</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DM3">
-        <v>0.614717103477458</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DN3">
-        <v>0.6180424309641729</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DO3">
-        <v>0.6266710334425866</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DP3">
-        <v>0.6361940731064228</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DQ3">
-        <v>0.6368176631471407</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DR3">
-        <v>0.6371881001911217</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DS3">
-        <v>0.6408875466379681</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DT3">
-        <v>0.6430649200793767</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DU3">
-        <v>0.6430649200793767</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DV3">
-        <v>0.6441566963935667</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DW3">
-        <v>0.6448571973531462</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DX3">
-        <v>0.6639968650827158</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DY3">
-        <v>0.6686141505516517</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="DZ3">
-        <v>0.6719347581135287</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EA3">
-        <v>0.6805736741661977</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EB3">
-        <v>0.6993504568756721</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EC3">
-        <v>0.7089196013155471</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="ED3">
-        <v>0.7117981502636224</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EE3">
-        <v>0.7141237308069833</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EF3">
-        <v>0.7141494489713206</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EG3">
-        <v>0.7141494489713206</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EH3">
-        <v>0.7141494489713206</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EI3">
-        <v>0.7141494489713206</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EJ3">
-        <v>0.7141494489713206</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EK3">
-        <v>0.7143614914350745</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EL3">
-        <v>0.71525441077372</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EM3">
-        <v>0.7231636308943509</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EN3">
-        <v>0.728602785502272</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EO3">
-        <v>0.7331459235074891</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EP3">
-        <v>0.7341299542192861</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EQ3">
-        <v>0.7341299542192861</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="ER3">
-        <v>0.7345307547677044</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="ES3">
-        <v>0.7346144375256765</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="ET3">
-        <v>0.7375044151124893</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EU3">
-        <v>0.7413899049716414</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EV3">
-        <v>0.7413899049716414</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EW3">
-        <v>0.7413957320329869</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EX3">
-        <v>0.7416543157952991</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EY3">
-        <v>0.7449624524471777</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="EZ3">
-        <v>0.7837261461772221</v>
+        <v>0.9439241790923155</v>
       </c>
       <c r="FA3">
-        <v>0.828980802202734</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8292262885391314</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8462778935205983</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8462778935205983</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.849964504679496</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8548690826512528</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8767778426224762</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8799769180400177</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8799769180400177</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8800324957161199</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8873436752489517</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9029424232825647</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9085085917659476</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9093121544908108</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9112996928888313</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9170431664061567</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9400467662874766</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9503694008793201</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.950481091318331</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.950481091318331</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9561277138148017</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9593614890506075</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9593614890506075</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9595887750018214</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9611937879037135</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9611937879037135</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9640464510880088</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9700252454249764</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9728338915675364</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9728338915675364</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9728338915675364</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9769235117408837</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9826682496157199</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9872389440251867</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9894689512900958</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9910854197034706</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9910854197034706</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9937236716378602</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9939465747473026</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9940511437544105</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9945789191149974</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9975848377707459</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9987825257511741</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9989607407518659</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,595 +8191,595 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0009773290068827193</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001742613864293528</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.002468863291830094</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002548547547684334</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.002548547547684334</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002589985590384735</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.002862534985395174</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002862534985395174</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002862534985395174</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002926196255708176</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.002926196255708176</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.003099433582028615</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.003173036566272666</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.003173036566272666</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.003173036566272666</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.003302187524408458</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.003511713641647225</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.004111257864109609</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.004825928683776512</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.005653159601598056</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.006105025321864441</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.006129200848048655</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.006412986732222392</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.007004473714190344</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.00708107734936933</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.00708107734936933</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.007141861819371614</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.007141861819371614</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.007141861819371614</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.007191146829429158</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.007619158901208822</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.008005547798614449</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.008442204658168662</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.008926566481146425</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.009518776620081009</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.009623713254229112</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.009636607872635069</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.009636607872635069</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.009742526647204689</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.009785032907880128</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.009785032907880128</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.009785032907880128</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.009785032907880128</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.009902203045457159</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.009902203045457159</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.009902203045457159</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.009902203045457159</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.010212442446931</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.01027779392772478</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.01037395144279133</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0107695804672791</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.01109363108526597</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.01122487066187072</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.01150728967426632</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.01173543676887392</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.01173543676887392</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01180288010466892</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01180288010466892</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.01180288010466892</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01180288010466892</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01180288010466892</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.01180288010466892</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.01201820801540739</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0120719241019021</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0120719241019021</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0120719241019021</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01239509609776998</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01279446613755332</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01317110751296265</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01368300410865736</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01422844378973444</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01425290909614463</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.01425290909614463</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01425290909614463</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01425290909614463</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01425290909614463</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01451823467293275</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01470499563110631</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01493693558640063</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01505208662500384</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01530901850398612</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01533000031349212</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01533000031349212</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01539245850693789</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01548260070868932</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01548260070868932</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01548260070868932</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01551001769801178</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01558451791189877</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01569334224017217</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.05772379083390564</v>
+        <v>0.04468279132553272</v>
       </c>
       <c r="CO4">
-        <v>0.06049815445262385</v>
+        <v>0.04468279132553272</v>
       </c>
       <c r="CP4">
-        <v>0.1354719113179857</v>
+        <v>0.2154245999332355</v>
       </c>
       <c r="CQ4">
-        <v>0.149586674743282</v>
+        <v>0.2154245999332355</v>
       </c>
       <c r="CR4">
-        <v>0.1528149896062455</v>
+        <v>0.2154245999332355</v>
       </c>
       <c r="CS4">
-        <v>0.1543967675922188</v>
+        <v>0.2154245999332355</v>
       </c>
       <c r="CT4">
-        <v>0.15626866528495</v>
+        <v>0.2154245999332355</v>
       </c>
       <c r="CU4">
-        <v>0.2063333739795837</v>
+        <v>0.2908508407192182</v>
       </c>
       <c r="CV4">
-        <v>0.2113183263575611</v>
+        <v>0.2908508407192182</v>
       </c>
       <c r="CW4">
-        <v>0.2402343249847612</v>
+        <v>0.2908508407192182</v>
       </c>
       <c r="CX4">
-        <v>0.2823282197563826</v>
+        <v>0.3357764116335193</v>
       </c>
       <c r="CY4">
-        <v>0.3695895818831099</v>
+        <v>0.5535372819343353</v>
       </c>
       <c r="CZ4">
-        <v>0.3716499917516063</v>
+        <v>0.5535372819343353</v>
       </c>
       <c r="DA4">
-        <v>0.3816469101275655</v>
+        <v>0.5535372819343353</v>
       </c>
       <c r="DB4">
-        <v>0.3949195390229461</v>
+        <v>0.5535372819343353</v>
       </c>
       <c r="DC4">
-        <v>0.4509201239504979</v>
+        <v>0.6516774140654285</v>
       </c>
       <c r="DD4">
-        <v>0.5389830503203336</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DE4">
-        <v>0.5432775928431921</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DF4">
-        <v>0.5637699237817961</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DG4">
-        <v>0.582260041516531</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DH4">
-        <v>0.5906747055173787</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DI4">
-        <v>0.5973993649985875</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DJ4">
-        <v>0.5982969241387724</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DK4">
-        <v>0.6093584485603669</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DL4">
-        <v>0.623726445776522</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DM4">
-        <v>0.6284343249193706</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DN4">
-        <v>0.6284587902257808</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DO4">
-        <v>0.6312650178595649</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DP4">
-        <v>0.6404072603968024</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DQ4">
-        <v>0.641561828199907</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DR4">
-        <v>0.6418388820158425</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DS4">
-        <v>0.6436021118701855</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DT4">
-        <v>0.644155330358671</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DU4">
-        <v>0.644155330358671</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DV4">
-        <v>0.6454934789378604</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DW4">
-        <v>0.6459909532211997</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DX4">
-        <v>0.6591320307777095</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DY4">
-        <v>0.6641291263405891</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="DZ4">
-        <v>0.6641501081500951</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EA4">
-        <v>0.6704554256713881</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EB4">
-        <v>0.6845135913804451</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EC4">
-        <v>0.6951402334144091</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="ED4">
-        <v>0.6976524952453734</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EE4">
-        <v>0.698945286310875</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EF4">
-        <v>0.698945286310875</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EG4">
-        <v>0.6990502229450232</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EH4">
-        <v>0.6997785039813902</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EI4">
-        <v>0.6997785039813902</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EJ4">
-        <v>0.6997785039813902</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EK4">
-        <v>0.6998798061521601</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EL4">
-        <v>0.7013595369866324</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EM4">
-        <v>0.7128036905407709</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EN4">
-        <v>0.718537439003913</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EO4">
-        <v>0.7245630694098184</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EP4">
-        <v>0.727882302724833</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EQ4">
-        <v>0.728158002239722</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="ER4">
-        <v>0.7295715395978691</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="ES4">
-        <v>0.7295715395978691</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="ET4">
-        <v>0.7306293424933071</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EU4">
-        <v>0.732312732271538</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EV4">
-        <v>0.7324657835187208</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EW4">
-        <v>0.7335615180647868</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EX4">
-        <v>0.7351715542239445</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EY4">
-        <v>0.7399687111303506</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="EZ4">
-        <v>0.7796085819278634</v>
+        <v>0.9080406454780976</v>
       </c>
       <c r="FA4">
-        <v>0.8339939292744164</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8379142982320467</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8471963574404248</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8473520414696204</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8494299142051104</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8536259132494474</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8760044485099383</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8811362988684012</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.881288314912267</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8826158767843343</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8928046505013889</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9161700399541832</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9257839893109833</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9259489032097873</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9275462425239657</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9304919289840868</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9507219465935661</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9628546099859153</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9628588061814243</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9633505609948458</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9670865593204812</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9714408143413954</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9715699652995312</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9718892265600051</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9756311046197067</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9757960185185107</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9775828244303615</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.982039292690654</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9840309054498944</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9842379919929058</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9842379919929058</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9855575263518752</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.988393224691661</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9911434899435296</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9918415639475903</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9922885803888407</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9923809805842</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9946049416598205</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9959692096629861</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9960987670747843</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9964123184937701</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.999213219140437</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
         <v>1</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002312872188678193</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002383100634806221</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002383100634806221</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002383100634806221</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002599524150230905</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002599524150230905</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002599524150230905</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002850858191962064</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0003047821014238905</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.000475780120070524</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001040029202170826</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001497313854635732</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001643026916752855</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001876177028755295</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.002262585567728432</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002512922745896508</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002794967292585768</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002943919646902715</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002945481669115637</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002951782497705958</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002977668319028999</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002996520131385616</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002996520131385616</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.003077614232078103</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.00337007179266701</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003638547346491637</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003671755408760944</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.003746470248675392</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.004061745381519059</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.004629896920364973</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.00479190433253055</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.004868777669500236</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.004932485968748752</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.004964851700000212</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.004966223671599235</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.004980345040914707</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.005090147923949616</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.005141891580331577</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.005141891580331577</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.005149284774682169</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.005248150244627121</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.00547416398983114</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.005851782692413272</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.006187710233797035</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.006402174291666175</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.007015472820289728</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.007857732244677661</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.008516864316954979</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.008835040547087699</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.009053422047680572</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.009212044519545222</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.009334241180634828</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.009385830925619339</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.009385830925619339</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.009511927832572606</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.009708200563662239</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.009776790730357253</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.009789626868975883</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01021980900986267</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01090649807501718</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01152335698392717</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01253575417869644</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.01329769476275429</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01364344896413277</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01406855978199653</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01491855564255911</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.01517838294647359</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.01527952008662016</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01532036585567956</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0153243237086235</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01539992889370933</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0155885169192604</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01577179405622233</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01596863278309575</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01636028259288651</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01689107957046557</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01758203963938435</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01802287042816854</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.01851260592573804</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01912287377538055</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.01985025931493869</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.02019107690703337</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.02066511556290901</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.02131432473680075</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.02162344512442883</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.02169237326594682</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.02170993776577613</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.02174338471734178</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.02178903132152272</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0231520804963642</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.08139065182756103</v>
+        <v>0.1175768524347332</v>
       </c>
       <c r="CO5">
-        <v>0.0821380111449438</v>
+        <v>0.1175768524347332</v>
       </c>
       <c r="CP5">
-        <v>0.1934689117629438</v>
+        <v>0.4562917715052561</v>
       </c>
       <c r="CQ5">
-        <v>0.218938395037903</v>
+        <v>0.4562917715052561</v>
       </c>
       <c r="CR5">
-        <v>0.2213921990303863</v>
+        <v>0.4562917715052561</v>
       </c>
       <c r="CS5">
-        <v>0.2271119523566038</v>
+        <v>0.4562917715052561</v>
       </c>
       <c r="CT5">
-        <v>0.2271189120530258</v>
+        <v>0.4562917715052561</v>
       </c>
       <c r="CU5">
-        <v>0.2406010744148344</v>
+        <v>0.4562917715052561</v>
       </c>
       <c r="CV5">
-        <v>0.2670726324316893</v>
+        <v>0.4562917715052561</v>
       </c>
       <c r="CW5">
-        <v>0.2832640065366728</v>
+        <v>0.4562917715052561</v>
       </c>
       <c r="CX5">
-        <v>0.3316554897240723</v>
+        <v>0.5328539225064093</v>
       </c>
       <c r="CY5">
-        <v>0.3863482125657726</v>
+        <v>0.635661747285285</v>
       </c>
       <c r="CZ5">
-        <v>0.3865091692888033</v>
+        <v>0.635661747285285</v>
       </c>
       <c r="DA5">
-        <v>0.3961025648661203</v>
+        <v>0.635661747285285</v>
       </c>
       <c r="DB5">
-        <v>0.397640334239339</v>
+        <v>0.635661747285285</v>
       </c>
       <c r="DC5">
-        <v>0.4606776598620126</v>
+        <v>0.7732261809870762</v>
       </c>
       <c r="DD5">
-        <v>0.518141596180263</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DE5">
-        <v>0.5321182678088656</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DF5">
-        <v>0.5512270427066029</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DG5">
-        <v>0.5610394131361093</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DH5">
-        <v>0.566393541709402</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DI5">
-        <v>0.5834097148384709</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DJ5">
-        <v>0.5877299643826845</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DK5">
-        <v>0.5942106114402554</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DL5">
-        <v>0.6074313395121999</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DM5">
-        <v>0.6077967550167523</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DN5">
-        <v>0.6128493316966973</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DO5">
-        <v>0.6187759826573298</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DP5">
-        <v>0.6286753347850752</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DQ5">
-        <v>0.6306075787198183</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DR5">
-        <v>0.6308457581180748</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DS5">
-        <v>0.6326623239071569</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DT5">
-        <v>0.6344980673464772</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DU5">
-        <v>0.6347602092137039</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DV5">
-        <v>0.6374045126991498</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DW5">
-        <v>0.638130247280117</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DX5">
-        <v>0.6533909631322601</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DY5">
-        <v>0.6554093267213607</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="DZ5">
-        <v>0.6602980580410563</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EA5">
-        <v>0.6714650058307765</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EB5">
-        <v>0.6956052298452727</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EC5">
-        <v>0.7083681522920288</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="ED5">
-        <v>0.7110124557774746</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EE5">
-        <v>0.7139452970647618</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EF5">
-        <v>0.7145178384947979</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EG5">
-        <v>0.7145440485294542</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EH5">
-        <v>0.7151700553876115</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EI5">
-        <v>0.7154104613640817</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EJ5">
-        <v>0.7154104613640817</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EK5">
-        <v>0.7154362363011715</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EL5">
-        <v>0.7184278731428433</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EM5">
-        <v>0.7292463169093418</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EN5">
-        <v>0.7386114229186967</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EO5">
-        <v>0.7453757540418843</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EP5">
-        <v>0.7479761601160272</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EQ5">
-        <v>0.7480954200556167</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="ER5">
-        <v>0.7482998133761252</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="ES5">
-        <v>0.7487597234459065</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="ET5">
-        <v>0.7518265644876054</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EU5">
-        <v>0.7542351139274026</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EV5">
-        <v>0.7543109042763529</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EW5">
-        <v>0.7545667874569004</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EX5">
-        <v>0.7553445879677091</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EY5">
-        <v>0.7614898975543837</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="EZ5">
-        <v>0.8056588863285845</v>
+        <v>0.9465513389038278</v>
       </c>
       <c r="FA5">
-        <v>0.8485011258435975</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8490086656035409</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8594591635912245</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8598679991966741</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8628999623250764</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8687016948539661</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8866532661266854</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8887334946946077</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8888507421063713</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8893665858889077</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8977356010434248</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9168359215685924</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9235350066642097</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9248599099221013</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9281955816041739</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9336245734414896</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9518945047125494</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9585220686773684</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9589096836075882</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.95894435564986</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9623059900888464</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9641874893808283</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9641895727920308</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.964245119702585</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9650656200469658</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9653304095803844</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9685238958426667</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9740813019062474</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9765482576451497</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9768221250298526</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9768298978986607</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9790635653755506</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9824168922005113</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9848485190462146</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9851666952763474</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9853793631476921</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9856362295504609</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.989743414800291</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9910146574522022</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9910730183743057</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9927732893717381</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9973810215968903</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9989998558080282</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9992453676312935</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9746,592 +9746,592 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002517076853827176</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0007950284655428093</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001030491872015069</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001221733763050217</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001580350013581226</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.002204780125953872</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.002706774450227232</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00291568489471408</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.00291568489471408</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.00291568489471408</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00291568489471408</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.003012339030487173</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.003056705348446229</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.003056705348446229</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.003462513318045958</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.003970751639434363</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.004190815208313556</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.004380150629855551</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.004667755590825502</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.00485946508929924</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.00507171290757969</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.005916889280368853</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.006489380847804203</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.006489380847804203</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.006489380847804203</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.006543169504173731</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.006543169504173731</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.006543169504173731</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.006543169504173731</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006543169504173731</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.006859202269912693</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.007275738211441923</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.007528743511297482</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.007903148681499569</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.008853416442278564</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.009353740557568649</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.009627810114292104</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.009847385716549199</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.009908961326458609</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.009908961326458609</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.009986401470026218</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.01002013775057273</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.01002013775057273</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.01027538885326705</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.01027538885326705</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.01027538885326705</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01037974376592569</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.01073016231409108</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.01094527924494443</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.01154805517446401</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01214663644818335</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.01228635383244818</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01252911716565001</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01339168802438743</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.01379903520138021</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.01381162690179745</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01395134428606228</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0140936058736222</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0140936058736222</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0140936058736222</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0140936058736222</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0140936058736222</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.01414853622764676</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01414853622764676</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01414853622764676</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0144978974262646</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01476488236509483</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01505603124392831</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0161446496166105</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0170949173773895</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01733845834354938</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01771585208457422</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01811900743541746</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01811900743541746</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01811900743541746</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01811900743541746</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01811900743541746</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01811900743541746</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01820743931113444</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01848069978185115</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01896949411253096</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01936560522674158</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01996598275659187</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.02052910562639577</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.02070825618506518</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.02083543407954343</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.02120150865595077</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1315473285058645</v>
+        <v>0.3117133048154946</v>
       </c>
       <c r="CO6">
-        <v>0.135579937933696</v>
+        <v>0.3117133048154946</v>
       </c>
       <c r="CP6">
-        <v>0.2387263398380584</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CQ6">
-        <v>0.2498808620574152</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CR6">
-        <v>0.2594331941712656</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CS6">
-        <v>0.2594331941712656</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CT6">
-        <v>0.2641141011919323</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CU6">
-        <v>0.2731594988302279</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CV6">
-        <v>0.2769715494492321</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CW6">
-        <v>0.2818753072957877</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CX6">
-        <v>0.301765325893432</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="CY6">
-        <v>0.3692957215325513</v>
+        <v>0.7398372520303917</v>
       </c>
       <c r="CZ6">
-        <v>0.3760994801068992</v>
+        <v>0.7398372520303917</v>
       </c>
       <c r="DA6">
-        <v>0.3760994801068992</v>
+        <v>0.7398372520303917</v>
       </c>
       <c r="DB6">
-        <v>0.3763455904163194</v>
+        <v>0.7398372520303917</v>
       </c>
       <c r="DC6">
-        <v>0.435217949577197</v>
+        <v>0.8505521435166281</v>
       </c>
       <c r="DD6">
-        <v>0.4830367839639984</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DE6">
-        <v>0.488321293376494</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DF6">
-        <v>0.4919611953002085</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DG6">
-        <v>0.5122773184308935</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DH6">
-        <v>0.5139809985656387</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DI6">
-        <v>0.5220393517284772</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DJ6">
-        <v>0.5220393517284772</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DK6">
-        <v>0.5439947374748899</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DL6">
-        <v>0.5593216133522709</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DM6">
-        <v>0.5594100452279879</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DN6">
-        <v>0.5619031831960877</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DO6">
-        <v>0.5654173228781135</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DP6">
-        <v>0.576323471230941</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DQ6">
-        <v>0.5794922431584897</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DR6">
-        <v>0.5832102809316592</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DS6">
-        <v>0.5850329364368739</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DT6">
-        <v>0.587089844932277</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DU6">
-        <v>0.5878072202132225</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DV6">
-        <v>0.5878072202132225</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DW6">
-        <v>0.5978173811262176</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DX6">
-        <v>0.6199188943248815</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DY6">
-        <v>0.6252607664775254</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="DZ6">
-        <v>0.6265415706391635</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EA6">
-        <v>0.6376725035827761</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EB6">
-        <v>0.6541641699251438</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EC6">
-        <v>0.6653257744435104</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="ED6">
-        <v>0.6708864056654178</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EE6">
-        <v>0.6734537861083562</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EF6">
-        <v>0.6739805320205959</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EG6">
-        <v>0.6743159389858033</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EH6">
-        <v>0.6746853829611122</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EI6">
-        <v>0.677711361929476</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EJ6">
-        <v>0.6786312215692605</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EK6">
-        <v>0.6786312215692605</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EL6">
-        <v>0.6824686660047851</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EM6">
-        <v>0.693256096720309</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EN6">
-        <v>0.7063884783745907</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EO6">
-        <v>0.7104514955148029</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EP6">
-        <v>0.7115966694110348</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EQ6">
-        <v>0.711652252893387</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="ER6">
-        <v>0.7118209348171022</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="ES6">
-        <v>0.7118209348171022</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="ET6">
-        <v>0.713822132291565</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EU6">
-        <v>0.7157491612502904</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EV6">
-        <v>0.7158759216742456</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EW6">
-        <v>0.7163123140408412</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EX6">
-        <v>0.7178191047308117</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EY6">
-        <v>0.732042134894241</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="EZ6">
-        <v>0.7835342471287767</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8129570228275419</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8129976335350334</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8217873308610333</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8217873308610333</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8217873308610333</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8343077249593158</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8512556035224087</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8525810892986436</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8528530179743415</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8596345949475501</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8807338826458635</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9004044327185018</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9038638070141171</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9041060666490648</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9070060670147231</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.917965543557008</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9427502367611901</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9506760836134184</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9506760836134184</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9510346998639494</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9559937703329722</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9596826810916218</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9596826810916218</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9606704587837149</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9621772494736854</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9621772494736854</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9681266915561828</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9738462438268463</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9743942774566359</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9743942774566359</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9749131976889611</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9773273256804946</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9809101674425935</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.984437727534722</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9865510670286135</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9875688489269415</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9879076051259585</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.991457794557818</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9917318641145415</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9917318641145415</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9937544561999292</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.997896694365745</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9990055363643016</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9990055363643016</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.0488965451392256</v>
+        <v>0.07155857592139214</v>
       </c>
       <c r="F2">
-        <v>0.5315033960851857</v>
+        <v>0.5102186443117385</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.07151528102988959</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5213221425137641</v>
+        <v>0.5059058640100855</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -10652,16 +10652,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.05772379083390564</v>
+        <v>0.04468279132553272</v>
       </c>
       <c r="F4">
-        <v>0.5389830503203336</v>
+        <v>0.5535372819343353</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.08139065182756103</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.518141596180263</v>
+        <v>0.5328539225064093</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.02083543407954343</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5122773184308935</v>
+        <v>0.5953136449190936</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -10829,16 +10829,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.0488965451392256</v>
+        <v>0.07155857592139214</v>
       </c>
       <c r="F2">
-        <v>0.712883833208763</v>
+        <v>0.7077823536017687</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.07151528102988959</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7089196013155471</v>
+        <v>0.7531327796547465</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -10911,16 +10911,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.05772379083390564</v>
+        <v>0.04468279132553272</v>
       </c>
       <c r="F4">
-        <v>0.7013595369866324</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.08139065182756103</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7083681522920288</v>
+        <v>0.7732261809870762</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.02083543407954343</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7063884783745907</v>
+        <v>0.7398372520303917</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -11088,16 +11088,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.0488965451392256</v>
+        <v>0.07155857592139214</v>
       </c>
       <c r="F2">
-        <v>0.8492365290850289</v>
+        <v>0.8575897121856516</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.07151528102988959</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.828980802202734</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -11170,16 +11170,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.05772379083390564</v>
+        <v>0.04468279132553272</v>
       </c>
       <c r="F4">
-        <v>0.8339939292744164</v>
+        <v>0.8725055051790915</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.08139065182756103</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8056588863285845</v>
+        <v>0.8875765543538822</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.02083543407954343</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8129570228275419</v>
+        <v>0.8505521435166281</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -11347,16 +11347,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E2">
-        <v>0.0488965451392256</v>
+        <v>0.07155857592139214</v>
       </c>
       <c r="F2">
-        <v>0.900579813691221</v>
+        <v>0.9064982397962181</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.07151528102988959</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9029424232825647</v>
+        <v>0.9128187504965802</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -11429,16 +11429,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E4">
-        <v>0.05772379083390564</v>
+        <v>0.04468279132553272</v>
       </c>
       <c r="F4">
-        <v>0.9161700399541832</v>
+        <v>0.9080406454780976</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E5">
-        <v>0.08139065182756103</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9168359215685924</v>
+        <v>0.9465513389038278</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.02083543407954343</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9004044327185018</v>
+        <v>0.918104191247185</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>9</v>

--- a/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08991804751633622</v>
+        <v>0.08255834009622605</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1588258611401738</v>
+        <v>0.1253333663955731</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -683,64 +683,64 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.007637279683622558</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.008588129985992947</v>
       </c>
       <c r="K2">
-        <v>0.02533619936204987</v>
+        <v>0.04246868831391508</v>
       </c>
       <c r="L2">
-        <v>0.04853884879698281</v>
+        <v>0.05687190164486957</v>
       </c>
       <c r="M2">
-        <v>0.00146167680309322</v>
+        <v>0.02764840485638793</v>
       </c>
       <c r="N2">
-        <v>0.2372253212929023</v>
+        <v>0.1740004012864822</v>
       </c>
       <c r="O2">
-        <v>0.07357034857879269</v>
+        <v>0.0724103871252537</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.005924002969152995</v>
+        <v>0.03041842626718829</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1487652007920768</v>
+        <v>0.1190881383387395</v>
       </c>
       <c r="T2">
-        <v>0.150996850689635</v>
+        <v>0.1204734512377975</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.02186999768870391</v>
+        <v>0.04031701842426234</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0108566365195112</v>
       </c>
       <c r="X2">
-        <v>0.01480180269221553</v>
+        <v>0.03592938499107629</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.002553311409863614</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.0006946878984853317</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02276584167788493</v>
+        <v>0.04087312009375536</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.001278925430997336</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1507088421227853</v>
+        <v>0.1238361575677013</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2461533462889586</v>
+        <v>0.1855586826212371</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.003610073280380999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002440728811374573</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -796,58 +796,58 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01380038029682257</v>
+        <v>0.03529951484617152</v>
       </c>
       <c r="L3">
-        <v>0.01201002140342178</v>
+        <v>0.03414171668253544</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02579921309692247</v>
       </c>
       <c r="N3">
-        <v>0.1310670105321115</v>
+        <v>0.111134080554006</v>
       </c>
       <c r="O3">
-        <v>0.1121310306122083</v>
+        <v>0.09888846719753042</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.008757819405379137</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1655361189715957</v>
+        <v>0.1334247344561416</v>
       </c>
       <c r="T3">
-        <v>0.1685932497720962</v>
+        <v>0.1354017349557963</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.02604786016275469</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01409547731843336</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.01473040366369149</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.006615058421489239</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.002355149218876323</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.0261207409325054</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.004953324464808982</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.006789062342263479</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07240077589680524</v>
+        <v>0.07406299763220055</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1752229898955147</v>
+        <v>0.1421996459907697</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01632498272710818</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -903,58 +903,58 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.09747720126989122</v>
+        <v>0.09068025874036251</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.03146812973340856</v>
+        <v>0.04693837922964312</v>
       </c>
       <c r="N4">
-        <v>0.07259880326025032</v>
+        <v>0.07419422336936082</v>
       </c>
       <c r="O4">
-        <v>0.2135748994031547</v>
+        <v>0.1676141013927368</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.007808043329027344</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01458319578020061</v>
       </c>
       <c r="S4">
-        <v>0.1160041789267345</v>
+        <v>0.1029574322484844</v>
       </c>
       <c r="T4">
-        <v>0.2160767310182142</v>
+        <v>0.1692719768106869</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.005176290596026589</v>
+        <v>0.02951570636221833</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.02537452855803249</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00453546641957254</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.001040029873565519</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.01000996813796743</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.01684874620641609</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.006040317191646783</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1333388363019706</v>
+        <v>0.1123349555335228</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3105272346558061</v>
+        <v>0.226711022269978</v>
       </c>
       <c r="G5">
-        <v>0.02397648007843654</v>
+        <v>0.04174096478645225</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1010,58 +1010,58 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0159168460263316</v>
       </c>
       <c r="L5">
-        <v>0.02732076767953579</v>
+        <v>0.0438997204691205</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02175326321320363</v>
       </c>
       <c r="N5">
-        <v>0.1004755244057607</v>
+        <v>0.09112151046859383</v>
       </c>
       <c r="O5">
-        <v>0.1215050512128802</v>
+        <v>0.1046961834374412</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.007539329815603492</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1493540234000383</v>
+        <v>0.12267284517722</v>
       </c>
       <c r="T5">
-        <v>0.1307535977355606</v>
+        <v>0.1106661700963923</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.01698216046366018</v>
       </c>
       <c r="V5">
-        <v>0.002748484530011372</v>
+        <v>0.02803817917472546</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.008011064294840813</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.02353011628200288</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.0008335789621221891</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.01535364177090774</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.008198447757881176</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2969602702621108</v>
+        <v>0.2395425462300438</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2740812873240845</v>
+        <v>0.2230862494747528</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.01281290757092773</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.009150650978240853</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.007991909503817516</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1126,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.009501374397487694</v>
+        <v>0.0327803440766377</v>
       </c>
       <c r="O6">
-        <v>0.1608974152630609</v>
+        <v>0.1416758392482845</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.002868012275796494</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1333830980834478</v>
+        <v>0.1218854591534439</v>
       </c>
       <c r="T6">
-        <v>0.09825617440381806</v>
+        <v>0.09661951609390018</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,22 +1153,22 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01085548919051451</v>
+        <v>0.03375432595927383</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.005735741446671935</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01606489107547593</v>
+        <v>0.03750132221206673</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.02234999660836813</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.01224517916777378</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08991804751633622</v>
+        <v>0.08255834009622605</v>
       </c>
       <c r="E2">
-        <v>0.08991804751633622</v>
+        <v>0.08255834009622605</v>
       </c>
       <c r="F2">
-        <v>0.2487439086565101</v>
+        <v>0.2078917064917991</v>
       </c>
       <c r="G2">
-        <v>0.2487439086565101</v>
+        <v>0.2078917064917991</v>
       </c>
       <c r="H2">
-        <v>0.2487439086565101</v>
+        <v>0.2078917064917991</v>
       </c>
       <c r="I2">
-        <v>0.2487439086565101</v>
+        <v>0.2155289861754217</v>
       </c>
       <c r="J2">
-        <v>0.2487439086565101</v>
+        <v>0.2241171161614146</v>
       </c>
       <c r="K2">
-        <v>0.2740801080185599</v>
+        <v>0.2665858044753297</v>
       </c>
       <c r="L2">
-        <v>0.3226189568155428</v>
+        <v>0.3234577061201993</v>
       </c>
       <c r="M2">
-        <v>0.324080633618636</v>
+        <v>0.3511061109765872</v>
       </c>
       <c r="N2">
-        <v>0.5613059549115382</v>
+        <v>0.5251065122630694</v>
       </c>
       <c r="O2">
-        <v>0.6348763034903309</v>
+        <v>0.5975168993883231</v>
       </c>
       <c r="P2">
-        <v>0.6348763034903309</v>
+        <v>0.5975168993883231</v>
       </c>
       <c r="Q2">
-        <v>0.6408003064594838</v>
+        <v>0.6279353256555114</v>
       </c>
       <c r="R2">
-        <v>0.6408003064594838</v>
+        <v>0.6279353256555114</v>
       </c>
       <c r="S2">
-        <v>0.7895655072515606</v>
+        <v>0.7470234639942509</v>
       </c>
       <c r="T2">
-        <v>0.9405623579411956</v>
+        <v>0.8674969152320484</v>
       </c>
       <c r="U2">
-        <v>0.9405623579411956</v>
+        <v>0.8674969152320484</v>
       </c>
       <c r="V2">
-        <v>0.9624323556298995</v>
+        <v>0.9078139336563108</v>
       </c>
       <c r="W2">
-        <v>0.9624323556298995</v>
+        <v>0.918670570175822</v>
       </c>
       <c r="X2">
-        <v>0.977234158322115</v>
+        <v>0.9545999551668982</v>
       </c>
       <c r="Y2">
-        <v>0.977234158322115</v>
+        <v>0.9571532665767618</v>
       </c>
       <c r="Z2">
-        <v>0.977234158322115</v>
+        <v>0.9578479544752472</v>
       </c>
       <c r="AA2">
-        <v>0.977234158322115</v>
+        <v>0.9578479544752472</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9987210745690025</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9987210745690025</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9987210745690025</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,88 +1430,88 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1507088421227853</v>
+        <v>0.1238361575677013</v>
       </c>
       <c r="E3">
-        <v>0.1507088421227853</v>
+        <v>0.1238361575677013</v>
       </c>
       <c r="F3">
-        <v>0.3968621884117439</v>
+        <v>0.3093948401889384</v>
       </c>
       <c r="G3">
-        <v>0.3968621884117439</v>
+        <v>0.3130049134693194</v>
       </c>
       <c r="H3">
-        <v>0.3968621884117439</v>
+        <v>0.315445642280694</v>
       </c>
       <c r="I3">
-        <v>0.3968621884117439</v>
+        <v>0.315445642280694</v>
       </c>
       <c r="J3">
-        <v>0.3968621884117439</v>
+        <v>0.315445642280694</v>
       </c>
       <c r="K3">
-        <v>0.4106625687085665</v>
+        <v>0.3507451571268655</v>
       </c>
       <c r="L3">
-        <v>0.4226725901119883</v>
+        <v>0.384886873809401</v>
       </c>
       <c r="M3">
-        <v>0.4226725901119883</v>
+        <v>0.4106860869063234</v>
       </c>
       <c r="N3">
-        <v>0.5537396006440998</v>
+        <v>0.5218201674603294</v>
       </c>
       <c r="O3">
-        <v>0.6658706312563081</v>
+        <v>0.6207086346578599</v>
       </c>
       <c r="P3">
-        <v>0.6658706312563081</v>
+        <v>0.6207086346578599</v>
       </c>
       <c r="Q3">
-        <v>0.6658706312563081</v>
+        <v>0.629466454063239</v>
       </c>
       <c r="R3">
-        <v>0.6658706312563081</v>
+        <v>0.629466454063239</v>
       </c>
       <c r="S3">
-        <v>0.8314067502279038</v>
+        <v>0.7628911885193805</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.8982929234751769</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.8982929234751769</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9243407836379316</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.938436260956365</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9531666646200565</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9597817230415457</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9597817230415457</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9621368722604221</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9882576131929275</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9882576131929275</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9882576131929275</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9932109376577365</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1537,88 +1537,88 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07240077589680524</v>
+        <v>0.07406299763220055</v>
       </c>
       <c r="E4">
-        <v>0.07240077589680524</v>
+        <v>0.07406299763220055</v>
       </c>
       <c r="F4">
-        <v>0.24762376579232</v>
+        <v>0.2162626436229703</v>
       </c>
       <c r="G4">
-        <v>0.24762376579232</v>
+        <v>0.2325876263500785</v>
       </c>
       <c r="H4">
-        <v>0.24762376579232</v>
+        <v>0.2325876263500785</v>
       </c>
       <c r="I4">
-        <v>0.24762376579232</v>
+        <v>0.2325876263500785</v>
       </c>
       <c r="J4">
-        <v>0.24762376579232</v>
+        <v>0.2325876263500785</v>
       </c>
       <c r="K4">
-        <v>0.3451009670622112</v>
+        <v>0.323267885090441</v>
       </c>
       <c r="L4">
-        <v>0.3451009670622112</v>
+        <v>0.323267885090441</v>
       </c>
       <c r="M4">
-        <v>0.3765690967956198</v>
+        <v>0.3702062643200841</v>
       </c>
       <c r="N4">
-        <v>0.4491679000558701</v>
+        <v>0.4444004876894449</v>
       </c>
       <c r="O4">
-        <v>0.6627427994590247</v>
+        <v>0.6120145890821818</v>
       </c>
       <c r="P4">
-        <v>0.6627427994590247</v>
+        <v>0.6120145890821818</v>
       </c>
       <c r="Q4">
-        <v>0.6627427994590247</v>
+        <v>0.6198226324112091</v>
       </c>
       <c r="R4">
-        <v>0.6627427994590247</v>
+        <v>0.6344058281914097</v>
       </c>
       <c r="S4">
-        <v>0.7787469783857592</v>
+        <v>0.7373632604398941</v>
       </c>
       <c r="T4">
-        <v>0.9948237094039735</v>
+        <v>0.906635237250581</v>
       </c>
       <c r="U4">
-        <v>0.9948237094039735</v>
+        <v>0.906635237250581</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9361509436127994</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9615254721708318</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9660609385904044</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.96710096846397</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.96710096846397</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9771109366019374</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9939596828083535</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9939596828083535</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9939596828083535</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9939596828083535</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1644,88 +1644,88 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1333388363019706</v>
+        <v>0.1123349555335228</v>
       </c>
       <c r="E5">
-        <v>0.1333388363019706</v>
+        <v>0.1123349555335228</v>
       </c>
       <c r="F5">
-        <v>0.4438660709577767</v>
+        <v>0.3390459778035009</v>
       </c>
       <c r="G5">
-        <v>0.4678425510362133</v>
+        <v>0.3807869425899531</v>
       </c>
       <c r="H5">
-        <v>0.4678425510362133</v>
+        <v>0.3807869425899531</v>
       </c>
       <c r="I5">
-        <v>0.4678425510362133</v>
+        <v>0.3807869425899531</v>
       </c>
       <c r="J5">
-        <v>0.4678425510362133</v>
+        <v>0.3807869425899531</v>
       </c>
       <c r="K5">
-        <v>0.4678425510362133</v>
+        <v>0.3967037886162847</v>
       </c>
       <c r="L5">
-        <v>0.4951633187157491</v>
+        <v>0.4406035090854052</v>
       </c>
       <c r="M5">
-        <v>0.4951633187157491</v>
+        <v>0.4623567722986088</v>
       </c>
       <c r="N5">
-        <v>0.5956388431215098</v>
+        <v>0.5534782827672027</v>
       </c>
       <c r="O5">
-        <v>0.7171438943343901</v>
+        <v>0.6581744662046439</v>
       </c>
       <c r="P5">
-        <v>0.7171438943343901</v>
+        <v>0.6581744662046439</v>
       </c>
       <c r="Q5">
-        <v>0.7171438943343901</v>
+        <v>0.6657137960202474</v>
       </c>
       <c r="R5">
-        <v>0.7171438943343901</v>
+        <v>0.6657137960202474</v>
       </c>
       <c r="S5">
-        <v>0.8664979177344283</v>
+        <v>0.7883866411974674</v>
       </c>
       <c r="T5">
-        <v>0.9972515154699888</v>
+        <v>0.8990528112938596</v>
       </c>
       <c r="U5">
-        <v>0.9972515154699888</v>
+        <v>0.9160349717575198</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9440731509322453</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9520842152270861</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9520842152270861</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9756143315090889</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9756143315090889</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9764479104712112</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9918015522421189</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9918015522421189</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9918015522421189</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9918015522421189</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2969602702621108</v>
+        <v>0.2395425462300438</v>
       </c>
       <c r="E6">
-        <v>0.2969602702621108</v>
+        <v>0.2395425462300438</v>
       </c>
       <c r="F6">
-        <v>0.5710415575861953</v>
+        <v>0.4626287957047966</v>
       </c>
       <c r="G6">
-        <v>0.5710415575861953</v>
+        <v>0.4754417032757244</v>
       </c>
       <c r="H6">
-        <v>0.5710415575861953</v>
+        <v>0.4845923542539652</v>
       </c>
       <c r="I6">
-        <v>0.5710415575861953</v>
+        <v>0.4845923542539652</v>
       </c>
       <c r="J6">
-        <v>0.5710415575861953</v>
+        <v>0.4845923542539652</v>
       </c>
       <c r="K6">
-        <v>0.5710415575861953</v>
+        <v>0.4925842637577827</v>
       </c>
       <c r="L6">
-        <v>0.5710415575861953</v>
+        <v>0.4925842637577827</v>
       </c>
       <c r="M6">
-        <v>0.5710415575861953</v>
+        <v>0.4925842637577827</v>
       </c>
       <c r="N6">
-        <v>0.580542931983683</v>
+        <v>0.5253646078344204</v>
       </c>
       <c r="O6">
-        <v>0.7414403472467439</v>
+        <v>0.6670404470827049</v>
       </c>
       <c r="P6">
-        <v>0.7414403472467439</v>
+        <v>0.6699084593585014</v>
       </c>
       <c r="Q6">
-        <v>0.7414403472467439</v>
+        <v>0.6699084593585014</v>
       </c>
       <c r="R6">
-        <v>0.7414403472467439</v>
+        <v>0.6699084593585014</v>
       </c>
       <c r="S6">
-        <v>0.8748234453301917</v>
+        <v>0.7917939185119452</v>
       </c>
       <c r="T6">
-        <v>0.9730796197340098</v>
+        <v>0.8884134346058454</v>
       </c>
       <c r="U6">
-        <v>0.9730796197340098</v>
+        <v>0.8884134346058454</v>
       </c>
       <c r="V6">
-        <v>0.9730796197340098</v>
+        <v>0.8884134346058454</v>
       </c>
       <c r="W6">
-        <v>0.9839351089245243</v>
+        <v>0.9221677605651193</v>
       </c>
       <c r="X6">
-        <v>0.9839351089245243</v>
+        <v>0.9221677605651193</v>
       </c>
       <c r="Y6">
-        <v>0.9839351089245243</v>
+        <v>0.9279035020117912</v>
       </c>
       <c r="Z6">
-        <v>0.9839351089245243</v>
+        <v>0.9279035020117912</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9654048242238579</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.987754820832226</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.987754820832226</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.987754820832226</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.987754820832226</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5613059549115382</v>
+        <v>0.5251065122630694</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5537396006440998</v>
+        <v>0.5218201674603294</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6627427994590247</v>
+        <v>0.6120145890821818</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5956388431215098</v>
+        <v>0.5534782827672027</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2076,16 +2076,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5710415575861953</v>
+        <v>0.5253646078344204</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7895655072515606</v>
+        <v>0.7470234639942509</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8314067502279038</v>
+        <v>0.7628911885193805</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7787469783857592</v>
+        <v>0.7373632604398941</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7171438943343901</v>
+        <v>0.7883866411974674</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7414403472467439</v>
+        <v>0.7917939185119452</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9405623579411956</v>
+        <v>0.8674969152320484</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8982929234751769</v>
+      </c>
+      <c r="G3">
         <v>18</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8314067502279038</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9948237094039735</v>
+        <v>0.906635237250581</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8990528112938596</v>
+      </c>
+      <c r="G5">
         <v>18</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8664979177344283</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8884134346058454</v>
+      </c>
+      <c r="G6">
         <v>18</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8748234453301917</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9405623579411956</v>
+        <v>0.9078139336563108</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9243407836379316</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9948237094039735</v>
+        <v>0.906635237250581</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9160349717575198</v>
+      </c>
+      <c r="G5">
         <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9972515154699888</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9730796197340098</v>
+        <v>0.9221677605651193</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>9</v>
